--- a/data/IEEE_9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7938D-59EB-4BD5-9CB0-95D428B804B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631E6D1-1C29-4E79-8959-9D5C219E0FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3600" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24360" yWindow="4980" windowWidth="21600" windowHeight="12660" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Base Consumption"/>
@@ -244,7 +247,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>-5.0000000000000001E-3</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
         </row>
         <row r="3">
@@ -1149,592 +1152,592 @@
       <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
-            <v>56.309511426502212</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
-            <v>55.80303789179937</v>
+            <v>57.367609047644216</v>
           </cell>
           <cell r="D2">
-            <v>48.117067049533681</v>
+            <v>50.081028969922819</v>
           </cell>
           <cell r="E2">
-            <v>52.88241128342132</v>
+            <v>45.605015235244068</v>
           </cell>
           <cell r="F2">
-            <v>51.289658458143712</v>
+            <v>48.242748054689628</v>
           </cell>
           <cell r="G2">
-            <v>56.474223462013839</v>
+            <v>50.991289145313466</v>
           </cell>
           <cell r="H2">
-            <v>60.868299549960085</v>
+            <v>71.454090776040104</v>
           </cell>
           <cell r="I2">
-            <v>68.786478518766842</v>
+            <v>68.046838964801609</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>79.849802466258538</v>
           </cell>
           <cell r="K2">
-            <v>79.32833557499923</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>83.321670971970505</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>82.452596358079347</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>73.947023266689911</v>
+            <v>88.414919123216194</v>
           </cell>
           <cell r="O2">
-            <v>73.996480918472415</v>
+            <v>85.804430001207393</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>70.116764852142325</v>
           </cell>
           <cell r="Q2">
-            <v>67.350506949838632</v>
+            <v>80.072269373697054</v>
           </cell>
           <cell r="R2">
-            <v>72.855093240928014</v>
+            <v>84.480905992139938</v>
           </cell>
           <cell r="S2">
-            <v>93.011939159311737</v>
+            <v>95.644352531745085</v>
           </cell>
           <cell r="T2">
-            <v>87.679263937608383</v>
+            <v>95.731441238000997</v>
           </cell>
           <cell r="U2">
-            <v>84.6</v>
+            <v>85.5</v>
           </cell>
           <cell r="V2">
-            <v>89.070149072636383</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>78.266154996342649</v>
+            <v>81.305617326297707</v>
           </cell>
           <cell r="Y2">
-            <v>71.194943358549978</v>
+            <v>72.538244176635828</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>65.555402620965978</v>
+            <v>59.827260644376715</v>
           </cell>
           <cell r="C3">
-            <v>65.30229024346697</v>
+            <v>58.772061219120268</v>
           </cell>
           <cell r="D3">
-            <v>58.500876280522206</v>
+            <v>54.56331730010244</v>
           </cell>
           <cell r="E3">
-            <v>50.267552905334476</v>
+            <v>50.826081270949302</v>
           </cell>
           <cell r="F3">
-            <v>58.787610523613765</v>
+            <v>57.657079552005811</v>
           </cell>
           <cell r="G3">
-            <v>67.727021176180443</v>
+            <v>59.649486540489193</v>
           </cell>
           <cell r="H3">
-            <v>78.590579779532206</v>
+            <v>72.659215267869385</v>
           </cell>
           <cell r="I3">
-            <v>85.674654363204752</v>
+            <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>99.106194329630398</v>
+            <v>95.219676904939007</v>
           </cell>
           <cell r="K3">
-            <v>96.407050061777014</v>
+            <v>108.21199496730074</v>
           </cell>
           <cell r="L3">
-            <v>99.548531315603682</v>
+            <v>93.805346816626539</v>
           </cell>
           <cell r="M3">
-            <v>94.288832112120986</v>
+            <v>88.516046472603378</v>
           </cell>
           <cell r="N3">
             <v>87.481966178020883</v>
           </cell>
           <cell r="O3">
-            <v>104.02063272458084</v>
+            <v>103.07499060890282</v>
           </cell>
           <cell r="P3">
-            <v>81.149285857356148</v>
+            <v>94.52554176790936</v>
           </cell>
           <cell r="Q3">
-            <v>92.683551489830805</v>
+            <v>94.415954321416436</v>
           </cell>
           <cell r="R3">
-            <v>85.699946637247507</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>103</v>
+            <v>108</v>
           </cell>
           <cell r="T3">
             <v>104.61937666064914</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>104.40487231335351</v>
           </cell>
           <cell r="V3">
             <v>96.855581754478948</v>
           </cell>
           <cell r="W3">
-            <v>84.488066904344308</v>
+            <v>98.8690144625306</v>
           </cell>
           <cell r="X3">
-            <v>86.491992341486721</v>
+            <v>82.56053814414642</v>
           </cell>
           <cell r="Y3">
-            <v>77.043461245399598</v>
+            <v>72.049903572086663</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>72.212712620575786</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.077411062395257</v>
+            <v>71.051051378463697</v>
           </cell>
           <cell r="D4">
-            <v>63.702485915992995</v>
+            <v>53.581530209713733</v>
           </cell>
           <cell r="E4">
-            <v>66.594679845444617</v>
+            <v>69.796347145706378</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>68.276724817504061</v>
           </cell>
           <cell r="G4">
-            <v>64.526107230186639</v>
+            <v>59.869584028008227</v>
           </cell>
           <cell r="H4">
             <v>102.95900891476366</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>112.42258885332305</v>
+            <v>116.04912397762378</v>
           </cell>
           <cell r="K4">
-            <v>122.1577888301361</v>
+            <v>111.27244131061903</v>
           </cell>
           <cell r="L4">
-            <v>102.82381485439703</v>
+            <v>122.24609099356093</v>
           </cell>
           <cell r="M4">
-            <v>122.5</v>
+            <v>117.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>119.0644923912506</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>112.56365429018877</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>97.376105273317023</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>89.989239713573582</v>
           </cell>
           <cell r="R4">
-            <v>99.051334073102836</v>
+            <v>104.05392670305753</v>
           </cell>
           <cell r="S4">
-            <v>100.6259123453416</v>
+            <v>97.448251955488715</v>
           </cell>
           <cell r="T4">
-            <v>102.74435260524353</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>104.29162834972759</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>109.84466500038602</v>
+            <v>98.337128667012223</v>
           </cell>
           <cell r="W4">
-            <v>88.860654734496066</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>84.750127592875572</v>
+            <v>80.752480064909747</v>
           </cell>
           <cell r="Y4">
-            <v>82.784612180880288</v>
+            <v>72.726668644885478</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
-            <v>58.68043822340757</v>
+            <v>54.531316328823202</v>
           </cell>
           <cell r="C2">
             <v>52.152371861494736</v>
           </cell>
           <cell r="D2">
-            <v>52.535981370409232</v>
+            <v>44.189143208755425</v>
           </cell>
           <cell r="E2">
-            <v>50.941772337240714</v>
+            <v>46.090174971789217</v>
           </cell>
           <cell r="F2">
-            <v>52.305295259295072</v>
+            <v>50.781840057568033</v>
           </cell>
           <cell r="G2">
-            <v>58.119103757023957</v>
+            <v>57.570810325353918</v>
           </cell>
           <cell r="H2">
-            <v>70.792478824410097</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>66.567559856871142</v>
+            <v>81.360350936175848</v>
           </cell>
           <cell r="J2">
-            <v>78.284120064959353</v>
+            <v>85.329690870805706</v>
           </cell>
           <cell r="K2">
-            <v>82.566226822958399</v>
+            <v>83.375699634948177</v>
           </cell>
           <cell r="L2">
-            <v>80.871033590441968</v>
+            <v>79.237275336089596</v>
           </cell>
           <cell r="M2">
-            <v>88.111107872849502</v>
+            <v>76.794084843309179</v>
           </cell>
           <cell r="N2">
-            <v>80.377199202923805</v>
+            <v>77.965883226836084</v>
           </cell>
           <cell r="O2">
-            <v>71.634891101925433</v>
+            <v>82.655643579144723</v>
           </cell>
           <cell r="P2">
-            <v>74.689597342499425</v>
+            <v>70.878903600535168</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>77.078913509259777</v>
           </cell>
           <cell r="R2">
-            <v>76.73036415799865</v>
+            <v>69.754876507271504</v>
           </cell>
           <cell r="S2">
-            <v>84.23722791786723</v>
+            <v>92.134468035167288</v>
           </cell>
           <cell r="T2">
-            <v>96.626127604711286</v>
+            <v>81.41645937063636</v>
           </cell>
           <cell r="U2">
-            <v>91.8</v>
+            <v>86.399999999999991</v>
           </cell>
           <cell r="V2">
-            <v>82.957491783337801</v>
+            <v>81.211018272109655</v>
           </cell>
           <cell r="W2">
-            <v>86.665244289698251</v>
+            <v>76.665408410117678</v>
           </cell>
           <cell r="X2">
-            <v>72.947095918921306</v>
+            <v>69.907633588966263</v>
           </cell>
           <cell r="Y2">
-            <v>68.508341722378276</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>61.736641303239807</v>
+            <v>57.281419765892608</v>
           </cell>
           <cell r="C3">
-            <v>63.521318691372414</v>
+            <v>64.708633059435456</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>51.188266745456929</v>
           </cell>
           <cell r="E3">
-            <v>53.618723099023434</v>
+            <v>55.852836561482746</v>
           </cell>
           <cell r="F3">
-            <v>54.830752122985913</v>
+            <v>61.613937952633663</v>
           </cell>
           <cell r="G3">
-            <v>58.406788904229003</v>
+            <v>64.620277085529963</v>
           </cell>
           <cell r="H3">
-            <v>73.400635831827245</v>
+            <v>71.91779470391154</v>
           </cell>
           <cell r="I3">
             <v>86.56709867948814</v>
           </cell>
           <cell r="J3">
-            <v>104.93597046666748</v>
+            <v>101.04945304197609</v>
           </cell>
           <cell r="K3">
-            <v>88.537086791427882</v>
+            <v>91.48832301780881</v>
           </cell>
           <cell r="L3">
-            <v>105.29171581458083</v>
+            <v>89.01935973414561</v>
           </cell>
           <cell r="M3">
-            <v>90.440308352442571</v>
+            <v>99.099486811719004</v>
           </cell>
           <cell r="N3">
-            <v>96.134028767055909</v>
+            <v>92.288667616373672</v>
           </cell>
           <cell r="O3">
-            <v>91.727285220766731</v>
+            <v>85.107790411020687</v>
           </cell>
           <cell r="P3">
-            <v>91.850290585798717</v>
+            <v>81.149285857356148</v>
           </cell>
           <cell r="Q3">
-            <v>80.556731668731445</v>
+            <v>84.021537331902692</v>
           </cell>
           <cell r="R3">
-            <v>92.9167842488052</v>
+            <v>86.60205133869222</v>
           </cell>
           <cell r="S3">
-            <v>99</v>
+            <v>103</v>
           </cell>
           <cell r="T3">
-            <v>106.61212669228055</v>
+            <v>98.641126565754902</v>
           </cell>
           <cell r="U3">
-            <v>94.647407611170919</v>
+            <v>90.744421730297901</v>
           </cell>
           <cell r="V3">
-            <v>103.56834484637353</v>
+            <v>87.265920194629544</v>
           </cell>
           <cell r="W3">
-            <v>80.892830014797752</v>
+            <v>87.184494571504246</v>
           </cell>
           <cell r="X3">
-            <v>71.552466391593555</v>
+            <v>83.346828983614472</v>
           </cell>
           <cell r="Y3">
-            <v>73.476634335890353</v>
+            <v>70.623172808282959</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>66.548970454256121</v>
+            <v>77.876454786895465</v>
           </cell>
           <cell r="C4">
-            <v>68.419530957039115</v>
+            <v>72.366811589175995</v>
           </cell>
           <cell r="D4">
-            <v>64.89318658731996</v>
+            <v>62.511785244666022</v>
           </cell>
           <cell r="E4">
-            <v>63.393012545182849</v>
+            <v>67.875346765549324</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>58.705221338414702</v>
           </cell>
           <cell r="G4">
-            <v>63.860889629875437</v>
+            <v>63.195672029564236</v>
           </cell>
           <cell r="H4">
-            <v>107.908961266435</v>
+            <v>98.999047033426592</v>
           </cell>
           <cell r="I4">
-            <v>120.18428409417976</v>
+            <v>101.43994620793154</v>
           </cell>
           <cell r="J4">
-            <v>120.88450414335811</v>
+            <v>128.13757439195962</v>
           </cell>
           <cell r="K4">
-            <v>123.36727188786023</v>
+            <v>125.78623800330847</v>
           </cell>
           <cell r="L4">
             <v>115.39117000326779</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>127.5</v>
           </cell>
           <cell r="N4">
-            <v>126.13763055310707</v>
+            <v>123.77991783248825</v>
           </cell>
           <cell r="O4">
-            <v>116.9779152427452</v>
+            <v>99.320871432519496</v>
           </cell>
           <cell r="P4">
-            <v>116.63731290979733</v>
+            <v>104.86657490972603</v>
           </cell>
           <cell r="Q4">
-            <v>106.98720721502637</v>
+            <v>91.989000596097441</v>
           </cell>
           <cell r="R4">
-            <v>96.049778495130028</v>
+            <v>100.05185259909378</v>
           </cell>
           <cell r="S4">
-            <v>108.04045325499835</v>
+            <v>104.86279286514547</v>
           </cell>
           <cell r="T4">
-            <v>97.448251955488715</v>
+            <v>116.51421429460608</v>
           </cell>
           <cell r="U4">
-            <v>99.990942644584194</v>
+            <v>112.8929997600144</v>
           </cell>
           <cell r="V4">
-            <v>102.52168733369361</v>
+            <v>112.98308400039704</v>
           </cell>
           <cell r="W4">
-            <v>87.915328620299306</v>
+            <v>99.259241990660513</v>
           </cell>
           <cell r="X4">
-            <v>83.151068581689245</v>
+            <v>85.549657098468742</v>
           </cell>
           <cell r="Y4">
-            <v>78.916172359343818</v>
+            <v>70.405604751963608</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>62.829560117991953</v>
+            <v>57.494974824954895</v>
           </cell>
           <cell r="C2">
-            <v>54.759990454569476</v>
+            <v>46.937134675345263</v>
           </cell>
           <cell r="D2">
-            <v>52.044990890311951</v>
+            <v>44.680133688852706</v>
           </cell>
           <cell r="E2">
-            <v>43.664376289063469</v>
+            <v>49.971452864150415</v>
           </cell>
           <cell r="F2">
-            <v>51.797476858719392</v>
+            <v>48.750566455265307</v>
           </cell>
           <cell r="G2">
-            <v>53.732756303663649</v>
+            <v>50.442995713643434</v>
           </cell>
           <cell r="H2">
-            <v>65.49958321137008</v>
+            <v>63.514747356480079</v>
           </cell>
           <cell r="I2">
-            <v>72.484676288593022</v>
+            <v>67.307199410836375</v>
           </cell>
           <cell r="J2">
-            <v>72.804231660412199</v>
+            <v>74.369914061711384</v>
           </cell>
           <cell r="K2">
-            <v>80.947281198978814</v>
+            <v>88.232536506886916</v>
           </cell>
           <cell r="L2">
-            <v>77.603517081737238</v>
+            <v>78.420396208913417</v>
           </cell>
           <cell r="M2">
-            <v>80.835878782430726</v>
+            <v>88.919466660673805</v>
           </cell>
           <cell r="N2">
-            <v>81.180971194953045</v>
+            <v>83.592287171040766</v>
           </cell>
           <cell r="O2">
-            <v>83.442840184660398</v>
+            <v>78.719660551566406</v>
           </cell>
           <cell r="P2">
-            <v>76.976013587677983</v>
+            <v>80.78670732964224</v>
           </cell>
           <cell r="Q2">
-            <v>72.588879712603855</v>
+            <v>68.847184882057277</v>
           </cell>
           <cell r="R2">
-            <v>74.405201607756268</v>
+            <v>78.280472524826905</v>
           </cell>
           <cell r="S2">
-            <v>78.97240117300052</v>
+            <v>89.502054662733926</v>
           </cell>
           <cell r="T2">
-            <v>93.942068504580419</v>
+            <v>91.258009404449538</v>
           </cell>
           <cell r="U2">
-            <v>85.5</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="V2">
-            <v>95.182806361934965</v>
+            <v>85.577202050180063</v>
           </cell>
           <cell r="W2">
-            <v>84.165285319803104</v>
+            <v>80.832006693276242</v>
           </cell>
           <cell r="X2">
-            <v>77.506289413853892</v>
+            <v>80.54575174380895</v>
           </cell>
           <cell r="Y2">
-            <v>73.881544994721679</v>
+            <v>64.478439268120724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>67.464783279829064</v>
+            <v>64.282482181723921</v>
           </cell>
           <cell r="C3">
-            <v>56.991089667025712</v>
+            <v>57.584746851057233</v>
           </cell>
           <cell r="D3">
-            <v>54.56331730010244</v>
+            <v>58.500876280522206</v>
           </cell>
           <cell r="E3">
-            <v>56.411364927097573</v>
+            <v>51.384609636564129</v>
           </cell>
           <cell r="F3">
-            <v>55.961283094593874</v>
+            <v>57.091814066201827</v>
           </cell>
           <cell r="G3">
-            <v>65.241625903660065</v>
+            <v>62.134881813009578</v>
           </cell>
           <cell r="H3">
-            <v>68.210691884122284</v>
+            <v>80.814841471405757</v>
           </cell>
           <cell r="I3">
-            <v>97.276430474888741</v>
+            <v>94.599097526038591</v>
           </cell>
           <cell r="J3">
-            <v>98.134564973457557</v>
+            <v>104.93597046666748</v>
           </cell>
           <cell r="K3">
-            <v>89.52083220022152</v>
+            <v>88.537086791427882</v>
           </cell>
           <cell r="L3">
-            <v>90.933754567137981</v>
+            <v>104.33451839808464</v>
           </cell>
           <cell r="M3">
-            <v>101.98587963147781</v>
+            <v>105.83440339115621</v>
           </cell>
           <cell r="N3">
-            <v>95.172688479385343</v>
+            <v>99.018049630067594</v>
           </cell>
           <cell r="O3">
-            <v>103.07499060890282</v>
+            <v>86.999074642376698</v>
           </cell>
           <cell r="P3">
-            <v>89.175039403688075</v>
+            <v>90.958540191761841</v>
           </cell>
           <cell r="Q3">
-            <v>86.620141579281125</v>
+            <v>90.084947242452373</v>
           </cell>
           <cell r="R3">
-            <v>96.52520305458404</v>
+            <v>91.112574845915773</v>
           </cell>
           <cell r="S3">
-            <v>107</v>
+            <v>95</v>
           </cell>
           <cell r="T3">
-            <v>108.60487672391197</v>
+            <v>96.648376534123486</v>
           </cell>
           <cell r="U3">
-            <v>102.45337937291698</v>
+            <v>89.768675260079647</v>
           </cell>
           <cell r="V3">
-            <v>87.265920194629544</v>
+            <v>88.224886350614497</v>
           </cell>
           <cell r="W3">
-            <v>86.2856853491176</v>
+            <v>96.172586795370663</v>
           </cell>
           <cell r="X3">
             <v>83.346828983614472</v>
@@ -1745,149 +1748,149 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>67.964905995836034</v>
+            <v>76.460519245315552</v>
           </cell>
           <cell r="C4">
-            <v>69.735291167751413</v>
+            <v>63.15649011418995</v>
           </cell>
           <cell r="D4">
-            <v>62.511785244666022</v>
+            <v>61.32108457333905</v>
           </cell>
           <cell r="E4">
-            <v>64.033346005235202</v>
+            <v>58.270344864764034</v>
           </cell>
           <cell r="F4">
-            <v>62.533822730050439</v>
+            <v>59.981421802293276</v>
           </cell>
           <cell r="G4">
-            <v>60.534801628319428</v>
+            <v>62.530454429253034</v>
           </cell>
           <cell r="H4">
-            <v>95.039085152089527</v>
+            <v>93.059104211420987</v>
           </cell>
           <cell r="I4">
-            <v>100.33733809697576</v>
+            <v>105.85037865175464</v>
           </cell>
           <cell r="J4">
             <v>111.21374381188947</v>
           </cell>
           <cell r="K4">
-            <v>129.41468717648084</v>
+            <v>113.69140742606726</v>
           </cell>
           <cell r="L4">
-            <v>110.82122267640568</v>
+            <v>125.67355148870749</v>
           </cell>
           <cell r="M4">
-            <v>118.75</v>
+            <v>122.5</v>
           </cell>
           <cell r="N4">
-            <v>110.81249786908471</v>
+            <v>122.60106147217884</v>
           </cell>
           <cell r="O4">
-            <v>104.83869762321503</v>
+            <v>110.35652381391056</v>
           </cell>
           <cell r="P4">
-            <v>96.306038182401451</v>
+            <v>107.00670909155717</v>
           </cell>
           <cell r="Q4">
-            <v>96.988402802407066</v>
+            <v>107.9870876562883</v>
           </cell>
           <cell r="R4">
-            <v>107.05548228103035</v>
+            <v>99.051334073102836</v>
           </cell>
           <cell r="S4">
-            <v>109.09967338494931</v>
+            <v>98.507472085439673</v>
           </cell>
           <cell r="T4">
-            <v>115.4549941646551</v>
+            <v>112.27733377480222</v>
           </cell>
           <cell r="U4">
-            <v>98.915771218298346</v>
+            <v>117.19368546515781</v>
           </cell>
           <cell r="V4">
-            <v>94.152570000330869</v>
+            <v>97.290989000341895</v>
           </cell>
           <cell r="W4">
-            <v>89.805980848692826</v>
+            <v>90.751306962889601</v>
           </cell>
           <cell r="X4">
-            <v>74.356244020164425</v>
+            <v>75.155773525757581</v>
           </cell>
           <cell r="Y4">
-            <v>83.558300145187573</v>
+            <v>77.368796430729233</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="2">
           <cell r="B2">
-            <v>10.813262185630244</v>
+            <v>12.653817451269436</v>
           </cell>
           <cell r="C2">
             <v>9.2283995159327823</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.2922913132655403</v>
           </cell>
           <cell r="E2">
             <v>7.8793241403845427</v>
           </cell>
           <cell r="F2">
-            <v>9.1242992184498171</v>
+            <v>8.2794566982229814</v>
           </cell>
           <cell r="G2">
-            <v>10.384985187332877</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>15.786886814010129</v>
+            <v>16.275141045371267</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.855716393521188</v>
           </cell>
           <cell r="J2">
-            <v>24.103403479477805</v>
+            <v>24.792072150320028</v>
           </cell>
           <cell r="K2">
-            <v>27.806200777770208</v>
+            <v>24.520013413124634</v>
           </cell>
           <cell r="L2">
-            <v>27.785946846808869</v>
+            <v>24.98186046777311</v>
           </cell>
           <cell r="M2">
-            <v>26.286338021730796</v>
+            <v>23.532531181358994</v>
           </cell>
           <cell r="N2">
-            <v>24.638404161081308</v>
+            <v>25.644053310513197</v>
           </cell>
           <cell r="O2">
-            <v>23.391596336170867</v>
+            <v>23.142749566637139</v>
           </cell>
           <cell r="P2">
-            <v>23.795782085238013</v>
+            <v>20.428454431666598</v>
           </cell>
           <cell r="Q2">
             <v>19.622150335440256</v>
           </cell>
           <cell r="R2">
-            <v>22.671328709175562</v>
+            <v>23.11154868411101</v>
           </cell>
           <cell r="S2">
-            <v>32.700000000000003</v>
+            <v>32.1</v>
           </cell>
           <cell r="T2">
-            <v>31.75383604533792</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>31.656127895941694</v>
+            <v>28.461472787176934</v>
           </cell>
           <cell r="V2">
-            <v>28.494633745335054</v>
+            <v>29.569902943272229</v>
           </cell>
           <cell r="W2">
-            <v>22.950545226683232</v>
+            <v>25.819363380018636</v>
           </cell>
           <cell r="X2">
-            <v>20.278914547482202</v>
+            <v>19.88893542156908</v>
           </cell>
           <cell r="Y2">
             <v>15.109050429231946</v>
@@ -1895,55 +1898,55 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-27.059434563384116</v>
+            <v>-30.841936169018453</v>
           </cell>
           <cell r="C3">
-            <v>-31.939772440491488</v>
+            <v>-29.726124845605938</v>
           </cell>
           <cell r="D3">
             <v>-30.656624782507482</v>
           </cell>
           <cell r="E3">
-            <v>-33.138648183003248</v>
+            <v>-35.167545010534063</v>
           </cell>
           <cell r="F3">
-            <v>-32.200000000000003</v>
+            <v>-36.4</v>
           </cell>
           <cell r="G3">
-            <v>-33.649115465354889</v>
+            <v>-33.337549581416418</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-24.593973728402933</v>
           </cell>
           <cell r="I3">
-            <v>-10.314375907489971</v>
+            <v>-9.3593411012408989</v>
           </cell>
           <cell r="J3">
-            <v>-2.5593955467785316</v>
+            <v>-2.5312703209897567</v>
           </cell>
           <cell r="K3">
-            <v>-0.41797373795190984</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-3.9893191974059161</v>
+            <v>-4.3448030862836715</v>
           </cell>
           <cell r="M3">
             <v>-3.1361382232545592</v>
           </cell>
           <cell r="N3">
-            <v>-3.8987193289407798</v>
+            <v>-4.4212281049843902</v>
           </cell>
           <cell r="O3">
-            <v>-3.9329058759209174</v>
+            <v>-3.7301787689146848</v>
           </cell>
           <cell r="P3">
-            <v>-10.864996868383985</v>
+            <v>-10.659996927471079</v>
           </cell>
           <cell r="Q3">
-            <v>-14.318761230902309</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.996478098968542</v>
+            <v>-13.652865881744731</v>
           </cell>
           <cell r="S3">
             <v>-4.1227000778745406</v>
@@ -1952,915 +1955,915 @@
             <v>-6.3229769374534452</v>
           </cell>
           <cell r="U3">
-            <v>-7.7844020483341021</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-12.742775751833543</v>
+            <v>-11.841771405744304</v>
           </cell>
           <cell r="W3">
-            <v>-15.87262924120456</v>
+            <v>-16.206789856808868</v>
           </cell>
           <cell r="X3">
-            <v>-23.088578632758438</v>
+            <v>-22.191934802360052</v>
           </cell>
           <cell r="Y3">
-            <v>-23.212724838934463</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>40.364416827048736</v>
+            <v>43.59357017321264</v>
           </cell>
           <cell r="C4">
-            <v>51.5</v>
+            <v>52</v>
           </cell>
           <cell r="D4">
-            <v>48.5</v>
+            <v>55.000000000000007</v>
           </cell>
           <cell r="E4">
-            <v>54.500000000000007</v>
+            <v>52.5</v>
           </cell>
           <cell r="F4">
-            <v>54</v>
+            <v>48</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>36.461395757108356</v>
           </cell>
           <cell r="H4">
-            <v>16.721741331392934</v>
+            <v>20.029338517822307</v>
           </cell>
           <cell r="I4">
-            <v>2.2237206877056699</v>
+            <v>2.5549131305554504</v>
           </cell>
           <cell r="J4">
-            <v>-14.395532639376221</v>
+            <v>-13.565021140950668</v>
           </cell>
           <cell r="K4">
-            <v>-12.457672476383268</v>
+            <v>-13.980276890163443</v>
           </cell>
           <cell r="L4">
-            <v>-1.2516779557268016</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
-            <v>-13.28005170360659</v>
+            <v>-14.723535584433394</v>
           </cell>
           <cell r="N4">
-            <v>-13.857445255937311</v>
+            <v>-15.156580748681435</v>
           </cell>
           <cell r="O4">
-            <v>-10.391413319233276</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3063503459713692</v>
+            <v>-1.4175290988199967</v>
           </cell>
           <cell r="Q4">
-            <v>8.729824570743844</v>
+            <v>7.554655878528326</v>
           </cell>
           <cell r="R4">
-            <v>10.839454655483015</v>
+            <v>11.888434138271693</v>
           </cell>
           <cell r="S4">
-            <v>11.888434138271693</v>
+            <v>12.004987414137103</v>
           </cell>
           <cell r="T4">
-            <v>12.820860345194964</v>
+            <v>11.189114483079241</v>
           </cell>
           <cell r="U4">
-            <v>11.305667758944649</v>
+            <v>11.771880862406285</v>
           </cell>
           <cell r="V4">
-            <v>12.820860345194964</v>
+            <v>12.23809396586792</v>
           </cell>
           <cell r="W4">
-            <v>24.305111538796627</v>
+            <v>21.874600384916963</v>
           </cell>
           <cell r="X4">
-            <v>39.381709115562217</v>
+            <v>34.923402423234421</v>
           </cell>
           <cell r="Y4">
-            <v>39.010183557868238</v>
+            <v>34.551876865540436</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>10.353123369220446</v>
           </cell>
           <cell r="C2">
-            <v>9.6720725695833973</v>
+            <v>8.8734610730122903</v>
           </cell>
           <cell r="D2">
-            <v>7.8240208881911526</v>
+            <v>7.0644072097259922</v>
           </cell>
           <cell r="E2">
-            <v>7.2103249209179303</v>
+            <v>7.3589914141327331</v>
           </cell>
           <cell r="F2">
-            <v>7.772551186086881</v>
+            <v>8.8708464623817651</v>
           </cell>
           <cell r="G2">
-            <v>10.594782867885055</v>
+            <v>10.699681708161146</v>
           </cell>
           <cell r="H2">
-            <v>17.414400918547258</v>
+            <v>14.64762694083414</v>
           </cell>
           <cell r="I2">
-            <v>19.670144754169069</v>
+            <v>21.060963070120419</v>
           </cell>
           <cell r="J2">
-            <v>22.037397466951134</v>
+            <v>25.251184597548178</v>
           </cell>
           <cell r="K2">
-            <v>25.78393163029601</v>
+            <v>23.003311552518987</v>
           </cell>
           <cell r="L2">
-            <v>27.531029903260166</v>
+            <v>24.726943524224406</v>
           </cell>
           <cell r="M2">
-            <v>26.53668409812823</v>
+            <v>27.538068403717975</v>
           </cell>
           <cell r="N2">
-            <v>25.141228735797252</v>
+            <v>23.129930436933474</v>
           </cell>
           <cell r="O2">
-            <v>24.138136644772068</v>
+            <v>23.640443105704602</v>
           </cell>
           <cell r="P2">
-            <v>22.897828044285635</v>
+            <v>23.346805064761824</v>
           </cell>
           <cell r="Q2">
-            <v>19.195581849887208</v>
+            <v>21.541708520428976</v>
           </cell>
           <cell r="R2">
-            <v>22.231108734240113</v>
+            <v>20.250118847030599</v>
           </cell>
           <cell r="S2">
-            <v>29.4</v>
+            <v>30.6</v>
           </cell>
           <cell r="T2">
-            <v>32.652529518319184</v>
+            <v>27.85949766241912</v>
           </cell>
           <cell r="U2">
-            <v>30.204011937412258</v>
+            <v>27.009356828647501</v>
           </cell>
           <cell r="V2">
-            <v>27.15054724791359</v>
+            <v>24.193556953586366</v>
           </cell>
           <cell r="W2">
-            <v>23.9068179444617</v>
+            <v>21.994272508904764</v>
           </cell>
           <cell r="X2">
-            <v>19.88893542156908</v>
+            <v>21.253862362265</v>
           </cell>
           <cell r="Y2">
-            <v>13.912293959589812</v>
+            <v>14.809861311821411</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-26.768472901412242</v>
+            <v>-28.223281211271601</v>
           </cell>
           <cell r="C3">
-            <v>-29.093654104210071</v>
+            <v>-34.469655406074978</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-33.722287260758229</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-34.829395539278927</v>
           </cell>
           <cell r="F3">
-            <v>-36.75</v>
+            <v>-37.450000000000003</v>
           </cell>
           <cell r="G3">
-            <v>-33.96068134929336</v>
+            <v>-28.352495438400876</v>
           </cell>
           <cell r="H3">
-            <v>-21.34571304729311</v>
+            <v>-23.897917868165113</v>
           </cell>
           <cell r="I3">
-            <v>-8.5953132562416421</v>
+            <v>-9.7413550237405264</v>
           </cell>
           <cell r="J3">
-            <v>-2.8968982562438326</v>
+            <v>-2.8125225788775072</v>
           </cell>
           <cell r="K3">
-            <v>-0.41357401439452129</v>
+            <v>-0.4091742908371328</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7523299381540793</v>
           </cell>
           <cell r="M3">
-            <v>-2.7876784206707192</v>
+            <v>-2.6715251531427726</v>
           </cell>
           <cell r="N3">
-            <v>-3.7781403806230238</v>
+            <v>-4.0192982772585362</v>
           </cell>
           <cell r="O3">
-            <v>-3.8518150331184242</v>
+            <v>-3.8923604545196708</v>
           </cell>
           <cell r="P3">
-            <v>-10.35249701610172</v>
+            <v>-11.274996750209795</v>
           </cell>
           <cell r="Q3">
-            <v>-15.352073897049898</v>
+            <v>-14.466377326066249</v>
           </cell>
           <cell r="R3">
-            <v>-13.521588325189494</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.884503353133967</v>
+            <v>-4.5708196515565565</v>
           </cell>
           <cell r="T3">
-            <v>-6.2577916082013481</v>
+            <v>-7.1052008884786142</v>
           </cell>
           <cell r="U3">
-            <v>-8.9315770870359703</v>
+            <v>-7.3746966773691494</v>
           </cell>
           <cell r="V3">
-            <v>-11.970486312328481</v>
+            <v>-13.515065191338607</v>
           </cell>
           <cell r="W3">
-            <v>-16.206789856808868</v>
+            <v>-17.543432319226095</v>
           </cell>
           <cell r="X3">
             <v>-21.519451929561264</v>
           </cell>
           <cell r="Y3">
-            <v>-23.969661518464932</v>
+            <v>-25.735847104036036</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>43.997214341483122</v>
+            <v>39.557128490507758</v>
           </cell>
           <cell r="C4">
-            <v>47</v>
+            <v>47.5</v>
           </cell>
           <cell r="D4">
-            <v>52</v>
+            <v>46.5</v>
           </cell>
           <cell r="E4">
-            <v>45.5</v>
+            <v>47.5</v>
           </cell>
           <cell r="F4">
-            <v>50</v>
+            <v>53.5</v>
           </cell>
           <cell r="G4">
-            <v>36.866522376631785</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
             <v>18.191784525361541</v>
           </cell>
           <cell r="I4">
-            <v>2.1290942754628754</v>
+            <v>2.3420037030091629</v>
           </cell>
           <cell r="J4">
-            <v>-13.288183974808817</v>
+            <v>-14.257114056305294</v>
           </cell>
           <cell r="K4">
-            <v>-15.226044137801772</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="L4">
-            <v>-1.1563120162428546</v>
+            <v>-1.1920742435493348</v>
           </cell>
           <cell r="M4">
+            <v>-14.867883972516074</v>
+          </cell>
+          <cell r="N4">
             <v>-13.28005170360659</v>
           </cell>
-          <cell r="N4">
-            <v>-15.445277524846796</v>
-          </cell>
           <cell r="O4">
-            <v>-10.503148946321804</v>
+            <v>-12.290918979738283</v>
           </cell>
           <cell r="P4">
-            <v>-1.3619397223956828</v>
+            <v>-1.3063503459713692</v>
           </cell>
           <cell r="Q4">
-            <v>8.6458839498713065</v>
+            <v>9.2334682959790655</v>
           </cell>
           <cell r="R4">
-            <v>12.587753793464147</v>
+            <v>10.606348103752197</v>
           </cell>
           <cell r="S4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="T4">
+            <v>11.538774310675468</v>
+          </cell>
+          <cell r="U4">
+            <v>12.121540690002512</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="T4">
-            <v>10.489794827886788</v>
-          </cell>
-          <cell r="U4">
-            <v>12.004987414137103</v>
-          </cell>
-          <cell r="V4">
-            <v>11.888434138271693</v>
-          </cell>
           <cell r="W4">
-            <v>23.332907077244762</v>
+            <v>23.575958192632729</v>
           </cell>
           <cell r="X4">
-            <v>40.124760230950187</v>
+            <v>34.551876865540436</v>
           </cell>
           <cell r="Y4">
-            <v>35.666453538622385</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="B2">
-            <v>12.538782747166985</v>
+            <v>11.50347041024494</v>
           </cell>
           <cell r="C2">
-            <v>9.3171341266629053</v>
+            <v>9.0509302944725363</v>
           </cell>
           <cell r="D2">
-            <v>7.444214048958572</v>
+            <v>7.1403685775725076</v>
           </cell>
           <cell r="E2">
-            <v>7.3589914141327331</v>
+            <v>7.6563244005623385</v>
           </cell>
           <cell r="F2">
-            <v>7.9415196901322469</v>
+            <v>9.0398149664271337</v>
           </cell>
           <cell r="G2">
             <v>10.489884027608966</v>
           </cell>
           <cell r="H2">
-            <v>17.902655149908394</v>
+            <v>16.600643866278691</v>
           </cell>
           <cell r="I2">
-            <v>21.259651400970611</v>
+            <v>19.670144754169069</v>
           </cell>
           <cell r="J2">
-            <v>23.644291032249654</v>
+            <v>22.955622361407432</v>
           </cell>
           <cell r="K2">
-            <v>24.772797056558908</v>
+            <v>26.542282560598832</v>
           </cell>
           <cell r="L2">
-            <v>24.726943524224406</v>
+            <v>22.942524919383469</v>
           </cell>
           <cell r="M2">
-            <v>23.28218510496156</v>
+            <v>23.782877257756429</v>
           </cell>
           <cell r="N2">
-            <v>24.386991873723336</v>
+            <v>22.627105862217526</v>
           </cell>
           <cell r="O2">
-            <v>22.396209258035938</v>
+            <v>25.382370492440732</v>
           </cell>
           <cell r="P2">
-            <v>20.428454431666598</v>
+            <v>22.448851023809446</v>
           </cell>
           <cell r="Q2">
-            <v>21.541708520428976</v>
+            <v>19.195581849887208</v>
           </cell>
           <cell r="R2">
-            <v>23.771878646514182</v>
+            <v>19.80989887209515</v>
           </cell>
           <cell r="S2">
-            <v>33</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="T2">
-            <v>32.952094009312937</v>
+            <v>31.454271554344164</v>
           </cell>
           <cell r="U2">
-            <v>30.784858320824032</v>
+            <v>26.718933636941614</v>
           </cell>
           <cell r="V2">
-            <v>26.881729948429296</v>
+            <v>28.763451044819348</v>
           </cell>
           <cell r="W2">
-            <v>24.145886123906319</v>
+            <v>23.428681585572466</v>
           </cell>
           <cell r="X2">
-            <v>19.498956295655962</v>
+            <v>20.668893673395321</v>
           </cell>
           <cell r="Y2">
-            <v>14.809861311821411</v>
+            <v>14.510672194410878</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-28.223281211271601</v>
+            <v>-29.387127859159094</v>
           </cell>
           <cell r="C3">
-            <v>-30.674830957699747</v>
+            <v>-31.939772440491488</v>
           </cell>
           <cell r="D3">
-            <v>-33.381658096508147</v>
+            <v>-36.447320574758898</v>
           </cell>
           <cell r="E3">
-            <v>-34.491246068023791</v>
+            <v>-36.520142895554606</v>
           </cell>
           <cell r="F3">
-            <v>-36.4</v>
+            <v>-37.1</v>
           </cell>
           <cell r="G3">
-            <v>-33.025983697477947</v>
+            <v>-34.27224723323183</v>
           </cell>
           <cell r="H3">
-            <v>-24.825992348482206</v>
+            <v>-21.34571304729311</v>
           </cell>
           <cell r="I3">
-            <v>-10.218872426865063</v>
+            <v>-8.5953132562416421</v>
           </cell>
           <cell r="J3">
-            <v>-2.7000216757224069</v>
+            <v>-2.7281469015111819</v>
           </cell>
           <cell r="K3">
-            <v>-0.42677318506668688</v>
+            <v>-0.47517014419796066</v>
           </cell>
           <cell r="L3">
-            <v>-4.2658066665330594</v>
+            <v>-3.7128317282787733</v>
           </cell>
           <cell r="M3">
-            <v>-2.9038316881986659</v>
+            <v>-2.9619083219626394</v>
           </cell>
           <cell r="N3">
-            <v>-4.4212281049843902</v>
+            <v>-4.1398772255762921</v>
           </cell>
           <cell r="O3">
-            <v>-4.0545421401246573</v>
+            <v>-4.297814668532137</v>
           </cell>
           <cell r="P3">
-            <v>-10.454996986558173</v>
+            <v>-9.5324972524500993</v>
           </cell>
           <cell r="Q3">
-            <v>-15.204457801885956</v>
+            <v>-14.613993421230191</v>
           </cell>
           <cell r="R3">
-            <v>-12.602645429302829</v>
+            <v>-13.915420994855207</v>
           </cell>
           <cell r="S3">
-            <v>-4.7948794383975635</v>
+            <v>-4.2123239926109433</v>
           </cell>
           <cell r="T3">
-            <v>-5.9970502911929593</v>
+            <v>-6.0622356204450565</v>
           </cell>
           <cell r="U3">
-            <v>-7.5385788257551312</v>
+            <v>-7.7844020483341021</v>
           </cell>
           <cell r="V3">
-            <v>-12.35663103208101</v>
+            <v>-13.000205565001897</v>
           </cell>
           <cell r="W3">
-            <v>-15.705548933402408</v>
+            <v>-17.209271703621788</v>
           </cell>
           <cell r="X3">
-            <v>-21.967773844760455</v>
+            <v>-20.398647141563281</v>
           </cell>
           <cell r="Y3">
-            <v>-24.978910424505564</v>
+            <v>-27.754344916117294</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>39.557128490507758</v>
+            <v>39.153484322237276</v>
           </cell>
           <cell r="C4">
-            <v>54.500000000000007</v>
+            <v>53</v>
           </cell>
           <cell r="D4">
-            <v>47</v>
+            <v>45</v>
           </cell>
           <cell r="E4">
-            <v>53.5</v>
+            <v>51.5</v>
           </cell>
           <cell r="F4">
-            <v>48</v>
+            <v>52.5</v>
           </cell>
           <cell r="G4">
-            <v>42.133168430436328</v>
+            <v>43.348548289006601</v>
           </cell>
           <cell r="H4">
-            <v>16.905496730639008</v>
+            <v>18.375539924607619</v>
           </cell>
           <cell r="I4">
-            <v>2.4839433213733546</v>
+            <v>2.4129735121912588</v>
           </cell>
           <cell r="J4">
-            <v>-13.149765391737892</v>
+            <v>-12.457672476383268</v>
           </cell>
           <cell r="K4">
-            <v>-13.841858307092519</v>
+            <v>-15.226044137801772</v>
           </cell>
           <cell r="L4">
-            <v>-1.0728668191944013</v>
+            <v>-1.2516779557268016</v>
           </cell>
           <cell r="M4">
-            <v>-12.991354927441231</v>
+            <v>-13.424400091689272</v>
           </cell>
           <cell r="N4">
-            <v>-15.589625912929476</v>
+            <v>-13.56874847977195</v>
           </cell>
           <cell r="O4">
-            <v>-10.279677692144746</v>
+            <v>-10.726620200498864</v>
           </cell>
           <cell r="P4">
-            <v>-1.3897344106078398</v>
+            <v>-1.3619397223956828</v>
           </cell>
           <cell r="Q4">
-            <v>7.8904183620184734</v>
+            <v>8.3101214663811582</v>
           </cell>
           <cell r="R4">
             <v>10.722901379617607</v>
           </cell>
           <cell r="S4">
+            <v>12.23809396586792</v>
+          </cell>
+          <cell r="T4">
             <v>11.771880862406285</v>
           </cell>
-          <cell r="T4">
-            <v>11.538774310675468</v>
-          </cell>
           <cell r="U4">
+            <v>11.189114483079241</v>
+          </cell>
+          <cell r="V4">
             <v>10.489794827886788</v>
           </cell>
-          <cell r="V4">
-            <v>10.606348103752197</v>
-          </cell>
           <cell r="W4">
-            <v>21.874600384916963</v>
+            <v>25.277316000348492</v>
           </cell>
           <cell r="X4">
-            <v>34.923402423234421</v>
+            <v>35.294927980928399</v>
           </cell>
           <cell r="Y4">
-            <v>34.180351307846458</v>
+            <v>33.437300192458487</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
-            <v>59.438297935290414</v>
+            <v>69.129324772566022</v>
           </cell>
           <cell r="C2">
-            <v>61.423437385685375</v>
+            <v>56.304817603544919</v>
           </cell>
           <cell r="D2">
-            <v>53.242242251262013</v>
+            <v>57.006845238724985</v>
           </cell>
           <cell r="E2">
-            <v>56.76103778770694</v>
+            <v>56.240294321764672</v>
           </cell>
           <cell r="F2">
-            <v>58.515902732345822</v>
+            <v>54.651645004738072</v>
           </cell>
           <cell r="G2">
-            <v>46.517983202194273</v>
+            <v>48.540504210985318</v>
           </cell>
           <cell r="H2">
-            <v>65.231323143366964</v>
+            <v>55.150118657573884</v>
           </cell>
           <cell r="I2">
-            <v>63.323499844761344</v>
+            <v>72.271385692390666</v>
           </cell>
           <cell r="J2">
-            <v>83.744840137692734</v>
+            <v>77.541518646011781</v>
           </cell>
           <cell r="K2">
-            <v>90.712731831924771</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>84.168275910791152</v>
+            <v>82.450555994244382</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>78.520740920230551</v>
           </cell>
           <cell r="N2">
-            <v>94.295843361447737</v>
+            <v>97.854177073200489</v>
           </cell>
           <cell r="O2">
-            <v>94.171291445793756</v>
+            <v>86.996335907066594</v>
           </cell>
           <cell r="P2">
-            <v>90.9</v>
+            <v>81.900000000000006</v>
           </cell>
           <cell r="Q2">
-            <v>83.14278879614011</v>
+            <v>92.669566679031178</v>
           </cell>
           <cell r="R2">
-            <v>88.383428673284783</v>
+            <v>91.849445484001834</v>
           </cell>
           <cell r="S2">
-            <v>86.603039142092371</v>
+            <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>87.058706702768248</v>
+            <v>78.68767721211745</v>
           </cell>
           <cell r="U2">
-            <v>89.462449644059646</v>
+            <v>76.802669034051206</v>
           </cell>
           <cell r="V2">
-            <v>77.845430393062216</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>79.768981770656168</v>
+            <v>82.370144219699284</v>
           </cell>
           <cell r="X2">
-            <v>80.476788208874339</v>
+            <v>83.018160468101954</v>
           </cell>
           <cell r="Y2">
-            <v>80.252838115129975</v>
+            <v>77.224429129653373</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>78.761702268432046</v>
+            <v>72.198227079396034</v>
           </cell>
           <cell r="C3">
-            <v>60.957267279529205</v>
+            <v>62.945004256035581</v>
           </cell>
           <cell r="D3">
-            <v>62.496524084707048</v>
+            <v>58.590491329412863</v>
           </cell>
           <cell r="E3">
-            <v>70.778324224091151</v>
+            <v>64.934242407423071</v>
           </cell>
           <cell r="F3">
-            <v>68.835723540077041</v>
+            <v>64.939361830261362</v>
           </cell>
           <cell r="G3">
-            <v>68.226960514451122</v>
+            <v>59.215852521976437</v>
           </cell>
           <cell r="H3">
-            <v>63.233920563755632</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>74.249122012378223</v>
+            <v>81.674034213616039</v>
           </cell>
           <cell r="J3">
-            <v>89.32415807141399</v>
+            <v>94.965683844345406</v>
           </cell>
           <cell r="K3">
-            <v>91.099768724681368</v>
+            <v>102.72952643421517</v>
           </cell>
           <cell r="L3">
-            <v>104.56794794895464</v>
+            <v>94.015219256858288</v>
           </cell>
           <cell r="M3">
             <v>104.56558070996049</v>
           </cell>
           <cell r="N3">
-            <v>97</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>106.00220233070868</v>
+            <v>106.98370420414118</v>
           </cell>
           <cell r="P3">
-            <v>96.201247252621954</v>
+            <v>90.5423503554089</v>
           </cell>
           <cell r="Q3">
-            <v>94.139691704866777</v>
+            <v>87.803366301654577</v>
           </cell>
           <cell r="R3">
-            <v>87.49328342078644</v>
+            <v>100.38703045121815</v>
           </cell>
           <cell r="S3">
-            <v>93.93818121791675</v>
+            <v>93.008100215759157</v>
           </cell>
           <cell r="T3">
-            <v>93.402885050440617</v>
+            <v>90.600798498927389</v>
           </cell>
           <cell r="U3">
-            <v>92.775204276389431</v>
+            <v>99.205168929208511</v>
           </cell>
           <cell r="V3">
-            <v>96.739257962336225</v>
+            <v>93.975279163412324</v>
           </cell>
           <cell r="W3">
-            <v>95.948572984935637</v>
+            <v>100.74600163418242</v>
           </cell>
           <cell r="X3">
-            <v>80.492115032773299</v>
+            <v>93.907467538235508</v>
           </cell>
           <cell r="Y3">
-            <v>82.80504418314284</v>
+            <v>80.345488415326713</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>90.673838861083524</v>
+            <v>81.523267966845722</v>
           </cell>
           <cell r="C4">
-            <v>70.442171306853069</v>
+            <v>73.471942115749968</v>
           </cell>
           <cell r="D4">
-            <v>69.155371638820881</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>65.303984128223789</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>65.303984128223789</v>
+            <v>66.693430599037058</v>
           </cell>
           <cell r="G4">
-            <v>67.785795948213959</v>
+            <v>72.255189087656632</v>
           </cell>
           <cell r="H4">
-            <v>94.26695628322733</v>
+            <v>100.80030968899557</v>
           </cell>
           <cell r="I4">
-            <v>107.96214538005113</v>
+            <v>124.04161384090982</v>
           </cell>
           <cell r="J4">
-            <v>109.08253199200091</v>
+            <v>122.26833256246255</v>
           </cell>
           <cell r="K4">
-            <v>116.1885059508124</v>
+            <v>118.53574849527327</v>
           </cell>
           <cell r="L4">
-            <v>118.47945024446015</v>
+            <v>106.7488116063948</v>
           </cell>
           <cell r="M4">
             <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>118.75</v>
+            <v>133.75</v>
           </cell>
           <cell r="O4">
-            <v>133.75</v>
+            <v>113.75</v>
           </cell>
           <cell r="P4">
-            <v>128.22627818362832</v>
+            <v>123.47715676941986</v>
           </cell>
           <cell r="Q4">
-            <v>110.15231154251752</v>
+            <v>118.02033379555451</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="S4">
-            <v>109.94205206112159</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="T4">
             <v>104.70671624868721</v>
           </cell>
           <cell r="U4">
-            <v>106.80085057366097</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="V4">
-            <v>109.94205206112159</v>
+            <v>94.236044623818501</v>
           </cell>
           <cell r="W4">
-            <v>96.330178948792238</v>
+            <v>100.51844759873973</v>
           </cell>
           <cell r="X4">
-            <v>94.886948844600084</v>
+            <v>108.00961198268308</v>
           </cell>
           <cell r="Y4">
-            <v>102.00450593617379</v>
+            <v>86.892727278962852</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
-            <v>70.421461684202782</v>
+            <v>64.606845581837405</v>
           </cell>
           <cell r="C2">
-            <v>62.560908448383252</v>
+            <v>61.423437385685375</v>
           </cell>
           <cell r="D2">
-            <v>57.006845238724985</v>
+            <v>59.158046945846685</v>
           </cell>
           <cell r="E2">
-            <v>47.387655400746162</v>
+            <v>47.908398866688422</v>
           </cell>
           <cell r="F2">
-            <v>52.443497731819363</v>
+            <v>50.787387277130335</v>
           </cell>
           <cell r="G2">
-            <v>53.59680673296296</v>
+            <v>54.60806723735849</v>
           </cell>
           <cell r="H2">
             <v>56.929154743302071</v>
           </cell>
           <cell r="I2">
-            <v>65.388396578829642</v>
+            <v>68.829891135610154</v>
           </cell>
           <cell r="J2">
-            <v>85.295670510612965</v>
+            <v>83.744840137692734</v>
           </cell>
           <cell r="K2">
-            <v>91.544958729465364</v>
+            <v>85.719370446681197</v>
           </cell>
           <cell r="L2">
-            <v>85.885995827337908</v>
+            <v>79.873976119424256</v>
           </cell>
           <cell r="M2">
-            <v>95.969794458059567</v>
+            <v>81.138098950904904</v>
           </cell>
           <cell r="N2">
-            <v>96.075010217324106</v>
+            <v>90.737509649694985</v>
           </cell>
           <cell r="O2">
-            <v>86.099466464725708</v>
+            <v>89.686944234089282</v>
           </cell>
           <cell r="P2">
-            <v>84.6</v>
+            <v>88.2</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>94.401708112284098</v>
           </cell>
           <cell r="R2">
-            <v>81.451395051850668</v>
+            <v>82.317899254529934</v>
           </cell>
           <cell r="S2">
-            <v>82.439431491030234</v>
+            <v>91.599368323366932</v>
           </cell>
           <cell r="T2">
-            <v>85.38450080463808</v>
+            <v>82.036089008377772</v>
           </cell>
           <cell r="U2">
-            <v>75.958683660050639</v>
+            <v>88.618464270059093</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>83.70476386350775</v>
           </cell>
           <cell r="W2">
-            <v>94.508902315233939</v>
+            <v>88.439523267466612</v>
           </cell>
           <cell r="X2">
-            <v>86.406656813738763</v>
+            <v>76.24116777682832</v>
           </cell>
           <cell r="Y2">
-            <v>73.438917897807613</v>
+            <v>68.896304419592724</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>77.303152226424046</v>
+            <v>74.386052142408033</v>
           </cell>
           <cell r="C3">
             <v>65.595320224710775</v>
           </cell>
           <cell r="D3">
-            <v>67.704567758432646</v>
+            <v>61.845518625491351</v>
           </cell>
           <cell r="E3">
-            <v>69.479639375942696</v>
+            <v>67.531612103719993</v>
           </cell>
           <cell r="F3">
-            <v>70.134510776682276</v>
+            <v>69.485117158379666</v>
           </cell>
           <cell r="G3">
-            <v>65.008707659995878</v>
+            <v>65.652358230886918</v>
           </cell>
           <cell r="H3">
-            <v>72.267337787149287</v>
+            <v>72.962216035102657</v>
           </cell>
           <cell r="I3">
-            <v>79.199063479870105</v>
+            <v>88.273956170271887</v>
           </cell>
           <cell r="J3">
-            <v>90.264412366902562</v>
+            <v>94.025429548856835</v>
           </cell>
           <cell r="K3">
-            <v>88.192329297297931</v>
+            <v>94.00720815206482</v>
           </cell>
           <cell r="L3">
-            <v>95.933897200875805</v>
+            <v>89.218524396814502</v>
           </cell>
           <cell r="M3">
-            <v>103.57911296741369</v>
+            <v>88.782096829211724</v>
           </cell>
           <cell r="N3">
-            <v>108</v>
+            <v>92</v>
           </cell>
           <cell r="O3">
-            <v>89.316670482356386</v>
+            <v>100.11319109011374</v>
           </cell>
           <cell r="P3">
-            <v>97.144396735490801</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>83.277419585074455</v>
+            <v>88.708555644970616</v>
           </cell>
           <cell r="R3">
-            <v>94.861138866747424</v>
+            <v>83.809355697805969</v>
           </cell>
           <cell r="S3">
-            <v>93.008100215759157</v>
+            <v>101.37882923517749</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>102.74317355548469</v>
           </cell>
           <cell r="U3">
-            <v>82.670974107673757</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>100.42456302756808</v>
+            <v>101.34588929387604</v>
           </cell>
           <cell r="W3">
-            <v>87.313201416291434</v>
+            <v>88.272687146140797</v>
           </cell>
           <cell r="X3">
-            <v>98.379251706722926</v>
+            <v>82.280828700168257</v>
           </cell>
           <cell r="Y3">
-            <v>84.444748028353587</v>
+            <v>88.54400764138046</v>
           </cell>
         </row>
         <row r="4">
@@ -2868,518 +2871,518 @@
             <v>79.859527804257041</v>
           </cell>
           <cell r="C4">
-            <v>71.957056711301519</v>
+            <v>68.169843200180395</v>
           </cell>
           <cell r="D4">
-            <v>68.435003184249837</v>
+            <v>79.240530002815603</v>
           </cell>
           <cell r="E4">
-            <v>75.030109423916699</v>
+            <v>70.861770011476878</v>
           </cell>
           <cell r="F4">
-            <v>63.91453765741052</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>85.866930475811046</v>
+            <v>84.000258074162971</v>
           </cell>
           <cell r="I4">
-            <v>111.40774576452085</v>
+            <v>119.4474799949502</v>
           </cell>
           <cell r="J4">
-            <v>116.27478684861634</v>
+            <v>131.85800570461649</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>129.09833994534713</v>
           </cell>
           <cell r="L4">
-            <v>121.99864183587977</v>
+            <v>126.69089729110591</v>
           </cell>
           <cell r="M4">
-            <v>133.75</v>
+            <v>115</v>
           </cell>
           <cell r="N4">
-            <v>131.25</v>
+            <v>121.25</v>
           </cell>
           <cell r="O4">
-            <v>120</v>
+            <v>123.75</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>116.35347464810717</v>
           </cell>
           <cell r="Q4">
-            <v>119.14433697455979</v>
+            <v>102.28428928948057</v>
           </cell>
           <cell r="R4">
-            <v>105.75378341117408</v>
+            <v>114.13032071106907</v>
           </cell>
           <cell r="S4">
-            <v>113.08325354858221</v>
+            <v>106.80085057366097</v>
           </cell>
           <cell r="T4">
+            <v>108.8949848986347</v>
+          </cell>
+          <cell r="U4">
+            <v>103.65964908620035</v>
+          </cell>
+          <cell r="V4">
             <v>100.51844759873973</v>
           </cell>
-          <cell r="U4">
-            <v>101.56551476122659</v>
-          </cell>
-          <cell r="V4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="W4">
-            <v>112.03618638609532</v>
+            <v>107.84791773614783</v>
           </cell>
           <cell r="X4">
-            <v>108.00961198268308</v>
+            <v>99.934126974632008</v>
           </cell>
           <cell r="Y4">
-            <v>98.226561271871049</v>
+            <v>95.393102773643989</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="B2">
-            <v>58.792229479472041</v>
+            <v>65.252914037655785</v>
           </cell>
           <cell r="C2">
-            <v>51.754933352753412</v>
+            <v>52.323668884102354</v>
           </cell>
           <cell r="D2">
-            <v>57.544645665505406</v>
+            <v>48.402038410238191</v>
           </cell>
           <cell r="E2">
-            <v>54.678063923937877</v>
+            <v>53.115833526111082</v>
           </cell>
           <cell r="F2">
             <v>51.891460913589682</v>
           </cell>
           <cell r="G2">
-            <v>46.012352949996504</v>
+            <v>47.023613454392034</v>
           </cell>
           <cell r="H2">
-            <v>55.150118657573884</v>
+            <v>59.89421488618239</v>
           </cell>
           <cell r="I2">
-            <v>64.700097667473543</v>
+            <v>70.206488958322353</v>
           </cell>
           <cell r="J2">
-            <v>82.969424951232611</v>
+            <v>82.194009764772488</v>
           </cell>
           <cell r="K2">
-            <v>81.55823595897823</v>
+            <v>84.05491665160001</v>
           </cell>
           <cell r="L2">
-            <v>78.156256202877501</v>
+            <v>84.168275910791152</v>
           </cell>
           <cell r="M2">
-            <v>88.117720366036508</v>
+            <v>86.372815012253596</v>
           </cell>
           <cell r="N2">
-            <v>88.068759365880425</v>
+            <v>82.731258798251318</v>
           </cell>
           <cell r="O2">
-            <v>93.274422003452855</v>
+            <v>88.790074791748381</v>
           </cell>
           <cell r="P2">
-            <v>99.000000000000014</v>
+            <v>98.100000000000009</v>
           </cell>
           <cell r="Q2">
-            <v>78.812435213007817</v>
+            <v>84.008859512766563</v>
           </cell>
           <cell r="R2">
-            <v>78.851882443812897</v>
+            <v>79.718386646492149</v>
           </cell>
           <cell r="S2">
             <v>75.777659249330824</v>
           </cell>
           <cell r="T2">
-            <v>84.54739785557301</v>
+            <v>76.176368364922212</v>
           </cell>
           <cell r="U2">
-            <v>86.930493522057958</v>
+            <v>80.178610530053447</v>
           </cell>
           <cell r="V2">
-            <v>79.519525670332357</v>
+            <v>84.541811502142835</v>
           </cell>
           <cell r="W2">
-            <v>80.636035920337207</v>
+            <v>95.375956464914978</v>
           </cell>
           <cell r="X2">
-            <v>87.253780900147973</v>
+            <v>82.171036381692744</v>
           </cell>
           <cell r="Y2">
-            <v>76.46732688328423</v>
+            <v>70.410508912331025</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>74.386052142408033</v>
+            <v>79.490977289436046</v>
           </cell>
           <cell r="C3">
-            <v>63.607583248204378</v>
+            <v>64.932741232541971</v>
           </cell>
           <cell r="D3">
-            <v>69.657584136079734</v>
+            <v>63.798535003138447</v>
           </cell>
           <cell r="E3">
-            <v>70.128981800016916</v>
+            <v>58.440818166680764</v>
           </cell>
           <cell r="F3">
             <v>62.991180975353522</v>
           </cell>
           <cell r="G3">
-            <v>69.514261656233217</v>
+            <v>58.57220195108539</v>
           </cell>
           <cell r="H3">
-            <v>75.74172902691609</v>
+            <v>71.572459539195933</v>
           </cell>
           <cell r="I3">
-            <v>89.923936659435853</v>
+            <v>79.199063479870105</v>
           </cell>
           <cell r="J3">
-            <v>96.846192435322536</v>
+            <v>101.54746391276539</v>
           </cell>
           <cell r="K3">
-            <v>101.76037995842069</v>
+            <v>88.192329297297931</v>
           </cell>
           <cell r="L3">
-            <v>89.218524396814502</v>
+            <v>92.09654131284077</v>
           </cell>
           <cell r="M3">
-            <v>99.633241997226492</v>
+            <v>98.646774254679698</v>
           </cell>
           <cell r="N3">
-            <v>94</v>
+            <v>90</v>
           </cell>
           <cell r="O3">
-            <v>95.205681722951311</v>
+            <v>92.261176102653849</v>
           </cell>
           <cell r="P3">
-            <v>95.258097769753121</v>
+            <v>89.599200872540052</v>
           </cell>
           <cell r="Q3">
-            <v>93.234502361550753</v>
+            <v>98.665638421446914</v>
           </cell>
           <cell r="R3">
-            <v>93.019175005257182</v>
+            <v>93.940156936002296</v>
           </cell>
           <cell r="S3">
-            <v>91.147938211443972</v>
+            <v>86.497533200656022</v>
           </cell>
           <cell r="T3">
-            <v>91.534827349431808</v>
+            <v>95.270942751449425</v>
           </cell>
           <cell r="U3">
-            <v>85.426673244596216</v>
+            <v>83.589540486647905</v>
           </cell>
           <cell r="V3">
-            <v>95.817931696028253</v>
+            <v>97.660584228644183</v>
           </cell>
           <cell r="W3">
-            <v>89.232172875990145</v>
+            <v>105.5434302834292</v>
           </cell>
           <cell r="X3">
-            <v>82.280828700168257</v>
+            <v>84.069542367563216</v>
           </cell>
           <cell r="Y3">
-            <v>77.066080724905206</v>
+            <v>85.264599950958967</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>84.850748292023113</v>
+            <v>82.355138048140077</v>
           </cell>
           <cell r="C4">
-            <v>77.259155626871106</v>
+            <v>74.229384817974207</v>
           </cell>
           <cell r="D4">
-            <v>77.7997930936735</v>
+            <v>68.435003184249837</v>
           </cell>
           <cell r="E4">
-            <v>73.64066295310343</v>
+            <v>67.388153834443699</v>
           </cell>
           <cell r="F4">
-            <v>62.525091186597251</v>
+            <v>63.91453765741052</v>
           </cell>
           <cell r="G4">
-            <v>70.765391374509065</v>
+            <v>70.020492517935281</v>
           </cell>
           <cell r="H4">
-            <v>88.666939078283136</v>
+            <v>96.133628684875404</v>
           </cell>
           <cell r="I4">
-            <v>104.51654499558143</v>
+            <v>105.66507845707133</v>
           </cell>
           <cell r="J4">
-            <v>118.67220513415482</v>
+            <v>124.66575084800104</v>
           </cell>
           <cell r="K4">
-            <v>107.97315704519941</v>
+            <v>124.40385485642541</v>
           </cell>
           <cell r="L4">
-            <v>107.92187547020133</v>
+            <v>109.09493933400788</v>
           </cell>
           <cell r="M4">
-            <v>123.75</v>
+            <v>132.5</v>
           </cell>
           <cell r="N4">
-            <v>137.5</v>
+            <v>120</v>
           </cell>
           <cell r="O4">
-            <v>137.5</v>
+            <v>135</v>
           </cell>
           <cell r="P4">
-            <v>121.10259606231564</v>
+            <v>130.60083889073255</v>
           </cell>
           <cell r="Q4">
-            <v>107.90430518450697</v>
+            <v>101.16028611047528</v>
           </cell>
           <cell r="R4">
-            <v>107.84791773614783</v>
+            <v>98.424313273765975</v>
           </cell>
           <cell r="S4">
+            <v>105.75378341117408</v>
+          </cell>
+          <cell r="T4">
             <v>110.98911922360845</v>
           </cell>
-          <cell r="T4">
-            <v>115.17738787355594</v>
-          </cell>
           <cell r="U4">
-            <v>115.17738787355594</v>
+            <v>105.75378341117408</v>
           </cell>
           <cell r="V4">
-            <v>98.424313273765975</v>
+            <v>99.471380436252844</v>
           </cell>
           <cell r="W4">
-            <v>99.471380436252844</v>
+            <v>95.283111786305369</v>
           </cell>
           <cell r="X4">
-            <v>100.94356260063839</v>
+            <v>103.97186947865754</v>
           </cell>
           <cell r="Y4">
-            <v>102.94899210224946</v>
+            <v>98.226561271871049</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="13">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>14.106347713765699</v>
           </cell>
           <cell r="C2">
-            <v>9.236094618732734</v>
+            <v>10.415170527507128</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.3112586271226867</v>
           </cell>
           <cell r="E2">
-            <v>8.2948546189919714</v>
+            <v>8.3761767230997357</v>
           </cell>
           <cell r="F2">
-            <v>8.4256053063681797</v>
+            <v>9.3617836737424209</v>
           </cell>
           <cell r="G2">
-            <v>4.6925448149284597</v>
+            <v>4.0842519685488439</v>
           </cell>
           <cell r="H2">
-            <v>7.5809210989341649</v>
+            <v>7.3534934659661397</v>
           </cell>
           <cell r="I2">
-            <v>13.110872036015174</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>23.098694426383936</v>
+            <v>20.131889637674071</v>
           </cell>
           <cell r="K2">
-            <v>26.188605949002458</v>
+            <v>27.4476735427045</v>
           </cell>
           <cell r="L2">
-            <v>27.76518799587263</v>
+            <v>28.040090847316911</v>
           </cell>
           <cell r="M2">
-            <v>27.06922891897748</v>
+            <v>31.34331769565814</v>
           </cell>
           <cell r="N2">
-            <v>31.858957273478502</v>
+            <v>27.095001045668631</v>
           </cell>
           <cell r="O2">
-            <v>29.4</v>
+            <v>32.1</v>
           </cell>
           <cell r="P2">
-            <v>28.297707575904976</v>
+            <v>30.978543030464397</v>
           </cell>
           <cell r="Q2">
-            <v>27.067762468649544</v>
+            <v>27.355717388528792</v>
           </cell>
           <cell r="R2">
-            <v>28.773679580925911</v>
+            <v>27.403504362786581</v>
           </cell>
           <cell r="S2">
-            <v>24.317524564645893</v>
+            <v>21.885772108181303</v>
           </cell>
           <cell r="T2">
-            <v>24.447069097882029</v>
+            <v>22.026567207002621</v>
           </cell>
           <cell r="U2">
-            <v>21.644702762152292</v>
+            <v>23.256542329546615</v>
           </cell>
           <cell r="V2">
-            <v>20.340727461948816</v>
+            <v>21.170961235905914</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>25.628670071555877</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>21.849453220621754</v>
           </cell>
           <cell r="Y2">
-            <v>16.865863945424714</v>
+            <v>17.045288029950505</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.919804466460054</v>
+            <v>-25.62836192835006</v>
           </cell>
           <cell r="C3">
-            <v>-33.954684421399534</v>
+            <v>-34.906684919195783</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-32.877699148316708</v>
           </cell>
           <cell r="E3">
             <v>-31.917683997931213</v>
           </cell>
           <cell r="F3">
-            <v>-31.816660608509856</v>
+            <v>-36.606265431296286</v>
           </cell>
           <cell r="G3">
-            <v>-34.299999999999997</v>
+            <v>-35.700000000000003</v>
           </cell>
           <cell r="H3">
-            <v>-28.817451981430526</v>
+            <v>-27.300743982407869</v>
           </cell>
           <cell r="I3">
-            <v>-4.5777343692523207</v>
+            <v>-5.0496657475257569</v>
           </cell>
           <cell r="J3">
-            <v>13.633784980259477</v>
+            <v>14.08824447960146</v>
           </cell>
           <cell r="K3">
-            <v>20.509745529691543</v>
+            <v>23.817769002222434</v>
           </cell>
           <cell r="L3">
-            <v>16.642574040864059</v>
+            <v>18.202815357195067</v>
           </cell>
           <cell r="M3">
-            <v>20.782842726518385</v>
+            <v>24.939411271822067</v>
           </cell>
           <cell r="N3">
-            <v>21.721882394273109</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.798088720687748</v>
+            <v>19.631687509481115</v>
           </cell>
           <cell r="P3">
-            <v>9.9113973844948262</v>
+            <v>11.327311296565515</v>
           </cell>
           <cell r="Q3">
-            <v>2.808610616749061</v>
+            <v>2.9187522095627498</v>
           </cell>
           <cell r="R3">
-            <v>6.2480395020522259</v>
+            <v>5.5129760312225526</v>
           </cell>
           <cell r="S3">
-            <v>6.9939757541716467</v>
+            <v>7.8868237227893054</v>
           </cell>
           <cell r="T3">
-            <v>4.303258215747408</v>
+            <v>4.4825606414035502</v>
           </cell>
           <cell r="U3">
-            <v>-0.84456791096214168</v>
+            <v>-0.90310232063278517</v>
           </cell>
           <cell r="V3">
             <v>-3.0685485255490925</v>
           </cell>
           <cell r="W3">
-            <v>-2.0894459722325776</v>
+            <v>-2.2257141878129629</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-10.89178818709356</v>
           </cell>
           <cell r="Y3">
-            <v>-15.480068236484041</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-35.933614398313658</v>
+            <v>-35.555365825699823</v>
           </cell>
           <cell r="C4">
-            <v>-40.850845842293424</v>
+            <v>-34.420620107858348</v>
           </cell>
           <cell r="D4">
-            <v>-42.155931485463739</v>
+            <v>-44.351552916998308</v>
           </cell>
           <cell r="E4">
-            <v>-52</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="F4">
-            <v>-52</v>
+            <v>-45.5</v>
           </cell>
           <cell r="G4">
-            <v>-49</v>
+            <v>-50.5</v>
           </cell>
           <cell r="H4">
-            <v>-19.338673265963784</v>
+            <v>-21.7310864535057</v>
           </cell>
           <cell r="I4">
-            <v>3.8019403844828168</v>
+            <v>4.421821968909363</v>
           </cell>
           <cell r="J4">
-            <v>13.385902192807253</v>
+            <v>12.467261846242048</v>
           </cell>
           <cell r="K4">
-            <v>14.435776874596057</v>
+            <v>12.598496181465649</v>
           </cell>
           <cell r="L4">
-            <v>12.839522206625626</v>
+            <v>11.039589187005211</v>
           </cell>
           <cell r="M4">
             <v>16.700890512964939</v>
           </cell>
           <cell r="N4">
-            <v>25.149849282307621</v>
+            <v>24.006674314930002</v>
           </cell>
           <cell r="O4">
-            <v>24.0372557602211</v>
+            <v>25.215552611212335</v>
           </cell>
           <cell r="P4">
-            <v>14.01010673205046</v>
+            <v>13.745765095596676</v>
           </cell>
           <cell r="Q4">
-            <v>9.4886624320361186</v>
+            <v>10.107488242821082</v>
           </cell>
           <cell r="R4">
-            <v>-1.7745062860625838</v>
+            <v>-1.5066562806191748</v>
           </cell>
           <cell r="S4">
-            <v>-1.7745062860625838</v>
+            <v>-1.6908031593615185</v>
           </cell>
           <cell r="T4">
-            <v>-1.6405812833408793</v>
+            <v>-1.7075437847017314</v>
           </cell>
           <cell r="U4">
-            <v>-1.8079875367430098</v>
+            <v>-1.6573219086810922</v>
           </cell>
           <cell r="V4">
-            <v>-11.198210315913499</v>
+            <v>-11.411509560026138</v>
           </cell>
           <cell r="W4">
-            <v>-14.071786625720499</v>
+            <v>-15.02812163911898</v>
           </cell>
           <cell r="X4">
-            <v>-35.143494425683116</v>
+            <v>-40.109422985833994</v>
           </cell>
           <cell r="Y4">
             <v>-41.63740100434196</v>
@@ -3389,448 +3392,448 @@
       <sheetData sheetId="14">
         <row r="2">
           <cell r="B2">
-            <v>12.695712942389127</v>
+            <v>11.541557220353752</v>
           </cell>
           <cell r="C2">
-            <v>10.808195830431925</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>9.7768215584788223</v>
+            <v>9.590596385936367</v>
           </cell>
           <cell r="E2">
-            <v>7.888244098453149</v>
+            <v>8.5388209313152661</v>
           </cell>
           <cell r="F2">
-            <v>9.7362550206921181</v>
+            <v>8.4256053063681797</v>
           </cell>
           <cell r="G2">
-            <v>4.4318478807657673</v>
+            <v>4.5187468588199975</v>
           </cell>
           <cell r="H2">
-            <v>6.8228289890407483</v>
+            <v>7.5809210989341649</v>
           </cell>
           <cell r="I2">
-            <v>14.421959239616692</v>
+            <v>13.256548391970899</v>
           </cell>
           <cell r="J2">
-            <v>20.767633520969042</v>
+            <v>19.072316498849123</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>26.944046505223685</v>
           </cell>
           <cell r="L2">
             <v>24.741256629985511</v>
           </cell>
           <cell r="M2">
-            <v>26.78428966719877</v>
+            <v>29.918621436764589</v>
           </cell>
           <cell r="N2">
-            <v>32.156704537716621</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>30.3</v>
+            <v>32.400000000000006</v>
           </cell>
           <cell r="P2">
             <v>30.680672424402239</v>
           </cell>
           <cell r="Q2">
-            <v>29.6593567475628</v>
+            <v>28.219582148166545</v>
           </cell>
           <cell r="R2">
-            <v>26.85543427553085</v>
+            <v>26.033329144647251</v>
           </cell>
           <cell r="S2">
-            <v>26.262926529817566</v>
+            <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>22.510667585178503</v>
+            <v>25.899370232409677</v>
           </cell>
           <cell r="U2">
-            <v>23.256542329546615</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.623870340330829</v>
+            <v>19.095376801013177</v>
           </cell>
           <cell r="W2">
-            <v>25.877492111085548</v>
+            <v>25.37984803202621</v>
           </cell>
           <cell r="X2">
-            <v>21.626499616329696</v>
+            <v>20.511731594869403</v>
           </cell>
           <cell r="Y2">
-            <v>18.480680706156868</v>
+            <v>16.686439860898918</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-23.187565554221479</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
-            <v>-33.002683923603286</v>
+            <v>-30.781349428745372</v>
           </cell>
           <cell r="D3">
-            <v>-33.57722466211068</v>
+            <v>-38.124140501771507</v>
           </cell>
           <cell r="E3">
-            <v>-31.5985071579519</v>
+            <v>-34.790275557745026</v>
           </cell>
           <cell r="F3">
-            <v>-33.869348389704044</v>
+            <v>-37.632609321893383</v>
           </cell>
           <cell r="G3">
-            <v>-34.65</v>
+            <v>-32.550000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-32.760892778889442</v>
+            <v>-33.367575978498508</v>
           </cell>
           <cell r="I3">
-            <v>-4.3889618179429473</v>
+            <v>-4.766506920561695</v>
           </cell>
           <cell r="J3">
-            <v>14.694190478724103</v>
+            <v>14.997163478285424</v>
           </cell>
           <cell r="K3">
-            <v>23.597234104053708</v>
+            <v>24.03830390039116</v>
           </cell>
           <cell r="L3">
-            <v>15.775773309569058</v>
+            <v>15.949133455828058</v>
           </cell>
           <cell r="M3">
-            <v>21.93744510021385</v>
+            <v>23.784808898126599</v>
           </cell>
           <cell r="N3">
-            <v>20.082495043761927</v>
+            <v>22.3366526507148</v>
           </cell>
           <cell r="O3">
-            <v>22.586995306607303</v>
+            <v>21.953715064365976</v>
           </cell>
           <cell r="P3">
-            <v>10.564896113142836</v>
+            <v>10.020313839269495</v>
           </cell>
           <cell r="Q3">
-            <v>2.7810752185456389</v>
+            <v>2.7535398203422168</v>
           </cell>
           <cell r="R3">
             <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>6.7707637620172338</v>
+            <v>7.2171877463260614</v>
           </cell>
           <cell r="T3">
-            <v>4.0791301836772309</v>
+            <v>4.751514279887763</v>
           </cell>
           <cell r="U3">
-            <v>-0.8194817353890087</v>
+            <v>-0.88637820358402986</v>
           </cell>
           <cell r="V3">
-            <v>-3.2970574583027488</v>
+            <v>-3.3949898580543154</v>
           </cell>
           <cell r="W3">
-            <v>-2.4755392497103363</v>
+            <v>-2.2938482956031558</v>
           </cell>
           <cell r="X3">
-            <v>-10.456116659609817</v>
+            <v>-11.872049123931982</v>
           </cell>
           <cell r="Y3">
-            <v>-13.416059138286169</v>
+            <v>-15.922355900383584</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.446608688768968</v>
+            <v>-41.607342987521079</v>
           </cell>
           <cell r="C4">
-            <v>-40.472597269679596</v>
+            <v>-41.229094414907252</v>
           </cell>
           <cell r="D4">
-            <v>-47.864547207453626</v>
+            <v>-47.425422921146712</v>
           </cell>
           <cell r="E4">
-            <v>-50</v>
+            <v>-48</v>
           </cell>
           <cell r="F4">
-            <v>-49.5</v>
+            <v>-52</v>
           </cell>
           <cell r="G4">
-            <v>-47</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.734247625363235</v>
+            <v>-21.531718687877206</v>
           </cell>
           <cell r="I4">
-            <v>4.2151947741005138</v>
+            <v>4.4631474078711326</v>
           </cell>
           <cell r="J4">
-            <v>13.517136528030852</v>
+            <v>12.336027511018447</v>
           </cell>
           <cell r="K4">
-            <v>12.860964851912849</v>
+            <v>12.99219918713645</v>
           </cell>
           <cell r="L4">
-            <v>12.479535602701542</v>
+            <v>12.599531137342902</v>
           </cell>
           <cell r="M4">
-            <v>17.544369831801554</v>
+            <v>17.206978104266906</v>
           </cell>
           <cell r="N4">
-            <v>22.17759436712581</v>
+            <v>21.263054393223715</v>
           </cell>
           <cell r="O4">
-            <v>21.445002688040397</v>
+            <v>24.272915130419349</v>
           </cell>
           <cell r="P4">
-            <v>11.895373640420202</v>
+            <v>12.027544458647093</v>
           </cell>
           <cell r="Q4">
-            <v>9.3855247969052904</v>
+            <v>9.282387161774464</v>
           </cell>
           <cell r="R4">
-            <v>-1.5401375312996011</v>
+            <v>-1.7912469114027969</v>
           </cell>
           <cell r="S4">
+            <v>-1.8414687874234361</v>
+          </cell>
+          <cell r="T4">
             <v>-1.5066562806191748</v>
           </cell>
-          <cell r="T4">
-            <v>-1.6573219086810922</v>
-          </cell>
           <cell r="U4">
-            <v>-1.7242844100419445</v>
+            <v>-1.607100032660453</v>
           </cell>
           <cell r="V4">
-            <v>-9.7051156071250322</v>
+            <v>-10.025064473293989</v>
           </cell>
           <cell r="W4">
-            <v>-13.388690187578726</v>
+            <v>-13.115451612322017</v>
           </cell>
           <cell r="X4">
-            <v>-40.491417490460982</v>
+            <v>-38.963439471953023</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-38.581444967326028</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
-            <v>13.208671041071517</v>
+            <v>12.56747341771853</v>
           </cell>
           <cell r="C2">
-            <v>10.120401550313529</v>
+            <v>10.611683178969527</v>
           </cell>
           <cell r="D2">
-            <v>8.9388082820377797</v>
+            <v>9.1250334545802332</v>
           </cell>
           <cell r="E2">
-            <v>8.1322104107764428</v>
+            <v>7.4816335779143275</v>
           </cell>
           <cell r="F2">
-            <v>8.6128409798430283</v>
+            <v>8.7064588165804526</v>
           </cell>
           <cell r="G2">
             <v>4.4318478807657673</v>
           </cell>
           <cell r="H2">
-            <v>7.5051118879448229</v>
+            <v>8.0357763648702143</v>
           </cell>
           <cell r="I2">
-            <v>15.150341019395313</v>
+            <v>14.567635595572415</v>
           </cell>
           <cell r="J2">
-            <v>20.555718893204052</v>
+            <v>22.251035915323975</v>
           </cell>
           <cell r="K2">
-            <v>24.929538355300416</v>
+            <v>25.181351874040825</v>
           </cell>
           <cell r="L2">
-            <v>25.016159481429796</v>
+            <v>28.314993698761196</v>
           </cell>
           <cell r="M2">
-            <v>27.924046674313612</v>
+            <v>26.499350415420064</v>
           </cell>
           <cell r="N2">
-            <v>29.179231895335448</v>
+            <v>30.667968216526035</v>
           </cell>
           <cell r="O2">
-            <v>28.799999999999997</v>
+            <v>27.6</v>
           </cell>
           <cell r="P2">
-            <v>29.787060606215764</v>
+            <v>30.084931212277922</v>
           </cell>
           <cell r="Q2">
-            <v>29.083446907804298</v>
+            <v>29.371401827683549</v>
           </cell>
           <cell r="R2">
-            <v>30.143854799065242</v>
+            <v>27.677539406414446</v>
           </cell>
           <cell r="S2">
             <v>23.344823582060055</v>
           </cell>
           <cell r="T2">
-            <v>23.478868341530266</v>
+            <v>21.784517017914681</v>
           </cell>
           <cell r="U2">
-            <v>22.335491148178431</v>
+            <v>24.868381896940935</v>
           </cell>
           <cell r="V2">
-            <v>22.208753453352283</v>
+            <v>21.793636566373735</v>
           </cell>
           <cell r="W2">
-            <v>25.131025992496539</v>
+            <v>23.389271715788858</v>
           </cell>
           <cell r="X2">
-            <v>23.633082054958226</v>
+            <v>20.734685199161461</v>
           </cell>
           <cell r="Y2">
-            <v>17.942408452579482</v>
+            <v>17.583560283527891</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>-25.872441565762916</v>
+            <v>-23.919804466460054</v>
           </cell>
           <cell r="C3">
             <v>-28.877348433152875</v>
           </cell>
           <cell r="D3">
-            <v>-32.527936391419722</v>
+            <v>-35.326038446595611</v>
           </cell>
           <cell r="E3">
-            <v>-29.364269278096717</v>
+            <v>-34.1519218777864</v>
           </cell>
           <cell r="F3">
-            <v>-35.922036170898224</v>
+            <v>-35.579921540699196</v>
           </cell>
           <cell r="G3">
-            <v>-31.5</v>
+            <v>-37.800000000000004</v>
           </cell>
           <cell r="H3">
-            <v>-29.727476780844121</v>
+            <v>-28.817451981430526</v>
           </cell>
           <cell r="I3">
-            <v>-4.8137000583890384</v>
+            <v>-4.483348093597634</v>
           </cell>
           <cell r="J3">
-            <v>16.209055476530711</v>
+            <v>15.75459597718873</v>
           </cell>
           <cell r="K3">
-            <v>24.03830390039116</v>
+            <v>20.950815326028991</v>
           </cell>
           <cell r="L3">
-            <v>18.029455210936067</v>
+            <v>18.896255942231068</v>
           </cell>
           <cell r="M3">
-            <v>25.170331746561157</v>
+            <v>24.246649847604786</v>
           </cell>
           <cell r="N3">
-            <v>19.057877949692443</v>
+            <v>19.467724787320236</v>
           </cell>
           <cell r="O3">
-            <v>21.531528236205094</v>
+            <v>20.476061165802882</v>
           </cell>
           <cell r="P3">
-            <v>11.545144206114852</v>
+            <v>11.218394841790847</v>
           </cell>
           <cell r="Q3">
-            <v>3.0013584041730166</v>
+            <v>2.67093362573195</v>
           </cell>
           <cell r="R3">
-            <v>6.1255289235806138</v>
+            <v>6.3092947912880328</v>
           </cell>
           <cell r="S3">
-            <v>7.6636117306348908</v>
+            <v>6.6963597646324287</v>
           </cell>
           <cell r="T3">
-            <v>4.3480838221614437</v>
+            <v>4.7066886734737281</v>
           </cell>
           <cell r="U3">
-            <v>-0.81111967686463105</v>
+            <v>-0.84456791096214168</v>
           </cell>
           <cell r="V3">
-            <v>-3.5255663910564046</v>
+            <v>-3.2644133250522263</v>
           </cell>
           <cell r="W3">
-            <v>-2.3165596648665532</v>
+            <v>-2.4982506189737341</v>
           </cell>
           <cell r="X3">
-            <v>-9.8026093683842053</v>
+            <v>-10.238280895867947</v>
           </cell>
           <cell r="Y3">
-            <v>-14.448063687385103</v>
+            <v>-14.005776023485559</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>-37.824857261382796</v>
+            <v>-40.094348697065769</v>
           </cell>
           <cell r="C4">
-            <v>-41.229094414907252</v>
+            <v>-37.446608688768968</v>
           </cell>
           <cell r="D4">
-            <v>-41.277682912849912</v>
+            <v>-46.547174348532877</v>
           </cell>
           <cell r="E4">
-            <v>-53</v>
+            <v>-54</v>
           </cell>
           <cell r="F4">
-            <v>-46.5</v>
+            <v>-51.5</v>
           </cell>
           <cell r="G4">
-            <v>-48.5</v>
+            <v>-54.500000000000007</v>
           </cell>
           <cell r="H4">
-            <v>-20.534879859734744</v>
+            <v>-20.335512094106249</v>
           </cell>
           <cell r="I4">
-            <v>4.4631474078711326</v>
+            <v>3.719289506559277</v>
           </cell>
           <cell r="J4">
-            <v>14.173308204148857</v>
+            <v>14.435776874596057</v>
           </cell>
           <cell r="K4">
-            <v>13.648370863254453</v>
+            <v>13.123433522360051</v>
           </cell>
           <cell r="L4">
-            <v>11.279580256287931</v>
+            <v>11.519571325570652</v>
           </cell>
           <cell r="M4">
-            <v>15.857411194128325</v>
+            <v>17.375673968034231</v>
           </cell>
           <cell r="N4">
-            <v>23.549404327978952</v>
+            <v>21.948959373650286</v>
           </cell>
           <cell r="O4">
-            <v>21.680662058238642</v>
+            <v>25.686871351608826</v>
           </cell>
           <cell r="P4">
-            <v>12.291886095100875</v>
+            <v>12.424056913327764</v>
           </cell>
           <cell r="Q4">
-            <v>9.6949377022977714</v>
+            <v>10.416901148213565</v>
           </cell>
           <cell r="R4">
-            <v>-1.824728162083223</v>
+            <v>-1.6238406580006661</v>
           </cell>
           <cell r="S4">
-            <v>-1.7075437847017314</v>
+            <v>-1.7745062860625838</v>
           </cell>
           <cell r="T4">
-            <v>-1.6740625340213053</v>
+            <v>-1.5736187819800269</v>
           </cell>
           <cell r="U4">
-            <v>-1.556878156639814</v>
+            <v>-1.8079875367430098</v>
           </cell>
           <cell r="V4">
-            <v>-10.025064473293989</v>
+            <v>-10.771611827688222</v>
           </cell>
           <cell r="W4">
-            <v>-14.208405913348853</v>
+            <v>-14.891502351490626</v>
           </cell>
           <cell r="X4">
-            <v>-36.671472444191075</v>
+            <v>-38.199450462699041</v>
           </cell>
           <cell r="Y4">
-            <v>-34.761499921056128</v>
+            <v>-37.435461453445058</v>
           </cell>
         </row>
       </sheetData>
@@ -4383,7 +4386,7 @@
       </c>
       <c r="B5" s="7">
         <f>((1+[1]Main!$B$2)^($B$3-2020))*$B$4</f>
-        <v>0.90461048027461777</v>
+        <v>1.0512055032813845</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4509,100 +4512,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
-        <v>11.342714282973818</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <v>10.883260261875643</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
-        <v>8.7494582124217928</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <v>9.3278311131036595</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
-        <v>7.0776912933452403</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <v>7.4261437362846525</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
-        <v>6.5225354896476144</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <v>7.7358122731367871</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
-        <v>7.0311312614051031</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <v>9.3250826200199128</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
-        <v>9.5841516185227924</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <v>11.247564294978162</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
-        <v>15.75324957862178</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <v>15.397666050217518</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
-        <v>17.793819093140137</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <v>22.139400283716586</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
-        <v>19.93526070658131</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <v>26.544184213316779</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
-        <v>23.324414775449981</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <v>24.18120769770421</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
-        <v>24.904858183243043</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <v>25.993099111992688</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
-        <v>24.005362546903591</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <v>28.948169055727547</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
-        <v>22.743019001383573</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <v>24.314310165820068</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
-        <v>21.835611383161613</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <v>24.850963892727144</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
-        <v>20.713615224386839</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <v>24.54228996811533</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
-        <v>17.364524516377202</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <v>22.644762546758432</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
-        <v>20.110493949118197</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <v>21.287036374100651</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
-        <v>26.595548120073762</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <v>32.166888400410365</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
-        <v>29.537820409747852</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <v>29.286057261389846</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
-        <v>27.32286574492279</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <v>28.392384538364897</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
-        <v>24.560669585653812</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <v>25.432400213561596</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
-        <v>21.626358062577349</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <v>23.120500302031154</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
-        <v>17.991739423856462</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <v>22.342177081198056</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
-        <v>12.585206920506204</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <v>15.568207713820732</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4610,100 +4613,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
-        <v>-24.215041127564618</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <v>-29.668468529946807</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
-        <v>-26.318424412153078</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <v>-36.234691459078945</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
-        <v>-30.197397763045316</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <v>-35.449053951744773</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
-        <v>-31.201142670865025</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <v>-36.612852266854112</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
-        <v>-33.244435150092201</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <v>-39.36764609788785</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
-        <v>-30.721188265837519</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <v>-29.804299236607353</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
-        <v>-19.309555731515996</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <v>-25.121622779981699</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
-        <v>-7.7754104528395409</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <v>-10.240166010373803</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
-        <v>-2.6205645228874359</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <v>-2.9565392130191874</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
-        <v>-0.37412338779052962</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <v>-0.43012626632925177</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
-        <v>-3.8588934173711369</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <v>-3.9444698811150656</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
-        <v>-2.5217631149741271</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <v>-2.8083219431383259</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
-        <v>-3.4177453842603209</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <v>-4.2251084683835609</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
-        <v>-3.4843922470382505</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <v>-4.0916707305459088</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
-        <v>-9.3649772977773242</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <v>-11.852338633300262</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
-        <v>-13.887646941221732</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <v>-15.207135457705881</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
-        <v>-12.231770508925333</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <v>-14.627967130269113</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
-        <v>-4.4185729241814986</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <v>-4.8048707722229524</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
-        <v>-5.6608638721534943</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <v>-7.4690262758885018</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
-        <v>-8.0795982383133804</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <v>-7.7523217322813904</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
-        <v>-10.828627372116205</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <v>-14.207110906341821</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
-        <v>-14.660831956077674</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <v>-18.441752600414976</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
-        <v>-19.466721745246964</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <v>-22.621366295954008</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
-        <v>-21.683207018238587</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <v>-27.053664107370963</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4711,100 +4714,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
-        <v>39.800341196194346</v>
+        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <v>41.5826711632306</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
-        <v>42.516692572907033</v>
+        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <v>49.932261405865766</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
-        <v>47.039744974280126</v>
+        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <v>48.881055902584379</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
-        <v>41.159776852495106</v>
+        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <v>49.932261405865766</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
-        <v>45.230524013730886</v>
+        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <v>56.239494425554071</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
-        <v>33.349842513179823</v>
+        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <v>45.568232520662583</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
-        <v>16.456478936539664</v>
+        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <v>19.123304007569182</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
-        <v>1.926000995076411</v>
+        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <v>2.4619271813086132</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
-        <v>-12.020630487429283</v>
+        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <v>-14.987156756898509</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
-        <v>-13.773639100179389</v>
+        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <v>-13.095573865251124</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
-        <v>-1.0460119683607603</v>
+        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <v>-1.2531150051390543</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
-        <v>-12.013273949671314</v>
+        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <v>-15.62920145405799</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
-        <v>-13.971959919726419</v>
+        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <v>-13.960063434692573</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
-        <v>-9.5012586127280123</v>
+        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <v>-12.920281671886503</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
-        <v>-1.2320249463814383</v>
+        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <v>-1.373242672898644</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
-        <v>7.821157232291692</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <v>9.706272687107381</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
-        <v>11.387014004684243</v>
+        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <v>11.149451496382387</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
-        <v>9.4891783372368685</v>
+        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <v>12.742230281579872</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
-        <v>9.4891783372368685</v>
+        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <v>12.129623056503915</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
-        <v>10.859837430393306</v>
+        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <v>12.742230281579872</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
-        <v>10.754402115535118</v>
+        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <v>11.026930051367195</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
-        <v>21.107192277349412</v>
+        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <v>24.783176997227368</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
-        <v>36.297278623423729</v>
+        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <v>36.321123109756861</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
-        <v>32.264247665265536</v>
+        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <v>35.149473977184059</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5656,100 +5659,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
-        <v>11.342714282973818</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <v>12.092511402084048</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
-        <v>8.4283771771035614</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <v>9.514387735365732</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
-        <v>6.7341140460954705</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <v>7.5059947442016917</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
-        <v>6.6570207574753999</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <v>8.048370344778677</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
-        <v>7.1839819410008658</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <v>9.5027032413536272</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
-        <v>9.4892590282403884</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <v>11.02702381860604</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
-        <v>16.194929473349493</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <v>17.45068819024652</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
-        <v>19.231703464302974</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <v>20.677364415923982</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
-        <v>21.388873466436198</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <v>24.131076557560704</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
-        <v>22.409731843079392</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <v>27.901393497351009</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
-        <v>22.368252257171989</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <v>24.117308454426205</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
-        <v>21.061308649641827</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <v>25.00069145721924</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
-        <v>22.060728431342067</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <v>23.785738205693541</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
-        <v>20.259845613242732</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <v>26.682087547980721</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
-        <v>18.479793974698065</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <v>23.598355738572433</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
-        <v>19.486855290601081</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <v>20.178501279289694</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
-        <v>21.504290559453125</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <v>20.824274713794114</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
-        <v>29.852145849062385</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <v>34.059058306316864</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
-        <v>29.808809587818931</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <v>33.064903359633696</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
-        <v>27.848305470786691</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <v>28.087090080963122</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
-        <v>24.317494639261202</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <v>30.236298031678789</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
-        <v>21.842621643203124</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <v>24.628359017381008</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
-        <v>17.638960219467123</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <v>21.727254776210952</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
-        <v>13.397155754087247</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <v>15.253698467076878</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -5757,100 +5760,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
-        <v>-25.531075971453998</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <v>-30.891910531181733</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
-        <v>-27.748773564987481</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <v>-33.575264562999749</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
-        <v>-30.197397763045316</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <v>-38.313623968047388</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
-        <v>-31.201142670865025</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <v>-38.39017519242956</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
-        <v>-32.927821481996084</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <v>-38.999724171739366</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
-        <v>-29.875650974117224</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <v>-36.027174901393501</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
-        <v>-22.457852861654473</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <v>-22.43873102677977</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
-        <v>-9.2440990939314531</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <v>-9.0354405973886518</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
-        <v>-2.4424679048271249</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <v>-2.8678430366286118</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
-        <v>-0.38606349591150396</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <v>-0.49950147057590527</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
-        <v>-3.8588934173711369</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <v>-3.9029491455243805</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
-        <v>-2.6268365780980494</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <v>-3.1135743282620574</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
-        <v>-3.9994892794535675</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <v>-4.3518617224350677</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
-        <v>-3.6677813126718428</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <v>-4.5178864316444418</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
-        <v>-9.4576998452800698</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <v>-10.020613571790221</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
-        <v>-13.754111874479214</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <v>-15.362310309315125</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
-        <v>-11.400485134532348</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <v>-14.627967130269113</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
-        <v>-4.3374981916277093</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <v>-4.428018162636838</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
-        <v>-5.4249945441470988</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <v>-6.372655446400282</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
-        <v>-6.8194774121544128</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <v>-8.1830062729636897</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
-        <v>-11.177937932507048</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <v>-13.665887633719274</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
-        <v>-14.207404163621662</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <v>-18.090481122311832</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
-        <v>-19.87227844827294</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <v>-21.443170134706403</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
-        <v>-22.596184155848636</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <v>-29.175520115792214</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -5858,100 +5861,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
-        <v>35.783793002082987</v>
+        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <v>41.158358192177232</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
-        <v>49.301271174966672</v>
+        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <v>55.71389167391338</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
-        <v>42.516692572907033</v>
+        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <v>47.304247647662301</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
-        <v>48.396660694692052</v>
+        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <v>54.137083418991303</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
-        <v>43.421303053181653</v>
+        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <v>55.18828892227269</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
-        <v>38.114105729348367</v>
+        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <v>45.568232520662583</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
-        <v>15.292889516784333</v>
+        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <v>19.316468694514327</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
-        <v>2.2470011609224794</v>
+        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <v>2.5365310352876622</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
-        <v>-11.895415586518562</v>
+        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <v>-13.095573865251124</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
-        <v>-12.52149009107217</v>
+        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <v>-16.005701390862487</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
-        <v>-0.97052656858214892</v>
+        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <v>-1.315770755396007</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
-        <v>-11.752115820330634</v>
+        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <v>-14.111803254634886</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
-        <v>-14.102538984396759</v>
+        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <v>-14.263543074577193</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
-        <v>-9.2991041741593339</v>
+        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <v>-11.275882186373675</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
-        <v>-1.2571683126341209</v>
+        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <v>-1.4316785313198628</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
-        <v>7.1377551440331937</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <v>8.7356454183966417</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
-        <v>9.7000489669532453</v>
+        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <v>11.271972941397578</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
-        <v>10.648966800676931</v>
+        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <v>12.864751726595061</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
-        <v>10.438096170960556</v>
+        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <v>12.374665946534297</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
-        <v>9.4891783372368685</v>
+        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <v>11.762058721458342</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
-        <v>9.594613652095056</v>
+        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <v>11.026930051367195</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
-        <v>19.787992760015072</v>
+        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <v>26.571653687748931</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
-        <v>31.592075838905838</v>
+        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <v>37.102222531472059</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
-        <v>30.919904012546144</v>
+        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <v>35.149473977184059</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13881,100 +13884,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>58.371989451688137</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>77.272608848786803</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.321329172583518</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>63.944978105101747</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>52.423143996765425</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>64.185563102611638</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.384180562898834</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>63.157657806079357</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>56.242044108843267</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>60.75805522679434</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>44.88821371712455</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>53.833603749821968</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>62.442354993816735</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>61.407524675609785</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>57.879370721054627</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>76.568347483427956</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>76.280817318372243</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>82.0364283943766</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>82.824125887701825</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>90.873111929568694</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>76.589702658113964</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>87.122676372326282</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>80.274773773782726</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>83.103995409836131</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>86.197284526325632</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>103.76112583364571</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>86.839688013772573</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>93.102377901736403</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>83.990933053562998</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>87.855571115345626</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>76.944464310597908</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>99.147384686049278</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>80.924509497612675</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>97.524576203281342</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>80.321840032341129</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>81.637715629449502</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>79.916044356256734</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>83.878745199585524</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>81.745543243347655</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>81.552262059584464</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>71.66027163796474</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.111296971342398</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>72.926542134176103</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>87.3546341334348</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>76.29948166724752</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.768482791024866</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>76.816012594612474</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>85.397199052738472</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13982,100 +13985,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>76.363641549336393</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>81.010153866063817</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>60.428187251075116</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>71.453739299126724</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>61.267959182154115</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>66.323595439832104</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>68.512981545916077</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>72.745400646618961</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>65.945011636565567</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.940109240477483</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.838333064411657</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>65.367539598357126</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>61.016974402100182</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>79.052270502261166</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>67.829055161158806</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.518715478117912</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>81.386188711877608</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>100.41106865882588</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>83.259181070275901</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>108.83921906847274</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>95.09348179606468</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>99.329536055645022</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>95.216187333740535</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>110.54498104363311</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>88.743079225778217</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>95.6043579344649</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>97.725537417118574</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>114.29669287738997</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>88.982256920878527</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>97.136217414303985</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>87.084891955322306</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>94.224522092208872</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>80.227267399586538</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>106.60732513190212</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>87.177266784076451</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>99.970430352965252</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>85.784146342045631</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>96.530975621291901</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>84.833059547252688</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>105.19265698155567</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.889657121066236</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>100.16564114333057</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>87.647957160239713</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>106.75662382212079</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>76.702161543293499</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>102.60419738058781</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>79.593482080877777</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>89.14679087922616</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -14083,100 +14086,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>88.418230211772581</v>
+        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>92.091433223535745</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>70.329731943869191</v>
+        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>83.841115415237638</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>68.474859594754761</v>
+        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>77.855437607353821</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>64.682378041739</v>
+        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>80.097992203984745</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>63.669036827235608</v>
+        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>74.702869659579903</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>65.219128360706875</v>
+        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>79.854439341777507</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>90.043510536489379</v>
+        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>110.73047421663273</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>98.491839730691964</v>
+        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>131.22137865243457</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>99.405475628317689</v>
+        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>129.25741804016153</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>106.16705958472379</v>
+        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>125.66715056797845</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>107.80302761410078</v>
+        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>112.84021345517695</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>120.64222257077294</v>
+        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>140.06606311916954</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>108.66732283153623</v>
+        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>141.84356436281055</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>123.28519455744134</v>
+        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>121.86816881896871</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>118.44183564235243</v>
+        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>132.24686727638607</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>102.051360734434</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>126.47004967159076</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>98.910264489296253</v>
+        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>107.01545312647876</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>102.2044869629041</v>
+        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.41529974261255</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>96.332439920617603</v>
+        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>111.6819233980569</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>97.74771554269249</v>
+        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>121.10896803426054</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.17762066032212</v>
+        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>100.78433685896204</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>88.206130032147925</v>
+        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>106.73038588543777</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>90.695916747577613</v>
+        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>118.40048690495428</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>98.133309221602261</v>
+        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>97.201077227279228</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15030,100 +15033,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>68.307474485526527</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>72.518553835017343</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>61.350297416909122</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>69.325699389292765</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>55.828643313297569</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>66.446918175806289</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>46.904920620032598</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>54.399123450938049</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>50.748882904895034</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.695926237435472</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>51.291791671072474</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>60.211859394652102</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>54.93212645011328</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>63.277657199463427</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>59.747297947377646</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.950629465827362</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>77.683714726844073</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>88.557394085055307</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>83.576967061183481</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>90.873111929568694</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>78.143570096798598</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>84.414161428271299</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>87.377842289319588</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>85.855376575738745</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>87.806737510308636</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>96.280045873033359</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>79.537830540955952</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>95.930760182277368</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>78.2918870278329</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>94.478165786018351</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>73.027181076001682</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>100.96822129314646</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>74.653719234047358</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>87.504962352079545</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>76.555396915438749</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.269583279393274</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>78.401540154670613</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>87.398614107066678</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>69.529895011037226</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>93.973091037321922</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>73.174675770761553</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>89.23138788710051</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>86.260428737216301</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>93.734798789948542</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>81.6637029538593</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>83.644470778260299</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>70.652068954267563</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>76.642628525509039</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -15131,100 +15134,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>75.044221895330963</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>83.310007612518973</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.623818553354909</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>74.239766030832627</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>65.979210071134219</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>69.74529804680094</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>67.338177621707132</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>75.475769965422586</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>67.11990818244557</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>76.718632257966121</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>61.927067804097746</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>72.133629821465874</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>69.188698295075326</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>80.513190178979357</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>72.306824089397878</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>93.456589760182183</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>82.236752601699791</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>99.422668168924332</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>80.629080893501211</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>99.670270088904459</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>87.283029002129666</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.287224021205475</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>94.323818275379864</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>93.953295927236994</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>98.693794508799016</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>97.706768941027676</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>82.631630438143162</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>107.07437168155742</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>89.835439827547262</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>96.144773487495257</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>77.258766756163368</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>95.176062111414353</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>86.892306653151266</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>89.180782199506368</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>86.335905762020374</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>108.769786764655</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>84.094281767955366</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>109.29510710365155</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>75.692667041525524</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>88.777422425538646</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>92.223422706084108</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>107.91366707501557</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>79.83630953817871</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>93.644606988132011</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>92.883052840652809</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.382210649346433</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>81.076775363802014</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>97.76511940841209</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15232,100 +15235,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>78.635491092817674</v>
+        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>90.342500408592258</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>71.700113157148309</v>
+        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>78.26751985624864</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>67.823206741090559</v>
+        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>89.214266864884749</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>73.480732916686875</v>
+        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>80.097992203984745</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>62.412128987957338</v>
+        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>75.433166547896818</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>67.914501610311746</v>
+        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>77.50531400952238</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>82.444759156523361</v>
+        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>93.070167503709399</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>101.60876594932154</v>
+        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>126.39199987075055</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>105.91166474841803</v>
+        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>139.33813522186344</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>98.735368865593671</v>
+        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>136.77060482920902</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>110.98652520979329</v>
+        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>133.80344367385419</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>121.7729856711162</v>
+        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>121.6699668117453</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>119.97495383496896</v>
+        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>128.70349557179324</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>110.84680045366535</v>
+        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>132.38022385178255</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>111.99767813726805</v>
+        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>124.75841342683498</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>110.18564117915533</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>109.92823308692505</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>97.015888631822179</v>
+        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>121.32432905212728</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>105.0460507491152</v>
+        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>115.01939632368109</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>92.543688205669483</v>
+        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>116.0846544521026</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.011775899007318</v>
+        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>110.10214039914629</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>105.91356030400728</v>
+        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>107.38843344003057</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>102.41394896320338</v>
+        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>114.43516523001774</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>102.5668153514009</v>
+        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>109.91149262282467</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>94.71574088437643</v>
+        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>106.13671872724626</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -16179,100 +16182,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>57.787549155580002</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>73.197704551270121</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>51.575099095815851</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.759972661842092</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>56.315143215659297</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>55.140142809833094</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>53.499900575595234</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>59.873207422901373</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>50.24950461362701</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>57.856534520109427</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>44.430815291842549</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>52.239039838614445</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>53.322791762176827</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>66.394544739219498</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>59.124655538603307</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>74.397716672867602</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>75.579368614136314</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>86.927152662385623</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>74.542872979403654</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>89.123428940221771</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>71.151166622717724</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>88.92835300169628</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>80.274773773782726</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>91.358138907543946</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.564199082385102</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>87.863830917344515</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>86.028370516792947</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>94.987966088763713</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>91.318277943787407</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>104.88510026850406</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>73.027181076001682</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>90.04320165056339</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>72.302172885210396</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>84.77234039266088</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>70.529087928394929</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>81.637715629449502</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>77.64428805387756</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>81.238843518974662</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>79.455109199789447</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>85.101070338938001</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>73.174675770761553</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>90.111296971342398</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>73.710888404943162</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.02641554024996</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.430020280518136</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>89.877981289429286</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>73.391599461087523</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>78.234368621368944</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -16280,100 +16283,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>72.405382587320119</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>88.676333020914356</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.825690852377846</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>73.543259347906144</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>67.745929154501738</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>71.798319610982233</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>67.925579583811597</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>65.919477349609906</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>60.657977180105568</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>69.892170804410924</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>66.002839168537221</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>64.690930576046256</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>72.331669023142695</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>79.052270502261166</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>82.008656767249221</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>83.917012622343819</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>88.190699830455088</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>107.3298720881367</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>92.902881718449805</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>93.55763743585895</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>81.208232384624665</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>97.312611241869206</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>90.75434204193715</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>104.32309912498457</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>86.029247784954364</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>95.6043579344649</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>87.95889172484037</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>98.820290314891665</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>88.129074014209792</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>96.144773487495257</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>86.266048188725719</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>105.64300232267452</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.226046839760087</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>99.830336213748211</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>84.65318371790822</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>93.126486477206583</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>84.094281767955366</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>101.440256960661</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>78.185501361269303</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>88.777422425538646</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.056215724811764</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>104.03965410917307</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>81.572231231970036</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>111.79970721980878</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>78.320250673029435</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>92.262516300306643</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>74.401955590642956</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>94.317787996737721</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -16381,100 +16384,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>83.150601455412257</v>
+        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>92.965899631007503</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>76.496447403625254</v>
+        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>84.637343352236073</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>76.294693838725195</v>
+        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>77.855437607353821</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>72.223825077408605</v>
+        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>76.446507762400216</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.155221148679075</v>
+        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>71.781682106312303</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>67.914501610311746</v>
+        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>77.50531400952238</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>84.97767628317871</v>
+        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>105.82483346304292</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>95.37491351206242</v>
+        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>111.90386352569847</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>108.08039445511815</v>
+        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>131.77759733558702</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>98.735368865593671</v>
+        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>131.83573626866212</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>98.252534827023325</v>
+        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>115.30647583384487</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>112.72688086837003</v>
+        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>140.06606311916954</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>125.62876933668531</v>
+        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>127.38948869269151</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>126.67748385847116</v>
+        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>144.20628576369813</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>111.99767813726805</v>
+        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>139.73532112593716</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>100.01779062325367</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>108.74667475944892</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>98.910264489296253</v>
+        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>104.8140875994559</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>103.15167489164114</v>
+        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>113.91871356016966</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>105.80431920798792</v>
+        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>118.28601997912546</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>105.32521897258873</v>
+        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>112.30350592616914</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>90.758553444214769</v>
+        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>106.28775067651914</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>91.047693818359008</v>
+        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.22697206788065</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>96.174793026265277</v>
+        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>114.15598976388947</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>98.987701305908715</v>
+        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>109.11526589390195</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17328,100 +17331,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
-        <v>11.484674982243309</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <v>14.828670347911279</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
-        <v>8.3550679889136319</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <v>10.948484576129573</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
-        <v>8.0861396530969269</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <v>9.788046311307637</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
-        <v>7.5036124206944592</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <v>8.8050830677798757</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
-        <v>7.6218908627980868</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <v>9.84115851836785</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
-        <v>4.2449252187426012</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <v>4.2933881461263725</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
-        <v>6.857780676230818</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <v>7.7300327997673088</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
-        <v>11.860232249318742</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <v>15.313578707863513</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
-        <v>20.895321058767809</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <v>21.162753178576462</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
-        <v>23.690487405249826</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <v>28.853145480361825</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
-        <v>25.11668004786139</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <v>29.475897811209517</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
-        <v>24.487108173059791</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <v>32.94826805277264</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
-        <v>28.819946640209913</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <v>28.482414210621734</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
-        <v>26.595548120073762</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <v>33.743696655332442</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
-        <v>25.59840284091009</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <v>32.564814917263355</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
-        <v>24.485781606724338</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <v>28.756480665031731</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
-        <v>26.028972104969352</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <v>28.806714595356684</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
-        <v>21.997887575514138</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <v>23.006444083682414</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
-        <v>22.115074917941829</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <v>23.15444866639843</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
-        <v>19.580024961071931</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <v>24.447405284115874</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
-        <v>18.400435238488626</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <v>22.255030960941159</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
-        <v>22.733789492866197</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <v>26.940999021002451</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
-        <v>19.563558204586844</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <v>22.968265469206759</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
-        <v>15.257037283917009</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <v>17.91810058210028</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -17429,100 +17432,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
-        <v>-21.638105806479377</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <v>-26.940675099168701</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
-        <v>-30.715763382015314</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <v>-36.694099288367916</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
-        <v>-30.374309327880681</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <v>-34.561218279940213</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
-        <v>-28.873071450622039</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <v>-33.552045070621475</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
-        <v>-28.781684633798612</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <v>-38.48070767595776</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
-        <v>-31.028139473419387</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <v>-37.528036467145434</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
-        <v>-26.068569077212604</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <v>-28.698692317983294</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
-        <v>-4.1410664863389659</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <v>-5.3082364235305821</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
-        <v>12.333264778953396</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <v>14.80964012853064</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
-        <v>18.55333075392446</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <v>25.037369851020994</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
-        <v>15.055046896111921</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <v>19.134899678698357</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
-        <v>18.800377340307644</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <v>26.216446377537149</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
-        <v>19.649842465152162</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <v>23.480412191316123</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
-        <v>20.623389986964689</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <v>20.636937948666965</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
-        <v>8.9659539481804558</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <v>11.907331972331065</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
-        <v>2.5406985989217583</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <v>3.0682083854070634</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
-        <v>5.6520420147262476</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <v>5.795270743479513</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
-        <v>6.3268237660102455</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <v>8.2906725008062949</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
-        <v>3.8927724812929574</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <v>4.7120924150359444</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
-        <v>-0.76400498355999358</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <v>-0.94934612947537322</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
-        <v>-2.7758411554429347</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <v>-3.225675097143184</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
-        <v>-1.8901347244491777</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <v>-2.3396830029604438</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
-        <v>-9.4587127132570679</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <v>-11.449507682847925</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
-        <v>-14.003431962089683</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <v>-14.722948833614486</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -17530,100 +17533,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
-        <v>-32.505924178861441</v>
+        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <v>-37.375996227158524</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
-        <v>-36.954103277021424</v>
+        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <v>-36.183145283738575</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
-        <v>-38.134697427489236</v>
+        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <v>-46.622596505424163</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
-        <v>-47.039744974280126</v>
+        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <v>-57.290699928835465</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
-        <v>-47.039744974280126</v>
+        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <v>-47.829850399302998</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
-        <v>-44.325913533456273</v>
+        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <v>-53.085877915709915</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
-        <v>-17.49396651099741</v>
+        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <v>-22.843837672208736</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
-        <v>3.4392751171824658</v>
+        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <v>4.6482435882480493</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
-        <v>12.109027411544428</v>
+        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <v>13.105654263619675</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
-        <v>13.058755051665559</v>
+        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <v>13.243608519026198</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
-        <v>11.614766349832227</v>
+        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <v>11.604876907345544</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
-        <v>15.107800587947022</v>
+        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <v>17.556068016928609</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
-        <v>22.750817238102549</v>
+        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <v>25.235948155338281</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
-        <v>21.74435347773743</v>
+        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <v>26.50672767318769</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
-        <v>12.673689379578821</v>
+        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <v>14.449623915304393</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
-        <v>8.5835434798079167</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <v>10.625047265205414</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
-        <v>-1.6052369836854021</v>
+        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <v>-1.5838053737403386</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
-        <v>-1.6052369836854021</v>
+        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <v>-1.77738158608638</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
-        <v>-1.4840870226525416</v>
+        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <v>-1.7949794235723837</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
-        <v>-1.6355244739436172</v>
+        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <v>-1.7421859111143723</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
-        <v>-10.130018412094691</v>
+        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <v>-11.995841650247607</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
-        <v>-12.729485657814964</v>
+        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <v>-15.797644171023933</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
-        <v>-31.791173370945558</v>
+        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <v>-42.163246176149556</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
-        <v>-37.665629319924633</v>
+        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <v>-43.769465078098115</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -18477,100 +18480,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
-        <v>11.484674982243309</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <v>12.132548466472864</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
-        <v>9.7772072210691459</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <v>11.155059756811264</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
-        <v>8.8442152455747642</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <v>10.081687700646865</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
-        <v>7.1357882824251222</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <v>8.9760555545328842</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
-        <v>8.8075183303444557</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <v>8.8570426665310666</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
-        <v>4.009096039923568</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <v>4.7501315659270507</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
-        <v>6.1720026086077358</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <v>7.9691059791415553</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
-        <v>13.046255474250618</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <v>13.935356624155798</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
-        <v>18.786618933571056</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <v>20.048924063914544</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
-        <v>22.551521664612814</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <v>28.323729966960695</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
-        <v>22.381200042648764</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <v>26.008145127537809</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
-        <v>24.229349139659163</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <v>31.450619504919338</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
-        <v>29.089291935912811</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <v>32.238336963670754</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
-        <v>27.409697552320917</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <v>34.059058306316864</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
-        <v>27.75405781698673</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <v>32.251691696905048</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
-        <v>26.83016495204901</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <v>29.664580054453786</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
-        <v>24.293707297971395</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <v>27.36637886558885</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
-        <v>23.75771858155527</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <v>24.540207022594572</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
-        <v>20.363385815530595</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <v>27.225560519831124</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
-        <v>21.038111926258143</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <v>26.141779907767468</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
-        <v>20.465790214237352</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <v>20.07316518045673</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
-        <v>23.409050566911731</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <v>26.679435923711168</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
-        <v>19.563558204586844</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <v>21.562045134357366</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
-        <v>16.717817449398428</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <v>17.540877411950802</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -18578,100 +18581,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
-        <v>-20.975714812403474</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <v>-25.144630092557449</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
-        <v>-29.854573754482175</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <v>-32.357523917924439</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
-        <v>-30.374309327880681</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <v>-40.076306303334931</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
-        <v>-28.584340736115816</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <v>-36.571729126977409</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
-        <v>-30.638567513398527</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <v>-39.559606022012659</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
-        <v>-31.344753141515504</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <v>-34.216739131809071</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
-        <v>-29.635846950936436</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <v>-35.076179499757359</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
-        <v>-3.970300858036329</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <v>-5.010578306323259</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
-        <v>13.292518706205326</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <v>15.765100781984229</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
-        <v>21.346305276020615</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <v>25.269197349641559</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
-        <v>14.270929870272761</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <v>16.765816861335701</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
-        <v>19.844842748102511</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <v>25.002722008206725</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
-        <v>18.166835486650108</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <v>23.480412191316123</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
-        <v>20.432432672270568</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <v>23.07786609313295</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
-        <v>9.5571157469615837</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <v>10.533409052446711</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
-        <v>2.5157897891284078</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <v>2.8945362126481733</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
-        <v>5.7074541913412116</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <v>6.6323654064265547</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
-        <v>6.1249038585843874</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <v>7.5867474771529286</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
-        <v>3.6900239145589495</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <v>4.9948179599381008</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
-        <v>-0.74131176622652839</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <v>-0.93176564559619957</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
-        <v>-2.9825527308482602</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <v>-3.5688320223711827</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
-        <v>-2.2393987496191343</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <v>-2.4113059520306614</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
-        <v>-9.4587127132570679</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <v>-12.479963374304239</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
-        <v>-12.136307700477726</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <v>-16.737668147688048</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -18679,100 +18682,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
-        <v>-33.874594670602974</v>
+        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <v>-43.737867925398284</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
-        <v>-36.611935654086047</v>
+        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <v>-43.340250944258294</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
-        <v>-43.298771037461741</v>
+        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <v>-49.853865570156536</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
-        <v>-45.230524013730886</v>
+        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <v>-50.457864157506457</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
-        <v>-44.778218773593579</v>
+        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <v>-54.662686170631993</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
-        <v>-42.516692572907033</v>
+        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <v>-57.290699928835465</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
-        <v>-18.756417702512689</v>
+        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <v>-22.634261179803151</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
-        <v>3.8131093690501245</v>
+        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <v>4.6916851171101808</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
-        <v>12.227743366559569</v>
+        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <v>12.967700008213152</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
-        <v>11.63416359148386</v>
+        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <v>13.657471285245766</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
-        <v>11.289118695164033</v>
+        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <v>13.244696470340021</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
-        <v>15.870820819661517</v>
+        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <v>18.088070078047657</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
-        <v>20.062084291781336</v>
+        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <v>22.351839794728189</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
-        <v>19.399374181118691</v>
+        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <v>25.515821965778805</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
-        <v>10.760679661906547</v>
+        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <v>12.643420925891345</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
-        <v>8.4902440941578288</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <v>9.7576964680457881</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
-        <v>-1.3932245518778963</v>
+        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <v>-1.8829686110024026</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
-        <v>-1.362937061619681</v>
+        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <v>-1.9357621234604141</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
-        <v>-1.499230767781649</v>
+        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <v>-1.5838053737403386</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
-        <v>-1.5598057482980794</v>
+        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <v>-1.689392398656361</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
-        <v>-8.7793492904820631</v>
+        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <v>-10.538402945077335</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
-        <v>-12.111549460833654</v>
+        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <v>-13.787034912893612</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
-        <v>-36.62896062304597</v>
+        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <v>-40.958581999688143</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
-        <v>-31.445617138652672</v>
+        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <v>-40.557027274200998</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -19626,100 +19629,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
-        <v>11.94870225425314</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <v>13.210997219048229</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
-        <v>9.1550213070011086</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <v>11.155059756811264</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
-        <v>8.0861396530969269</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <v>9.5922853850814853</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
-        <v>7.3564827653867244</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <v>7.8647343906383362</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
-        <v>7.7912662153047112</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <v>9.1522774220821024</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
-        <v>4.009096039923568</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <v>4.6587828819669159</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
-        <v>6.7892028694685091</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <v>8.447252337890049</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
-        <v>13.705157265879436</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <v>15.313578707863513</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
-        <v>18.594918740371352</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <v>23.390411407900302</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
-        <v>22.551521664612814</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <v>26.470775670056721</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
-        <v>22.62988004312264</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <v>29.764877201515493</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
-        <v>25.260385273261679</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <v>27.856262990071414</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
-        <v>26.395838978883845</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <v>32.238336963670754</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
-        <v>26.052781831908987</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <v>29.013271890566212</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
-        <v>26.945687200957991</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <v>31.625445256188446</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
-        <v>26.309190875310193</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <v>30.875379240349861</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
-        <v>27.268446967110751</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <v>29.09478174131025</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
-        <v>21.117972072493568</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <v>24.540207022594572</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
-        <v>21.239230366736212</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <v>22.900004175558887</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
-        <v>20.204919374723165</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <v>26.141779907767468</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
-        <v>20.090271127737584</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <v>22.909590695086486</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
-        <v>22.733789492866197</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <v>24.586931145380877</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
-        <v>21.378733708105212</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <v>21.796415190165597</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
-        <v>16.230890727571285</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <v>18.4839353373245</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19727,100 +19730,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
-        <v>-23.404481790681775</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <v>-25.144630092557449</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
-        <v>-26.122752035171903</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <v>-30.356027593104368</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
-        <v>-29.425112161384412</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <v>-37.134926024191081</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
-        <v>-26.563225734572274</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <v>-35.900688225564977</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
-        <v>-32.495450392998436</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <v>-37.401809329902875</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
-        <v>-28.495230128650459</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <v>-39.73556802403634</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
-        <v>-26.891787048071947</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <v>-30.293064113426809</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
-        <v>-4.3545235217172635</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <v>-4.7129201891159367</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
-        <v>14.662881459422369</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <v>16.561317993195555</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
-        <v>21.745301636320065</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <v>22.02361236895365</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
-        <v>16.309634137454587</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <v>19.863848237886863</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
-        <v>22.769345889928147</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <v>25.488211755938895</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
-        <v>17.23995612508633</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <v>20.464579432798452</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
-        <v>19.477646098799983</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <v>21.524548183018233</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
-        <v>10.443858445133277</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <v>11.792838395674035</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
-        <v>2.7150602674752129</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <v>2.8077001262687276</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
-        <v>5.5412176614963213</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <v>6.6323654064265547</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
-        <v>6.9325834882878228</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <v>7.039250236533646</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
-        <v>3.9333221946397594</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <v>4.9476970357877423</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
-        <v>-0.7337473604487067</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <v>-0.8878144358982657</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
-        <v>-3.1892643062535848</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <v>-3.4315692522799832</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
-        <v>-2.0955841510197404</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <v>-2.6261747992413147</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
-        <v>-8.8675431686785036</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <v>-10.762537221877048</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
-        <v>-13.069869831283702</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <v>-14.722948833614486</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -19828,100 +19831,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
-        <v>-34.216762293538352</v>
+        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <v>-42.147400000838346</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
-        <v>-37.296270899956809</v>
+        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <v>-39.364081132858452</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
-        <v>-37.340224564416545</v>
+        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <v>-48.930645837375856</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
-        <v>-47.944355454554739</v>
+        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <v>-56.765097177194761</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
-        <v>-42.064387332769726</v>
+        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <v>-54.137083418991303</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
-        <v>-43.873608293318959</v>
+        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <v>-57.290699928835465</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
-        <v>-18.576067532296221</v>
+        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <v>-21.376802225369641</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
-        <v>4.0374099201707203</v>
+        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <v>3.9097375975918172</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
-        <v>12.821323141635277</v>
+        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <v>15.174968094717519</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
-        <v>12.346459321574709</v>
+        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <v>13.795425540652289</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
-        <v>10.203626512936721</v>
+        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <v>12.109436772882303</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
-        <v>14.344780356232524</v>
+        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <v>18.265404098420674</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
-        <v>21.303037959314203</v>
+        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <v>23.07286688488071</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
-        <v>19.612554117174941</v>
+        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <v>27.002180526892133</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
-        <v>11.119368983970098</v>
+        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <v>13.060237000371277</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
-        <v>8.7701422511080871</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <v>10.950303814140273</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
-        <v>-1.6506682190727249</v>
+        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <v>-1.7069902361423648</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
-        <v>-1.5446620031689717</v>
+        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <v>-1.8653707735163989</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
-        <v>-1.5143745129107566</v>
+        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <v>-1.6541967236843536</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
-        <v>-1.4083682970070037</v>
+        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <v>-1.9005664484884064</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
-        <v>-9.0687783879704842</v>
+        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <v>-11.323177632476712</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
-        <v>-12.853072897211225</v>
+        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <v>-15.654029224014625</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
-        <v>-33.1733983001171</v>
+        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <v>-40.15547254871386</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
-        <v>-31.445617138652672</v>
+        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <v>-39.352363097739584</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28314,100 +28317,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>55.541656385296498</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>61.92710203577623</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>55.23705688708408</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>65.062190319979308</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>47.7868567960384</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>56.905106926131069</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>51.875534378051157</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>51.977793901395486</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>49.70510780537559</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>54.020987482940136</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>53.894733000289413</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>56.409882360146824</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>58.495518125535447</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>78.546349891887729</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>62.821238483076741</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>72.127480714516977</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>71.340992710731655</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>84.462909049355375</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>72.525681722087853</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>88.409432274395002</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>75.823854957804556</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>82.886150226883046</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>75.150043224129334</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>81.288925039502146</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>67.789528607384966</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>93.838525929729656</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>68.589342973203003</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>91.849439854103622</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>71.395149017775111</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>75.468969481458998</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>62.65860064498299</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>85.905036432210295</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>66.877414524283054</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>89.778726938289907</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>86.119398154949948</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.52169293992669</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>80.477406934503364</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>101.7952437402236</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>77.34692033552372</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>90.69494423484943</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>81.814269793641799</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>91.199705213484663</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>79.164973483626596</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>81.357784455636235</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>74.299719695148198</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.968248015753446</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>68.622146068585693</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>80.471055640732018</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -28415,100 +28418,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>64.417084482591591</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>68.005725868662211</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>64.358740561287092</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>67.067118613841615</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>57.653454303002249</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.090207937549117</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>49.958722852452752</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>57.914824018777189</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>56.855383294889073</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>64.284934033126746</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>64.386082699510439</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>65.823378065027754</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>74.908769270697462</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>80.194674104965259</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.164711468433168</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>91.662331772553259</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>90.235121229486467</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>100.67806756191715</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>88.060203389578504</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>114.6024201620193</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>90.55286490467067</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>99.108916991486325</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>85.919732848987437</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>93.673622328220333</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>80.132966078807641</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>92.957386923351805</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>95.932988784021674</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>110.18783163532466</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>75.366094894032116</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>101.32337014774761</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>85.76765225605142</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>101.17571100951508</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>78.604996150535257</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>96.857966359669376</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>95.374683024698328</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>115.72999791080223</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>95.930702204552588</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>111.26738213307405</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>86.52667430510111</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>110.65861379439974</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>88.994884842543826</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>103.19343107817545</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>77.280663250485816</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>104.78352457769184</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>82.12971343711753</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>90.676242756176052</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>74.381493772423823</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>80.426426439074575</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -28516,100 +28519,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>71.718101936936534</v>
+        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.769443905732444</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>69.095155523670513</v>
+        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>81.296261749359374</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>63.542122022144817</v>
+        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>62.241385073680156</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>65.849954914382522</v>
+        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>78.978013824164961</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.163119794395804</v>
+        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>76.367237255346026</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.270379783946431</v>
+        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>66.834623141605334</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>97.906432442075726</v>
+        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>112.9997107226894</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>109.54811450286287</v>
+        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>107.46238125331107</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>102.42692606978285</v>
+        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>122.71975174972418</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>111.56693543708386</v>
+        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>118.0319220834467</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>93.640775764891472</v>
+        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>129.13103883285513</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>111.59611776802676</v>
+        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>124.29798056994876</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>101.48697521670815</v>
+        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>126.40607794601253</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>97.131727429013196</v>
+        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>120.62107568002088</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>107.95833620010629</v>
+        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>104.80929830225196</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>99.188174188622952</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>97.003609309614163</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>90.952782717093257</v>
+        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>110.73196821767398</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>93.777009340306932</v>
+        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>105.18789318627655</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>94.557265202648566</v>
+        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>124.094030323911</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>95.477846821584365</v>
+        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>124.32919392231685</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>101.08952330453759</v>
+        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>105.09541897458675</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>81.449120145230566</v>
+        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>96.46311389770888</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>81.526042006597152</v>
+        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>89.747639829324271</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>80.746791900799082</v>
+        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>82.309638431330313</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -29461,100 +29464,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>57.686421613741018</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>61.92710203577623</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>51.934626136087971</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>59.579904288981247</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>51.784253002138023</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>50.711524189286671</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>50.1200120489071</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>52.487796486422297</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>50.623863499849698</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>56.690094969703665</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>55.382708953952772</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>63.326311233561782</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>67.47303470532708</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>70.200468396805391</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>60.813981406648949</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>86.122717766828174</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>71.340992710731655</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>90.223397897583197</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>75.454712078981174</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>88.409432274395002</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>73.60698269912109</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>83.74485806088633</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>80.268792043145012</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>81.288925039502146</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>73.606333149311794</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>82.854441891470145</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>66.453024075044794</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>88.539418238573646</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>69.326832920116459</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>76.270133928033545</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>67.397287545765522</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>82.758404274234223</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>70.383025209768576</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>74.298643702312276</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>78.18170240455575</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>98.8320830412421</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>88.570833573352843</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>86.747256021876652</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>83.860115793500967</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>91.641029187802673</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>76.284695947415273</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>86.609948797639149</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>79.164973483626596</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>81.357784455636235</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>69.488043108513011</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>76.986624784758902</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>66.191818072181846</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>71.998544365526627</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -29562,100 +29565,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>60.962592972909185</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>65.329523926721009</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>62.74765503019141</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>73.307675603006246</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>54.091497182615086</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>58.542336220652871</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>52.990226530847707</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>63.198976843834757</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>53.275967716718462</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>68.444405359571917</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>55.954902907709467</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>71.048700441633684</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>70.213891583565726</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>79.415288727886789</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>78.97202595000465</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>91.662331772553259</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>95.508797820705098</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>106.80636032006903</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>80.94095213584437</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>97.022404173640865</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>95.748209792596128</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>94.077861031748753</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>82.438317922396465</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>104.79899305634888</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>87.959712572840672</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>98.0102179279788</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>84.812297794413624</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>91.300611908752572</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>85.046335920849501</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>87.262176321273927</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>74.797603953482977</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>90.249042666736713</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>85.133423088390387</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>92.116479226195921</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>91.756241103599862</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>110.47397039439531</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>97.733364767733946</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>104.98301273332876</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>86.52667430510111</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>96.298672964188285</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>95.067320687072311</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>93.112726071855803</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>74.028374281132088</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>92.500692965044124</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>68.615261692509563</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>91.502796013804613</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.154904768756225</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>78.926639208463271</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -29663,100 +29666,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.594621415710506</v>
+        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>88.257883139332947</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>68.50003028560117</v>
+        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>82.679396123858822</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>64.619242328297219</v>
+        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>71.628918312128292</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>62.953693120213195</v>
+        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>76.958647652738236</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.163119794395804</v>
+        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>66.305620123450367</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>61.668616971041786</v>
+        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>70.331025153239196</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>102.3842112162576</v>
+        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>108.83697700024337</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>109.54811450286287</v>
+        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>107.46238125331107</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>110.0816633243446</v>
+        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>135.42719735141816</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>112.66104648681569</v>
+        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>133.288905040309</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>105.00933694189315</v>
+        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>121.92510816329992</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>108.20382846699694</v>
+        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>134.81003560276261</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>115.35025085427385</v>
+        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>131.36295912015461</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>108.11299090997449</v>
+        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>106.70018946127857</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>107.95833620010629</v>
+        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>112.68332120620721</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>99.188174188622952</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>99.105768954570081</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.237544084132324</v>
+        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>106.52496589504736</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>100.48428075360732</v>
+        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>112.98209939481269</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>89.766357050291148</v>
+        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>124.094030323911</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>91.58740146034441</v>
+        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>119.80828944118652</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>94.465080960430669</v>
+        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>120.49132782185421</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>80.593968235050909</v>
+        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>105.40670202046212</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>80.079516466500436</v>
+        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>94.790458727216546</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>77.247360695925522</v>
+        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>79.869723293623139</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -30608,100 +30611,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>61.439760763518926</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>65.042516156756506</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>54.293505243942334</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>54.0976182579832</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>51.340097868126954</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>51.227656084023707</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>43.536803314616876</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>56.567817166636758</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>50.16448565261264</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>54.55480898029284</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>51.414773077517154</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>55.833513287362251</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>62.685025862771539</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>70.200468396805391</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>66.166666943789707</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>71.349967544944136</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>66.383828229242937</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>78.702420201127552</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>73.990196900534514</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>93.514965922716954</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>70.651153020876464</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>82.886150226883046</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>73.687543561553426</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>94.035193135303871</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>74.333433717052642</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>88.768948681302192</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>77.134618565835893</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>84.4018912191612</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>71.395149017775111</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>86.685271733502717</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>67.397287545765522</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>74.105165839800037</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>68.279658798477257</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>83.260797154720365</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>73.419084954319217</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>96.064875617228637</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>86.142805581697999</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>97.092747578240164</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>78.161069767770869</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>103.94013357619488</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>87.343843639868339</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>91.199705213484663</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>76.90348439920291</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>85.73773550085528</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>73.6123373256289</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>88.169473133687148</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>71.052474064989553</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>71.998544365526627</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -30709,100 +30712,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>66.144330237432797</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>72.689079267059356</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>56.840341416173892</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>65.819007216008686</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>54.091497182615086</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>66.229391607261419</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>55.516479596176836</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>58.501952110450247</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>54.298657881910067</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>63.690723843634572</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>62.137768088363522</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>68.436039253330719</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>65.519013896434004</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>88.767913252828563</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>88.659799728862211</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>100.10561316239682</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>89.356175130950035</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>110.89188882550361</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>81.830858542561145</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>93.920048410985856</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>82.759847572782505</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>110.17724010290904</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>92.88256270216938</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>111.87877442879432</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>87.090074073503658</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>105.08418133445662</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>95.077551015590274</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>93.28874030102331</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>82.626275664145155</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>97.573718460687971</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>80.282628104767198</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>96.622932533357428</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>88.397636557317938</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>96.857966359669376</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>98.993124945796808</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>102.06432636814424</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>99.536027330915303</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>102.88822293341367</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>93.58803816950433</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>95.272962904887464</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>80.319976493217425</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>94.120796572487791</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>78.906807735162701</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>101.94902497477312</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>79.284565701410585</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>91.502796013804613</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>64.056408960687548</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>73.677383901323722</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -30810,100 +30813,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
-        <v>67.875491546017003</v>
+        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <v>86.769443905732444</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
-        <v>69.690280761739857</v>
+        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <v>72.997455502362769</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
-        <v>62.465001715992415</v>
+        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <v>70.377247213668539</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
-        <v>63.532945479047058</v>
+        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <v>66.861816795604582</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
-        <v>61.163119794395804</v>
+        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <v>67.647169074369785</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
-        <v>58.659802906518564</v>
+        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <v>69.631744750912418</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
-        <v>90.741986403384715</v>
+        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <v>102.59287641657431</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
-        <v>91.594359152347749</v>
+        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <v>112.09865211010867</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
-        <v>101.33339217627403</v>
+        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <v>117.63677350904663</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
-        <v>118.13160173547486</v>
+        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <v>120.57475257625707</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
-        <v>100.87531469571071</v>
+        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <v>132.73400416763275</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
-        <v>108.20382846699694</v>
+        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <v>129.55400808635568</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
-        <v>101.48697521670815</v>
+        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <v>130.1237388266191</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
-        <v>97.131727429013196</v>
+        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <v>118.30092797689717</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
-        <v>89.566452004361508</v>
+        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <v>114.93304203590873</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
-        <v>90.143150926751431</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <v>115.92304611421741</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
-        <v>98.193419071655782</v>
+        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <v>105.47321531439071</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
-        <v>101.44246238407881</v>
+        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <v>106.30135121606742</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
-        <v>106.05544476830639</v>
+        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <v>119.64019820474749</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
-        <v>90.614790120034428</v>
+        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <v>124.32919392231685</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
-        <v>86.894289710022775</v>
+        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <v>103.99571119978194</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
-        <v>82.304272055410237</v>
+        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <v>96.46311389770888</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
-        <v>72.123625995968467</v>
+        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <v>83.864351115116605</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
-        <v>81.446678141773788</v>
+        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <v>87.189468706744705</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -31755,100 +31758,100 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
-        <v>9.7817902990783381</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <v>13.301762542292455</v>
       </c>
       <c r="C2" s="2">
-        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
-        <v>8.348106918274004</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <v>9.7009443576278063</v>
       </c>
       <c r="D2" s="2">
-        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
-        <v>6.7341140460954705</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <v>7.6656967600357708</v>
       </c>
       <c r="E2" s="2">
-        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
-        <v>7.1277191948726513</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <v>8.2827888985100948</v>
       </c>
       <c r="F2" s="2">
-        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
-        <v>8.2539366981712092</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <v>8.7034104453519188</v>
       </c>
       <c r="G2" s="2">
-        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
-        <v>9.3943664379579843</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <v>11.247564294978162</v>
       </c>
       <c r="H2" s="2">
-        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
-        <v>14.280983262862733</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <v>17.108517833575021</v>
       </c>
       <c r="I2" s="2">
-        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
-        <v>17.793819093140137</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <v>22.974849351026645</v>
       </c>
       <c r="J2" s="2">
-        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
-        <v>21.80419139782331</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <v>26.061562682165562</v>
       </c>
       <c r="K2" s="2">
-        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
-        <v>25.153780640191158</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <v>25.775573040409981</v>
       </c>
       <c r="L2" s="2">
-        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
-        <v>25.135458721976772</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <v>26.261069205930756</v>
       </c>
       <c r="M2" s="2">
-        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
-        <v>23.77889686249884</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <v>24.737526283985357</v>
       </c>
       <c r="N2" s="2">
-        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
-        <v>22.288158621355901</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <v>26.957169966452678</v>
       </c>
       <c r="O2" s="2">
-        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
-        <v>21.160283196053516</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <v>24.327785705511836</v>
       </c>
       <c r="P2" s="2">
-        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
-        <v>21.525913860637303</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <v>21.474503722100916</v>
       </c>
       <c r="Q2" s="2">
-        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
-        <v>17.750402838963364</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <v>20.626912418829463</v>
       </c>
       <c r="R2" s="2">
-        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
-        <v>20.508721552071034</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <v>24.294987166093136</v>
       </c>
       <c r="S2" s="2">
-        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
-        <v>29.580762704980003</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <v>33.743696655332442</v>
       </c>
       <c r="T2" s="2">
-        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
-        <v>28.724852875534605</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <v>33.064903359633696</v>
       </c>
       <c r="U2" s="2">
-        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
-        <v>28.636465059582541</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <v>29.918856825373759</v>
       </c>
       <c r="V2" s="2">
-        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
-        <v>25.776544317616874</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <v>31.084044705464176</v>
       </c>
       <c r="W2" s="2">
-        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
-        <v>20.761303740074254</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <v>27.14145687629744</v>
       </c>
       <c r="X2" s="2">
-        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
-        <v>18.344518628245808</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <v>20.907358369561479</v>
       </c>
       <c r="Y2" s="2">
-        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
-        <v>13.66780536528093</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <v>15.882716960564586</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -31856,100 +31859,100 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
-        <v>-24.478248096342497</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <v>-32.421213032725376</v>
       </c>
       <c r="C3" s="2">
-        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
-        <v>-28.893052887255006</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <v>-31.248266028930459</v>
       </c>
       <c r="D3" s="2">
-        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
-        <v>-27.732304068102842</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <v>-32.226412683404341</v>
       </c>
       <c r="E3" s="2">
-        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
-        <v>-29.977568448478159</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <v>-36.968316851969206</v>
       </c>
       <c r="F3" s="2">
-        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
-        <v>-29.128457464842693</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <v>-38.263880319442393</v>
       </c>
       <c r="G3" s="2">
-        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
-        <v>-30.439342501930753</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <v>-35.044615585900956</v>
       </c>
       <c r="H3" s="2">
-        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
-        <v>-22.457852861654473</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <v>-25.853320530854955</v>
       </c>
       <c r="I3" s="2">
-        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
-        <v>-9.3304925434074502</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <v>-9.8385908727120874</v>
       </c>
       <c r="J3" s="2">
-        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
-        <v>-2.3152560347840456</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <v>-2.660885291717269</v>
       </c>
       <c r="K3" s="2">
-        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
-        <v>-0.37810342383085438</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <v>-0.49950147057590527</v>
       </c>
       <c r="L3" s="2">
-        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
-        <v>-3.6087799551341186</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <v>-4.5672809149753393</v>
       </c>
       <c r="M3" s="2">
-        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
-        <v>-2.8369835043458931</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <v>-3.296725759336296</v>
       </c>
       <c r="N3" s="2">
-        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
-        <v>-3.5268223646090542</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <v>-4.6476193152219176</v>
       </c>
       <c r="O3" s="2">
-        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
-        <v>-3.5577478732916874</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <v>-3.9211844501064967</v>
       </c>
       <c r="P3" s="2">
-        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
-        <v>-9.8285900352910538</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <v>-11.205847435120248</v>
       </c>
       <c r="Q3" s="2">
-        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
-        <v>-12.952901474024115</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <v>-15.362310309315125</v>
       </c>
       <c r="R3" s="2">
-        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
-        <v>-11.756750294986483</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <v>-14.351967750452713</v>
       </c>
       <c r="S3" s="2">
-        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
-        <v>-3.7294376974742924</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <v>-4.3338050102403098</v>
       </c>
       <c r="T3" s="2">
-        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
-        <v>-5.7198312041550929</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <v>-6.6467481537723359</v>
       </c>
       <c r="U3" s="2">
-        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
-        <v>-7.0418516755942306</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <v>-7.7523217322813904</v>
       </c>
       <c r="V3" s="2">
-        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
-        <v>-11.527248492897895</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <v>-12.448135270318549</v>
       </c>
       <c r="W3" s="2">
-        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
-        <v>-14.358546761106998</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <v>-17.036666688002402</v>
       </c>
       <c r="X3" s="2">
-        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
-        <v>-20.886170205837889</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <v>-23.32828399270257</v>
       </c>
       <c r="Y3" s="2">
-        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
-        <v>-20.998474165031055</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <v>-27.053664107370963</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -31957,100 +31960,100 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
-        <v>36.51407449192142</v>
+        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <v>45.825800873764344</v>
       </c>
       <c r="C4" s="2">
-        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
-        <v>46.587439734142812</v>
+        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <v>54.662686170631993</v>
       </c>
       <c r="D4" s="2">
-        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
-        <v>43.873608293318959</v>
+        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <v>57.816302680476156</v>
       </c>
       <c r="E4" s="2">
-        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
-        <v>49.301271174966672</v>
+        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <v>55.18828892227269</v>
       </c>
       <c r="F4" s="2">
-        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
-        <v>48.848965934829359</v>
+        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <v>50.457864157506457</v>
       </c>
       <c r="G4" s="2">
-        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
-        <v>38.114105729348367</v>
+        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <v>38.328419877192829</v>
       </c>
       <c r="H4" s="2">
-        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
-        <v>15.126662456819288</v>
+        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <v>21.05495087702062</v>
       </c>
       <c r="I4" s="2">
-        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
-        <v>2.0116010393020294</v>
+        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <v>2.6857387432457598</v>
       </c>
       <c r="J4" s="2">
-        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
-        <v>-13.022349694715059</v>
+        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <v>-14.259624875495668</v>
       </c>
       <c r="K4" s="2">
-        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
-        <v>-11.269341081964955</v>
+        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <v>-14.696144004337372</v>
       </c>
       <c r="L4" s="2">
-        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
-        <v>-1.1322809966791738</v>
+        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <v>-1.2531150051390543</v>
       </c>
       <c r="M4" s="2">
-        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
-        <v>-12.013273949671314</v>
+        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <v>-15.477461634115681</v>
       </c>
       <c r="N4" s="2">
-        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
-        <v>-12.535590208352675</v>
+        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <v>-15.932681093942612</v>
       </c>
       <c r="O4" s="2">
-        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
-        <v>-9.400181393443674</v>
+        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <v>-12.920281671886503</v>
       </c>
       <c r="P4" s="2">
-        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
-        <v>-1.1817382138760735</v>
+        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <v>-1.490114389741082</v>
       </c>
       <c r="Q4" s="2">
-        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
-        <v>7.8970907976537479</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <v>7.9414958349060392</v>
       </c>
       <c r="R4" s="2">
-        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
-        <v>9.8054842818114327</v>
+        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <v>12.497187391549488</v>
       </c>
       <c r="S4" s="2">
-        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
-        <v>10.754402115535118</v>
+        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <v>12.61970883656468</v>
       </c>
       <c r="T4" s="2">
-        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
-        <v>11.597884634400618</v>
+        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <v>11.762058721458342</v>
       </c>
       <c r="U4" s="2">
-        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
-        <v>10.227225541244181</v>
+        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <v>12.374665946534297</v>
       </c>
       <c r="V4" s="2">
-        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
-        <v>11.597884634400618</v>
+        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <v>12.864751726595061</v>
       </c>
       <c r="W4" s="2">
-        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
-        <v>21.98665862223897</v>
+        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <v>22.994700306705802</v>
       </c>
       <c r="X4" s="2">
-        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
-        <v>35.625106797064028</v>
+        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <v>36.71167282061446</v>
       </c>
       <c r="Y4" s="2">
-        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
-        <v>35.289020883884184</v>
+        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <v>36.321123109756861</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/data/IEEE_9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35512E5-7054-495D-AC5D-07B29A158ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5E0C5-84BC-4009-A216-14B7F068C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23925" yWindow="5430" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="5190" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
@@ -3837,10 +3837,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
       <sheetData sheetId="20">
         <row r="2">
           <cell r="B2">
@@ -4512,99 +4512,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>14.597876820193711</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>10.285943380097816</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>8.6199193154442657</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>8.6165652789979781</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>11.236465870708018</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>13.695627651446568</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>20.454527952379678</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>22.546689579228104</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>26.329608460224406</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>33.311961069868097</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>33.904135592999801</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>30.852448684980647</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>32.82447227815657</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>28.84583321753734</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>26.570108494702168</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>28.366956649799775</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>27.126177454520043</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>35.141473150501447</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>37.283612039731423</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>32.956548187716294</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>30.5047617998693</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>27.71231808554742</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>25.21997819702052</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>19.348581799633266</v>
       </c>
     </row>
@@ -4613,99 +4613,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-35.502852194478564</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-41.673662957326407</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-40.316334412773898</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-38.785021982883613</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-43.133717912160634</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-35.355771718345537</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-25.47961283728802</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-12.46896635475966</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-3.534766399011358</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-0.5905348749574908</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-4.5303602948485562</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-3.3660651784440376</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-4.8062215709810703</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-5.0462581746480097</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-13.757638735051687</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-17.111370460229985</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-15.057255295876267</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>-5.4679104051252416</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-8.0333874399179468</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-9.9983682592924463</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-15.548608053677757</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-21.202451654969316</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-30.087086458904881</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-33.249837500437238</v>
       </c>
     </row>
@@ -4714,99 +4714,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>49.744781974479721</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>57.348931877554449</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>65.890262157190222</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>56.128741837606484</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>66.500357177164219</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>49.433146606027421</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>20.627918731098639</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>2.7999584890657032</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>-16.720800664278467</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>-15.200727876616789</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>-1.3091014069716649</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>-18.670041334629222</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>-18.141643938366126</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>-12.270482935268795</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-1.5261660773969801</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>10.549621482178956</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>13.226194609087997</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>12.941760316419437</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>13.083977462753719</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>15.50166895043647</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>14.932800365099352</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>27.877443718296206</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>48.506501004021395</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>48.053169218937079</v>
       </c>
     </row>
@@ -5659,99 +5659,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>15.159333620970393</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>10.610762644732485</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>9.0833558377799779</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>8.25376253040859</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>11.33955271355855</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>13.695627651446568</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>18.071476152102434</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>23.274002146299974</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>27.730119548534216</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>28.068411642203674</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>29.549475975550287</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>30.546978896020438</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>30.063535357563957</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>30.060394616170495</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>28.21362036035385</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>28.366956649799775</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>27.931905497723612</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>40.266271318282911</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>34.359407173870132</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>33.31091967360571</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>31.160778182662185</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>30.629404199815575</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>22.840734970886505</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>17.158176312882329</v>
       </c>
     </row>
@@ -5760,99 +5760,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-37.633023326147274</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-40.130193958906915</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-41.9788636669089</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-42.498481534436301</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-43.987850940124218</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-40.678145955515831</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-28.593787739623224</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-11.769771979726409</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-3.534766399011358</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-0.56369238064124116</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-5.2532901291329006</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-3.5786587686615561</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-5.2476092662752514</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-4.6999463391329499</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-13.382430405913915</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-18.552327972670405</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-15.217438862853676</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>-5.6866268213302513</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-8.6696953559510508</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-9.6984172115136733</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-17.119174523746217</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-18.756014925549781</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-27.625415748630846</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-32.018362037458083</v>
       </c>
     </row>
@@ -5861,99 +5861,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>48.759736786866256</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>65.890262157190222</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>65.890262157190222</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>64.059977097268273</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>57.959026897528432</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>48.44448367390688</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>21.74900127083226</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>3.0886140034023737</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>-16.88969764068532</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>-17.227491593499028</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>-1.4400115476688311</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>-18.670041334629222</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>-19.022306265471279</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>-13.088515130953379</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-1.7635696894365103</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>10.754468501250393</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>12.799543170085158</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>14.790583218765073</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>13.368411755422278</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>13.795063194425115</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>14.790583218765073</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>31.436266320631894</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>48.959832789105711</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>43.51985136809396</v>
       </c>
     </row>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13884,99 +13884,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>80.768444191342198</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>72.935501150901857</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>75.144108417954655</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>73.255354549103103</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>70.020949209822035</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>69.327409230438036</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>79.365404411302904</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>86.630755697310988</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>102.08752121135059</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>107.862673276065</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>103.43026653830174</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>104.17304747331131</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>105.65551852961083</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>103.35422440111883</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>123.65163964742004</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>112.70969086600707</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>107.30376434990902</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>103.79756330018922</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>104.02373196748125</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>102.24531643755758</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>103.12298414212437</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>116.56026138344797</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>99.728596890219052</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>92.744851294617675</v>
       </c>
     </row>
@@ -13985,99 +13985,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>102.60686836362733</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>96.682091123011716</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>83.921370772063014</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>87.288576490448747</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>89.944137356362518</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>89.871814684482189</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>97.74863383422057</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>97.71068302095442</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>105.34668703959029</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>120.81216533819503</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>121.37928520292891</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>126.19465166021905</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>115.09020486650331</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>132.31385107285621</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>113.64868042222842</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>119.09006296404733</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>113.00217444305713</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>110.24029306208809</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>126.31679754625297</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>111.3105778058529</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>110.15434324693264</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>112.60109632824948</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>125.24590994954551</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>101.62487479849288</v>
       </c>
     </row>
@@ -14086,99 +14086,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>120.99223001259503</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>107.74178912444256</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>89.567431806456881</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>91.306528487986071</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>98.990333590455137</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>96.296904611947497</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>131.85589892268746</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>130.27244454065161</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>143.05658023426315</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>137.76306221901709</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>144.14854899557523</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>141.58701432516762</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>151.48894383280393</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>163.86371721364105</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>144.48690112327748</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>138.30331062269462</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>124.83742051001379</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>123.27123206679656</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>125.26447509303226</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>134.70966876563642</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>129.27422437517777</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>139.70728201486858</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>135.96690809458113</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>124.73227462159093</v>
       </c>
     </row>
@@ -15033,99 +15033,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>85.498401960827053</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>81.263086319499749</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>76.456545866429124</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>66.90129464399574</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>73.388898346264142</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>72.41223421857849</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>75.747467557113637</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>80.751767364304783</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>101.14136732400755</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>104.81624836199749</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>112.86201783945948</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>113.75407007333133</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>118.68104859128619</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>112.10903368654317</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>109.37541618002881</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>107.42583655441604</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>100.95996556381526</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>96.685013679681191</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>111.17370473350323</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>98.126026248688589</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>114.35791324999374</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>108.09649468315703</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>106.96416350007476</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>102.90674611727823</v>
       </c>
     </row>
@@ -15134,99 +15134,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>102.60686836362733</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>81.321117671472308</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>91.070524167643754</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>92.834824599046058</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>93.113671856597009</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>91.442566716098355</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>83.334614043024487</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>97.71068302095442</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>107.64126489233718</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>118.44707958416481</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>121.37928520292891</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>127.39832977440463</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>128.51229530593093</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>129.91861345255103</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>114.79950202740706</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>104.73152369129099</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>110.75462848532264</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>113.64491978762064</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>126.31679754625297</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>115.79387999247423</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>104.53337757847552</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>130.16242029376534</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>118.6981981457231</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>104.6260002490787</v>
       </c>
     </row>
@@ -15235,99 +15235,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>112.8719133107865</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>93.878428508163438</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>105.38918724694238</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>100.63116658398573</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>94.75186172863711</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>101.75041360530723</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>111.35664327165698</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>144.28673544322106</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>135.74331545025518</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>152.08347208948339</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>158.46215742397138</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>161.41510247432208</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>169.79179443202344</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>160.81324211377114</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>154.62785475748882</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>131.44582320323414</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>141.44649250671358</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>139.88030406349634</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>136.76306339843984</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>133.43204784281338</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>133.10708714364694</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>130.76393555510711</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>119.95476523589993</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>131.6469902978761</v>
       </c>
     </row>
@@ -16182,99 +16182,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>90.228359730311908</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>70.853604858752391</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>67.269483727107769</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>68.807512615527955</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>67.326589900668367</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>68.710444232809948</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>81.536166523816462</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>81.591622840448522</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>99.249059549321487</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>98.723398533862522</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>104.47823890509703</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>98.850257139966871</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>116.51012691434029</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>119.76949181128951</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>111.57175825193514</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>103.19875310514321</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>105.18916475454442</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>100.74932774854291</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>113.21655409522378</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>103.27513898477481</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>99.037555375626411</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>108.09649468315703</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>118.33433960127661</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>89.973425433892061</v>
       </c>
     </row>
@@ -16283,99 +16283,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>105.27643071466311</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>86.980423679934205</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>91.864874544930487</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>87.288576490448747</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>79.643150230600455</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>83.588806558017524</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>83.334614043024487</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>100.73061765943392</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>122.55602093519195</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>131.45505123133094</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>127.23216449582395</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>129.80568600277573</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>123.63153514613909</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>121.53528178148289</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>110.1962156066925</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>121.29906900600984</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>106.25953656985368</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>122.72392438904079</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>127.4564902466625</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>103.46479897926558</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>112.4027295143155</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>112.60109632824948</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>118.6981981457231</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>102.62524994868816</v>
       </c>
     </row>
@@ -16384,99 +16384,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Summer, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>117.94711124941682</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Summer, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>97.575324672504522</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Summer, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>103.63121442022177</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Summer, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>91.306528487986071</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Summer, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>87.97030674972828</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Summer, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>95.387986446387529</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Summer, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>128.43935631418242</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Summer, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>155.49816816527664</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Summer, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>160.60841571588227</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Summer, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>142.05918518015699</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Summer, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>141.28582730989598</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Summer, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>153.7889147246473</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Summer, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>156.0646564826088</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Summer, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>153.18705436409635</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Summer, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>147.38431644733788</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Summer, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>147.90379300993931</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Summer, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>118.44931589589849</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Summer, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>121.99361114397348</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Summer, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>123.98685417020918</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Summer, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>116.82297584611359</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Summer, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>135.66232898929306</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Summer, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>124.37583094099183</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Summer, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>131.04009490729459</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Summer, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>116.66510633259161</v>
       </c>
     </row>
@@ -17331,99 +17331,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B2*Main!$B$5)</f>
         <v>15.491182482341712</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C2*Main!$B$5)</f>
         <v>11.030007881756514</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D2*Main!$B$5)</f>
         <v>12.384040489452206</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E2*Main!$B$5)</f>
         <v>9.7243853030707701</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F2*Main!$B$5)</f>
         <v>11.19469209095103</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G2*Main!$B$5)</f>
         <v>4.9835635726611764</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H2*Main!$B$5)</f>
         <v>9.8051742836639164</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I2*Main!$B$5)</f>
         <v>19.197306568053648</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J2*Main!$B$5)</f>
         <v>24.306155103103467</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K2*Main!$B$5)</f>
         <v>29.496993359164502</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L2*Main!$B$5)</f>
         <v>35.220540734989079</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M2*Main!$B$5)</f>
         <v>36.158723849103275</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N2*Main!$B$5)</f>
         <v>35.604208132020354</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O2*Main!$B$5)</f>
         <v>36.971758210423403</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P2*Main!$B$5)</f>
         <v>39.980462138134023</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q2*Main!$B$5)</f>
         <v>35.135972519067629</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R2*Main!$B$5)</f>
         <v>36.446856560625704</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S2*Main!$B$5)</f>
         <v>27.594961181072978</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T2*Main!$B$5)</f>
         <v>32.192848058296406</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U2*Main!$B$5)</f>
         <v>30.344151900269662</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V2*Main!$B$5)</f>
         <v>27.85868199979862</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W2*Main!$B$5)</f>
         <v>30.968237784071395</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X2*Main!$B$5)</f>
         <v>29.925034406043743</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y2*Main!$B$5)</f>
         <v>21.455285124785384</v>
       </c>
     </row>
@@ -17432,99 +17432,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B3*Main!$B$5)</f>
         <v>-30.675824880103857</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C3*Main!$B$5)</f>
         <v>-37.946303164258644</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D3*Main!$B$5)</f>
         <v>-38.836709940250472</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E3*Main!$B$5)</f>
         <v>-39.335096513607098</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F3*Main!$B$5)</f>
         <v>-39.239817243197884</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G3*Main!$B$5)</f>
         <v>-46.977316537996728</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H3*Main!$B$5)</f>
         <v>-37.753708675903944</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I3*Main!$B$5)</f>
         <v>-5.2977828992350906</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J3*Main!$B$5)</f>
         <v>17.929704867237401</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K3*Main!$B$5)</f>
         <v>27.447637593054729</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L3*Main!$B$5)</f>
         <v>23.057023293017938</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M3*Main!$B$5)</f>
         <v>27.331385739779666</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N3*Main!$B$5)</f>
         <v>24.504460429702718</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O3*Main!$B$5)</f>
         <v>26.787704461395005</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P3*Main!$B$5)</f>
         <v>12.758282237039387</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q3*Main!$B$5)</f>
         <v>3.5614323751845887</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R3*Main!$B$5)</f>
         <v>6.8763646314089559</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S3*Main!$B$5)</f>
         <v>9.351062703749097</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T3*Main!$B$5)</f>
         <v>5.2507928141792473</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U3*Main!$B$5)</f>
         <v>-1.020330052490759</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V3*Main!$B$5)</f>
         <v>-4.3815250880523671</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W3*Main!$B$5)</f>
         <v>-3.048340522565594</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X3*Main!$B$5)</f>
         <v>-13.157150948483343</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y3*Main!$B$5)</f>
         <v>-18.169058410163281</v>
       </c>
     </row>
@@ -17533,99 +17533,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!B4*Main!$B$5)</f>
         <v>-41.999697824441476</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!C4*Main!$B$5)</f>
         <v>-47.538119515576611</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!D4*Main!$B$5)</f>
         <v>-50.366617562389848</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!E4*Main!$B$5)</f>
         <v>-61.619597017372335</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!F4*Main!$B$5)</f>
         <v>-56.738836857580466</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!G4*Main!$B$5)</f>
         <v>-63.449882077294284</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!H4*Main!$B$5)</f>
         <v>-24.326656190656738</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!I4*Main!$B$5)</f>
         <v>5.3954631248863141</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!J4*Main!$B$5)</f>
         <v>16.653606188859118</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!K4*Main!$B$5)</f>
         <v>15.532690387685911</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!L4*Main!$B$5)</f>
         <v>15.813074470422951</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!M4*Main!$B$5)</f>
         <v>19.966578236682697</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!N4*Main!$B$5)</f>
         <v>28.17679232406266</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!O4*Main!$B$5)</f>
         <v>31.342864580657864</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!P4*Main!$B$5)</f>
         <v>17.417539725000385</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Q4*Main!$B$5)</f>
         <v>12.710599028172734</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!R4*Main!$B$5)</f>
         <v>-2.1856616403812512</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!S4*Main!$B$5)</f>
         <v>-2.1652348960786227</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!T4*Main!$B$5)</f>
         <v>-1.9609674530523373</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!U4*Main!$B$5)</f>
         <v>-2.1448081517759943</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!V4*Main!$B$5)</f>
         <v>-12.883147853136217</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!W4*Main!$B$5)</f>
         <v>-15.836641932745927</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!X4*Main!$B$5)</f>
         <v>-46.144483096210422</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S1'!Y4*Main!$B$5)</f>
         <v>-44.746165426628281</v>
       </c>
     </row>
@@ -18480,99 +18480,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>16.742995208187509</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>12.109030391928346</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>10.566199683661058</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>10.716669517669828</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>12.22277605848735</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>5.1426134739163203</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>8.7876561976233223</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>19.019553729460558</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>24.04757898498535</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>32.876857181568774</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>34.214239571132246</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>31.291203330954758</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>35.604208132020354</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>34.409359126532671</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>33.074745950638146</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>37.946850320593036</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>35.778106898962847</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>30.858881320769783</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>31.011459138725897</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>25.848721989118598</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>24.313031563460608</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>30.361017435364111</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>28.292759802077718</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>19.703833277864128</v>
       </c>
     </row>
@@ -18581,99 +18581,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>-31.569295507679694</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-36.010267288531161</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-40.543818069492254</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-39.335096513607098</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-44.666600478959303</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-43.133717912160634</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-36.273171080770453</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>-6.1615518501973341</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>17.190335594361631</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>25.563976189609793</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>22.210893997861316</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>28.176686329669764</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>23.004187342169899</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>25.499834054597173</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>13.821472423459335</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>3.4942355379169552</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>7.0258508190482809</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>9.9865718195378701</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>4.9226182632930442</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>-0.96931354986622109</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>-3.584884162951937</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>-2.9929161494280376</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>-14.486156094794792</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>-16.550033403317045</v>
       </c>
     </row>
@@ -18682,99 +18682,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-42.922768106297333</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-49.384260079288332</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-55.188953286448452</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-62.839787057320301</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-56.738836857580466</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-56.738836857580466</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-24.569922752563308</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>4.8912142347100227</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>16.49347536012009</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>14.571905415251729</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>14.934570333177231</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>20.172419249432007</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>25.944967189483442</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>27.892273984622133</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>14.998436985416998</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>11.32627636173808</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>-2.1652348960786227</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>-1.9201139644470804</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>-1.9609674530523373</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>-2.2060883846838797</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>-12.362616626746872</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>-18.170462849150592</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-43.81395364690686</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-44.280059536767574</v>
       </c>
     </row>
@@ -19629,99 +19629,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>16.43004202672606</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>11.389682051813791</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>10.566199683661058</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>9.2282431957712401</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>10.73776588315711</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>5.5137299101783235</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>8.9726594859943383</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>19.197306568053648</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>28.1847968748753</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>29.496993359164502</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>31.530769800847363</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>35.463363775082058</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>36.330824624510569</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>40.266271318282911</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>33.074745950638146</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>37.946850320593036</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>30.428109605659991</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>30.56216130807007</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>30.420764678940639</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>28.377401314141071</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>24.313031563460608</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>33.397119178900525</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>25.300256361473345</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>19.703833277864128</v>
       </c>
     </row>
@@ -19730,99 +19730,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>-30.378001337578574</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-38.333510339404143</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-38.836709940250472</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-37.777270909107806</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-40.909596700355245</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-42.706651398178849</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-39.97451506860417</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>-5.5857058828891706</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>20.332655004083648</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>25.025787217196964</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>21.787829350283005</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>29.021986919559858</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>24.254414915113916</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>25.757408135956737</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>12.89118101034188</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>3.4942355379169552</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>7.8480248510645705</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>8.8063406045015746</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>5.4695758481033829</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>-1.1121597572149275</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>-3.7442123479720224</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>-3.048340522565594</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>-13.024250433852197</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>-18.34895007759064</v>
       </c>
     </row>
@@ -19831,99 +19831,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-42.922768106297333</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-45.230443810936968</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-48.759172321036985</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-61.009501997398353</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-63.449882077294284</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-66.500357177164219</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-26.02952212400271</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>4.9920640127452804</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>17.614391161293302</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>14.571905415251729</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>15.373822401800091</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>22.230829376925069</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>28.734748607707466</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>29.042470849967376</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>15.96607808125035</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>11.703818907129349</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>-1.8384069872365663</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>-2.1039546631707373</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>-2.2469418732891371</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>-2.1448081517759943</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>-13.013280659733551</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>-17.170253884977164</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-47.076694875931835</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-44.746165426628281</v>
       </c>
     </row>
@@ -28319,99 +28319,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>72.546177182494048</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>66.247690992205648</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>68.005733836727131</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>59.816562593931273</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>69.178726102063294</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>70.779280724462978</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>83.866847013719962</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>84.898073102343218</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>100.19141899857459</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>96.058024912369632</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>101.40049984936026</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>92.641589775938769</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>97.565226784403009</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>95.845274999251714</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>91.198466128071132</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>94.117096480068767</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>96.145124083872304</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>113.48598727623079</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>100.13312929979494</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>119.92517869320982</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>98.970468217527184</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>105.97269963881649</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>89.112468352779189</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>83.047975580151132</v>
       </c>
     </row>
@@ -28420,99 +28420,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>85.165971620026042</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>73.752324327284313</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>80.418655475289796</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>71.326149877626293</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>75.614335986289419</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>82.383896177219469</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>90.31189482678856</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>106.70108618551437</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>114.75835118023062</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>113.00847527754243</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>114.10235889493093</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>118.41038678648853</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>129.47147614912231</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>126.43437030327853</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>103.27546162603909</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>109.8672101150762</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>108.52034918942775</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>132.902133229886</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>116.37237901463905</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>115.76690218320194</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>120.41401858273701</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>120.92164652566417</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>92.643994754018095</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>85.929330725765709</v>
       </c>
     </row>
@@ -28521,99 +28521,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S1'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>95.874581980139212</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S1'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>96.591311278285858</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S1'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>84.403044825864299</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S1'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>89.557010919450306</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S1'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>86.078299672767642</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S1'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>80.177968238613275</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S1'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>122.47928607713725</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S1'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>137.22550316737502</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S1'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>145.73127000548746</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S1'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>138.96849223802005</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S1'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>154.35808052302272</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S1'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>150.73843962477739</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S1'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>144.42011408768474</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S1'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>137.02314635947454</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S1'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>128.00235251542026</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S1'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>125.90097275792759</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S1'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>123.04726319855871</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S1'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>127.23522224871488</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S1'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>138.32010103326701</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S1'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>138.27609321346526</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S1'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>130.43867318225858</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S1'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>113.61154072740206</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S1'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>97.62293564710744</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S1'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>96.339277373106555</v>
       </c>
     </row>
@@ -29466,99 +29466,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>73.992667814008882</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>67.520407086306818</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>61.415615207963398</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>63.368485063828295</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>64.221646466185277</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>71.44830290875565</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>94.361647091682997</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>96.630583722042402</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>104.9674941780423</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>103.95971021475854</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>97.413508750073191</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>91.655238434331125</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>99.526735942529442</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>98.7268633718449</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>100.4980072265448</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>91.377749221214117</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>104.65654463906962</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>107.06189812009276</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>101.22481669333207</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>111.13981040558446</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>106.42907175954464</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>106.98950798393138</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>93.748370430039429</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>81.408893301268819</v>
       </c>
     </row>
@@ -29567,99 +29567,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>91.378790986463429</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>78.098571825877201</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>71.49588215457463</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>80.867300360149116</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>70.78621677635887</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>77.834914341924787</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>102.9773306525442</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>113.23479618113731</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>113.57277871730744</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>116.60954432650604</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>129.28587469527446</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>114.88843901644151</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>108.35715495682838</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>110.28028703059974</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>121.77324575773818</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>119.37958317632916</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>109.62108836112083</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>130.46175314999007</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>129.74581458850361</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>122.91047893005015</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>126.2646233436371</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>116.53477428178593</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>109.91363126880067</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>92.022420062647896</v>
       </c>
     </row>
@@ -29668,99 +29668,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S2'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>104.51313420535995</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S2'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>89.36666250996646</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S2'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>81.497282626439215</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S2'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>89.557010919450306</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S2'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>79.070867745260358</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S2'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>90.729962812484899</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S2'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>118.85535654250144</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S2'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>139.91628603728319</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S2'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>153.10637340247618</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S2'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>143.39588977958238</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S2'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>147.38782525886776</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S2'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>165.99081512412695</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S2'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>138.66639893016929</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S2'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>147.79562085555568</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S2'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>141.05920457953303</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S2'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>114.92057535782834</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S2'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>115.72232675737334</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S2'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>145.32952018621469</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S2'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>122.81070280112429</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S2'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>144.83566054141846</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S2'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>138.09760839225243</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S2'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>127.4532708359494</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S2'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>115.1833385557549</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S2'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>94.451184676955805</v>
       </c>
     </row>
@@ -30613,99 +30613,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>84.118102234612664</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>73.247629509762092</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>64.411123675583283</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>59.816562593931273</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>67.319821238609052</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>68.103191987292305</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>83.866847013719962</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>89.4105771868429</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>103.05706410625521</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>102.97199955195993</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>108.37773427311264</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>109.4095625832685</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>102.46899967971909</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>102.56898120196915</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>94.918282567460594</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>101.42202250368118</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>93.307983898806526</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>115.6273503282768</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>111.05000323516623</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>104.55078418986542</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>107.49458655126142</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>100.8886579132421</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>101.16581375365583</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y2*Main!$B$5)+(VLOOKUP($A2,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>87.965222416798056</v>
       </c>
     </row>
@@ -30714,99 +30714,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>90.602188565658764</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>84.61794307376654</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>72.182249333091178</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>69.963128380123038</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>81.132186511924331</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>83.142059816435278</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>105.69135261520611</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>99.078424523954283</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>130.17079319823176</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>131.01382052236059</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>115.2703216488035</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>126.62826491659827</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>120.08733339699168</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>114.89573939422225</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>119.59703585989125</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>104.58255841438012</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>103.01665333096243</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>123.14061291030228</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>126.09851397744964</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>122.91047893005015</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>109.88293001311692</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>105.56759367209034</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>111.83247977044317</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y3*Main!$B$5)+(VLOOKUP($A3,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>103.33815740257198</v>
       </c>
     </row>
@@ -30815,99 +30815,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
+        <f>('[1]Pc, Winter, S3'!B4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!B$2)</f>
         <v>101.92156853779372</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
+        <f>('[1]Pc, Winter, S3'!C4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!C$2)</f>
         <v>97.394050030321338</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
+        <f>('[1]Pc, Winter, S3'!D4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!D$2)</f>
         <v>80.044401526726688</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
+        <f>('[1]Pc, Winter, S3'!E4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!E$2)</f>
         <v>94.24498198065811</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
+        <f>('[1]Pc, Winter, S3'!F4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!F$2)</f>
         <v>83.742489030265205</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
+        <f>('[1]Pc, Winter, S3'!G4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!G$2)</f>
         <v>90.729962812484899</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
+        <f>('[1]Pc, Winter, S3'!H4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!H$2)</f>
         <v>138.18298072722581</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
+        <f>('[1]Pc, Winter, S3'!I4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!I$2)</f>
         <v>142.60706890719138</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
+        <f>('[1]Pc, Winter, S3'!J4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!J$2)</f>
         <v>138.35616660849874</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
+        <f>('[1]Pc, Winter, S3'!K4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!K$2)</f>
         <v>149.29908650166553</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
+        <f>('[1]Pc, Winter, S3'!L4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!L$2)</f>
         <v>143.20567210037478</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
+        <f>('[1]Pc, Winter, S3'!M4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!M$2)</f>
         <v>138.5365392252977</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
+        <f>('[1]Pc, Winter, S3'!N4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!N$2)</f>
         <v>142.98168529830588</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
+        <f>('[1]Pc, Winter, S3'!O4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!O$2)</f>
         <v>137.02314635947454</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
+        <f>('[1]Pc, Winter, S3'!P4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!P$2)</f>
         <v>138.44783416671046</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
+        <f>('[1]Pc, Winter, S3'!Q4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Q$2)</f>
         <v>135.66132600246027</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
+        <f>('[1]Pc, Winter, S3'!R4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!R$2)</f>
         <v>136.47631334073191</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
+        <f>('[1]Pc, Winter, S3'!S4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!S$2)</f>
         <v>144.03707033353615</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
+        <f>('[1]Pc, Winter, S3'!T4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!T$2)</f>
         <v>137.02765118058844</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
+        <f>('[1]Pc, Winter, S3'!U4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!U$2)</f>
         <v>119.90930469519621</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
+        <f>('[1]Pc, Winter, S3'!V4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!V$2)</f>
         <v>120.22675956893346</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
+        <f>('[1]Pc, Winter, S3'!W4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!W$2)</f>
         <v>120.53240578167573</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
+        <f>('[1]Pc, Winter, S3'!X4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!X$2)</f>
         <v>111.28102679827768</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
+        <f>('[1]Pc, Winter, S3'!Y4*Main!$B$5)+(VLOOKUP($A4,'FL Ratio'!$A$2:$B$4,2,FALSE)*'FL Characterization'!Y$2)</f>
         <v>111.44401894231258</v>
       </c>
     </row>
@@ -31760,99 +31760,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B2*Main!$B$5)</f>
         <v>13.896055819222861</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C2*Main!$B$5)</f>
         <v>10.935581909367153</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D2*Main!$B$5)</f>
         <v>9.2687304467142635</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E2*Main!$B$5)</f>
         <v>9.9770755862081852</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F2*Main!$B$5)</f>
         <v>10.514857970754292</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G2*Main!$B$5)</f>
         <v>12.159669410162838</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H2*Main!$B$5)</f>
         <v>18.071476152102434</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I2*Main!$B$5)</f>
         <v>24.486189758086432</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J2*Main!$B$5)</f>
         <v>30.251039507491875</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K2*Main!$B$5)</f>
         <v>29.302187978124717</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L2*Main!$B$5)</f>
         <v>32.659947130871366</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M2*Main!$B$5)</f>
         <v>29.630569529139823</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N2*Main!$B$5)</f>
         <v>32.2109307402471</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O2*Main!$B$5)</f>
         <v>29.453113916853916</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P2*Main!$B$5)</f>
         <v>24.92659662905049</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q2*Main!$B$5)</f>
         <v>24.723494327807138</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R2*Main!$B$5)</f>
         <v>26.857601440118856</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S2*Main!$B$5)</f>
         <v>36.971758210423403</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T2*Main!$B$5)</f>
         <v>39.842291297360056</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U2*Main!$B$5)</f>
         <v>38.626491961947046</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V2*Main!$B$5)</f>
         <v>29.848745417076408</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W2*Main!$B$5)</f>
         <v>30.045986976961945</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X2*Main!$B$5)</f>
         <v>21.889037680432903</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y2*Main!$B$5)</f>
         <v>18.070845265695219</v>
       </c>
     </row>
@@ -31861,99 +31861,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B3*Main!$B$5)</f>
         <v>-32.307595496975495</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C3*Main!$B$5)</f>
         <v>-40.130193958906915</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D3*Main!$B$5)</f>
         <v>-37.406908218037643</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E3*Main!$B$5)</f>
         <v>-39.197628599722798</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F3*Main!$B$5)</f>
         <v>-40.571318828269902</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G3*Main!$B$5)</f>
         <v>-39.157467602038601</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H3*Main!$B$5)</f>
         <v>-27.74446731171362</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I3*Main!$B$5)</f>
         <v>-12.46896635475966</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J3*Main!$B$5)</f>
         <v>-3.7063570009051134</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K3*Main!$B$5)</f>
         <v>-0.57442937836774099</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L3*Main!$B$5)</f>
         <v>-4.4339696502773105</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M3*Main!$B$5)</f>
         <v>-3.2597683833352784</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N3*Main!$B$5)</f>
         <v>-4.9533508027457973</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O3*Main!$B$5)</f>
         <v>-5.1452044133665984</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P3*Main!$B$5)</f>
         <v>-12.757083190684293</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q3*Main!$B$5)</f>
         <v>-18.732447661725459</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R3*Main!$B$5)</f>
         <v>-14.897071728898862</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S3*Main!$B$5)</f>
         <v>-6.0147014456377672</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T3*Main!$B$5)</f>
         <v>-7.238002544876565</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U3*Main!$B$5)</f>
         <v>-9.9983682592924463</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V3*Main!$B$5)</f>
         <v>-14.763324818643525</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W3*Main!$B$5)</f>
         <v>-22.221800292227456</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X3*Main!$B$5)</f>
         <v>-27.078377813014392</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y3*Main!$B$5)</f>
         <v>-31.402624305968502</v>
       </c>
     </row>
@@ -31962,99 +31962,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!B4*Main!$B$5)</f>
         <v>47.774691599252805</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!C4*Main!$B$5)</f>
         <v>61.009501997398353</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!D4*Main!$B$5)</f>
         <v>59.789311957450387</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!E4*Main!$B$5)</f>
         <v>56.128741837606484</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!F4*Main!$B$5)</f>
         <v>63.449882077294284</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!G4*Main!$B$5)</f>
         <v>45.478494877545238</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!H4*Main!$B$5)</f>
         <v>21.524784762885535</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!I4*Main!$B$5)</f>
         <v>2.5978996290300338</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!J4*Main!$B$5)</f>
         <v>-18.071976475533294</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!K4*Main!$B$5)</f>
         <v>-15.707418805837348</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!L4*Main!$B$5)</f>
         <v>-1.5418305459888497</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!M4*Main!$B$5)</f>
         <v>-18.670041334629222</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!N4*Main!$B$5)</f>
         <v>-18.846173800050249</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!O4*Main!$B$5)</f>
         <v>-14.179224725199495</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!P4*Main!$B$5)</f>
         <v>-1.6109530816968123</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Q4*Main!$B$5)</f>
         <v>10.344774463107521</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!R4*Main!$B$5)</f>
         <v>13.510628901756556</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!S4*Main!$B$5)</f>
         <v>15.50166895043647</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!T4*Main!$B$5)</f>
         <v>14.221714633427954</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!U4*Main!$B$5)</f>
         <v>15.50166895043647</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!V4*Main!$B$5)</f>
         <v>13.083977462753719</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!W4*Main!$B$5)</f>
         <v>31.436266320631894</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!X4*Main!$B$5)</f>
         <v>48.053169218937079</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S1'!Y4*Main!$B$5)</f>
         <v>45.786510293515519</v>
       </c>
     </row>

--- a/data/IEEE_9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5E0C5-84BC-4009-A216-14B7F068C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC814D-B625-4592-8677-2492900C41B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="5190" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>195</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>4.7042150498308486E-4</v>
+        <v>7.0563225747462732E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8738,55 +8738,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.28605467678522439</v>
+        <v>0.42908201517783662</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>5.667071866142452</v>
+        <v>8.500607799213677</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>14.78702797842187</v>
+        <v>22.180541967632806</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>18.453483587821154</v>
+        <v>27.680225381731731</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>20.496341775624025</v>
+        <v>30.744512663436034</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>20.876442351650361</v>
+        <v>31.314663527475542</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>20.49309682728353</v>
+        <v>30.739645240925295</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>17.498201517783667</v>
+        <v>26.247302276675502</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>11.563296607844929</v>
+        <v>17.344944911767392</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.825049145103776</v>
+        <v>4.237573717655664</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>2.2081009417573374E-2</v>
+        <v>3.3121514126360066E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.9008868976867514E-3</v>
+        <v>2.8513303465301271E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.4544664898966809E-3</v>
+        <v>2.1816997348450217E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>4.7042150498308486E-4</v>
+        <v>7.0563225747462732E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -8839,55 +8839,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>0.28605467678522439</v>
+        <v>0.42908201517783662</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>5.667071866142452</v>
+        <v>8.500607799213677</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>14.78702797842187</v>
+        <v>22.180541967632806</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>18.453483587821154</v>
+        <v>27.680225381731731</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>20.496341775624025</v>
+        <v>30.744512663436034</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>20.876442351650361</v>
+        <v>31.314663527475542</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>20.49309682728353</v>
+        <v>30.739645240925295</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>17.498201517783667</v>
+        <v>26.247302276675502</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>11.563296607844929</v>
+        <v>17.344944911767392</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>2.825049145103776</v>
+        <v>4.237573717655664</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>2.2081009417573374E-2</v>
+        <v>3.3121514126360066E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>1.9008868976867514E-3</v>
+        <v>2.8513303465301271E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>1.4544664898966809E-3</v>
+        <v>2.1816997348450217E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>30.61834909884697</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>28.295813276614801</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>29.957917552893765</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>29.82746389790664</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>24.557281988133884</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>24.908308518974593</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>24.961860517183474</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>22.416306951751928</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>20.24445371095937</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>14.633847531624312</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>13.497501399305943</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>9.0554125153923657</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>7.5261891301914252</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>7.206128960035822</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>9.9972388895108022</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>13.523942404567331</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>15.120505429307064</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>20.766591570580996</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>18.888857046904732</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>17.956845404679278</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>23.693603212806451</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>28.338398634277397</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>26.792243367289824</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>38.083134445315125</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>30.61834909884697</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>28.295813276614801</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>29.957917552893765</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>29.82746389790664</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>24.557281988133884</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>24.908308518974593</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>24.961860517183474</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>22.416306951751928</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>20.24445371095937</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>14.633847531624312</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>13.497501399305943</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>9.0554125153923657</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>7.5261891301914252</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>7.206128960035822</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>9.9972388895108022</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>13.523942404567331</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>15.120505429307064</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>20.766591570580996</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>18.888857046904732</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>17.956845404679278</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>23.693603212806451</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>28.338398634277397</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>26.792243367289824</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>38.083134445315125</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>22.963761824135226</v>
+        <v>30.61834909884697</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>21.221859957461099</v>
+        <v>28.295813276614801</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>22.468438164670324</v>
+        <v>29.957917552893765</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>22.37059792342998</v>
+        <v>29.82746389790664</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>18.417961491100414</v>
+        <v>24.557281988133884</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>18.681231389230945</v>
+        <v>24.908308518974593</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>18.721395387887608</v>
+        <v>24.961860517183474</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>16.812230213813947</v>
+        <v>22.416306951751928</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>15.183340283219525</v>
+        <v>20.24445371095937</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>10.975385648718234</v>
+        <v>14.633847531624312</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>10.123126049479458</v>
+        <v>13.497501399305943</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>6.7915593865442743</v>
+        <v>9.0554125153923657</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>5.6446418476435687</v>
+        <v>7.5261891301914252</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>5.4045967200268663</v>
+        <v>7.206128960035822</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>7.4979291671331021</v>
+        <v>9.9972388895108022</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>10.142956803425498</v>
+        <v>13.523942404567331</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>11.340379071980298</v>
+        <v>15.120505429307064</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>15.574943677935746</v>
+        <v>20.766591570580996</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>14.166642785178549</v>
+        <v>18.888857046904732</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>13.467634053509459</v>
+        <v>17.956845404679278</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>17.770202409604838</v>
+        <v>23.693603212806451</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>21.253798975708047</v>
+        <v>28.338398634277397</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>20.094182525467367</v>
+        <v>26.792243367289824</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>28.562350833986343</v>
+        <v>38.083134445315125</v>
       </c>
     </row>
   </sheetData>
@@ -9543,7 +9543,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>8.1762295081967207E-4</v>
+        <v>1.2264344262295081E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9567,51 +9567,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.22920122950819669</v>
+        <v>0.34380184426229504</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>4.5112131147540975</v>
+        <v>6.7668196721311462</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>10.731516393442623</v>
+        <v>16.097274590163934</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>14.441424590163935</v>
+        <v>21.6621368852459</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>17.711881967213113</v>
+        <v>26.567822950819671</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>21.034254098360655</v>
+        <v>31.55138114754098</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>17.553547131147539</v>
+        <v>26.330320696721309</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>12.898346311475409</v>
+        <v>19.347519467213115</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>6.1874950819672128</v>
+        <v>9.2812426229508187</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.2926618852459013</v>
+        <v>1.9389928278688522</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>8.2622950819672119E-3</v>
+        <v>1.2393442622950817E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.6147540983606555E-3</v>
+        <v>5.4221311475409831E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>8.1762295081967207E-4</v>
+        <v>1.2264344262295081E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -9668,51 +9668,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.22920122950819669</v>
+        <v>0.34380184426229504</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>4.5112131147540975</v>
+        <v>6.7668196721311462</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>10.731516393442623</v>
+        <v>16.097274590163934</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>14.441424590163935</v>
+        <v>21.6621368852459</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>17.711881967213113</v>
+        <v>26.567822950819671</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>21.034254098360655</v>
+        <v>31.55138114754098</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>17.553547131147539</v>
+        <v>26.330320696721309</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>12.898346311475409</v>
+        <v>19.347519467213115</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>6.1874950819672128</v>
+        <v>9.2812426229508187</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.2926618852459013</v>
+        <v>1.9389928278688522</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>8.2622950819672119E-3</v>
+        <v>1.2393442622950817E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>3.6147540983606555E-3</v>
+        <v>5.4221311475409831E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>41.555650270573828</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>36.541969956095571</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>30.075078491933823</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>26.036537165611595</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>24.273705202164592</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>19.438015111292628</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>18.924915254237288</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>17.157819072901777</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>17.684448642025728</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>18.703326015928123</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>18.720605345109249</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>21.9431720951603</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>21.952724372064527</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>22.257335868899325</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>25.063188559322036</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>20.689910149070862</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>21.432848938125378</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>22.694778691035328</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>19.797782698590972</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>20.506117265672863</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>19.216206095568715</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>17.438276495813763</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>17.873017663875842</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>19.544837655707575</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>41.555650270573828</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>36.541969956095571</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>30.075078491933823</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>26.036537165611595</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>24.273705202164592</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>19.438015111292628</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>18.924915254237288</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>17.157819072901777</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>17.684448642025728</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>18.703326015928123</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>18.720605345109249</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>21.9431720951603</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>21.952724372064527</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>22.257335868899325</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>25.063188559322036</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>20.689910149070862</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>21.432848938125378</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>22.694778691035328</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>19.797782698590972</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>20.506117265672863</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>19.216206095568715</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>17.438276495813763</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>17.873017663875842</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>19.544837655707575</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>31.166737702930369</v>
+        <v>41.555650270573828</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>27.406477467071674</v>
+        <v>36.541969956095571</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>22.556308868950367</v>
+        <v>30.075078491933823</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>19.527402874208697</v>
+        <v>26.036537165611595</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>24.273705202164592</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>14.578511333469471</v>
+        <v>19.438015111292628</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>14.193686440677965</v>
+        <v>18.924915254237288</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>12.868364304676332</v>
+        <v>17.157819072901777</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>13.263336481519296</v>
+        <v>17.684448642025728</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>14.027494511946092</v>
+        <v>18.703326015928123</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>14.040454008831937</v>
+        <v>18.720605345109249</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>16.457379071370227</v>
+        <v>21.9431720951603</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>16.464543279048396</v>
+        <v>21.952724372064527</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>16.693001901674496</v>
+        <v>22.257335868899325</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>18.797391419491529</v>
+        <v>25.063188559322036</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>15.517432611803146</v>
+        <v>20.689910149070862</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>16.074636703594035</v>
+        <v>21.432848938125378</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>17.021084018276497</v>
+        <v>22.694778691035328</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>14.848337023943229</v>
+        <v>19.797782698590972</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>15.379587949254647</v>
+        <v>20.506117265672863</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>14.412154571676536</v>
+        <v>19.216206095568715</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>13.078707371860322</v>
+        <v>17.438276495813763</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>13.404763247906882</v>
+        <v>17.873017663875842</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>14.658628241780683</v>
+        <v>19.544837655707575</v>
       </c>
     </row>
   </sheetData>
@@ -10396,47 +10396,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.24781700835231582</v>
+        <v>0.37172551252847374</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>5.4113468109339404</v>
+        <v>8.1170202164009115</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>12.598638003037204</v>
+        <v>18.897957004555806</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>18.16850797266515</v>
+        <v>27.252761958997723</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>18.703440584662104</v>
+        <v>28.05516087699316</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>26.63881691343963</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>13.904261579346999</v>
+        <v>20.856392369020497</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>10.710637813211843</v>
+        <v>16.065956719817766</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>4.5446848899012906</v>
+        <v>6.8170273348519359</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.80234908883826872</v>
+        <v>1.2035236332574031</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.302201974183751E-3</v>
+        <v>1.9533029612756264E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10497,47 +10497,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.24781700835231582</v>
+        <v>0.37172551252847374</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>5.4113468109339404</v>
+        <v>8.1170202164009115</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>12.598638003037204</v>
+        <v>18.897957004555806</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>18.16850797266515</v>
+        <v>27.252761958997723</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>18.703440584662104</v>
+        <v>28.05516087699316</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>17.75921127562642</v>
+        <v>26.63881691343963</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>13.904261579346999</v>
+        <v>20.856392369020497</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>10.710637813211843</v>
+        <v>16.065956719817766</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>4.5446848899012906</v>
+        <v>6.8170273348519359</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>0.80234908883826872</v>
+        <v>1.2035236332574031</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.302201974183751E-3</v>
+        <v>1.9533029612756264E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>37.916920688500092</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>35.240588136772402</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>38.194648921641885</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>42.588399340359189</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>36.428650055399515</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>30.904733953464397</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>22.244340230358933</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>19.801437810817077</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>20.202661238372539</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>19.748771419000743</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>19.977878069519956</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>21.013257234146717</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>19.221398644644282</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>18.52269099951042</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>25.379757272797544</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>33.063352572856807</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>33.756705918730191</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>34.366441289391631</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>35.31411167512691</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>37.253950758844596</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>36.743100827127726</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>35.957915431987423</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>34.430273519029093</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>31.755658996624497</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>37.916920688500092</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>35.240588136772402</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>38.194648921641885</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>42.588399340359189</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>36.428650055399515</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>30.904733953464397</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>22.244340230358933</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>19.801437810817077</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>20.202661238372539</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>19.748771419000743</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>19.977878069519956</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>21.013257234146717</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>19.221398644644282</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>18.52269099951042</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>25.379757272797544</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>33.063352572856807</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>33.756705918730191</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>34.366441289391631</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>35.31411167512691</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>37.253950758844596</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>36.743100827127726</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>35.957915431987423</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>34.430273519029093</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>31.755658996624497</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>28.437690516375071</v>
+        <v>37.916920688500092</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>26.430441102579298</v>
+        <v>35.240588136772402</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>28.645986691231414</v>
+        <v>38.194648921641885</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>31.941299505269392</v>
+        <v>42.588399340359189</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>36.428650055399515</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>23.178550465098297</v>
+        <v>30.904733953464397</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>16.683255172769201</v>
+        <v>22.244340230358933</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>14.851078358112808</v>
+        <v>19.801437810817077</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>15.151995928779405</v>
+        <v>20.202661238372539</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>14.811578564250558</v>
+        <v>19.748771419000743</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>14.983408552139966</v>
+        <v>19.977878069519956</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>15.759942925610037</v>
+        <v>21.013257234146717</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>14.416048983483213</v>
+        <v>19.221398644644282</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>13.892018249632814</v>
+        <v>18.52269099951042</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>19.034817954598157</v>
+        <v>25.379757272797544</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>24.797514429642604</v>
+        <v>33.063352572856807</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>25.317529439047643</v>
+        <v>33.756705918730191</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>25.774830967043727</v>
+        <v>34.366441289391631</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>26.485583756345179</v>
+        <v>35.31411167512691</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>37.253950758844596</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>27.557325620345793</v>
+        <v>36.743100827127726</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>26.968436573990569</v>
+        <v>35.957915431987423</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>25.822705139271818</v>
+        <v>34.430273519029093</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>23.816744247468371</v>
+        <v>31.755658996624497</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13032,7 +13032,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13043,7 +13043,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -22690,7 +22690,7 @@
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>5.9273109627868705E-4</v>
+        <v>8.8909664441803047E-4</v>
       </c>
       <c r="E5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22710,55 +22710,55 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.34612615891012155</v>
+        <v>0.51918923836518227</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>7.1971812700009128</v>
+        <v>10.79577190500137</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>19.07526609216421</v>
+        <v>28.612899138246316</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>23.989528664167501</v>
+        <v>35.984292996251256</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>24.800573548505067</v>
+        <v>37.200860322757599</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>27.139375057145468</v>
+        <v>40.709062585718208</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>26.436094907195752</v>
+        <v>39.654142360793628</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>22.222715927585256</v>
+        <v>33.334073891377884</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>14.222854827649263</v>
+        <v>21.334282241473893</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>3.5595619228307571</v>
+        <v>5.3393428842461361</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.7822071866142453E-2</v>
+        <v>4.173310779921368E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>2.357099753131572E-3</v>
+        <v>3.5356496296973577E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.759904452774984E-3</v>
+        <v>2.6398566791624761E-3</v>
       </c>
       <c r="V5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22791,7 +22791,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>5.9273109627868705E-4</v>
+        <v>8.8909664441803047E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -22811,55 +22811,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>0.34612615891012155</v>
+        <v>0.51918923836518227</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>7.1971812700009128</v>
+        <v>10.79577190500137</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>19.07526609216421</v>
+        <v>28.612899138246316</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>23.989528664167501</v>
+        <v>35.984292996251256</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>24.800573548505067</v>
+        <v>37.200860322757599</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>27.139375057145468</v>
+        <v>40.709062585718208</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>26.436094907195752</v>
+        <v>39.654142360793628</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>22.222715927585256</v>
+        <v>33.334073891377884</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>14.222854827649263</v>
+        <v>21.334282241473893</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>3.5595619228307571</v>
+        <v>5.3393428842461361</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>2.7822071866142453E-2</v>
+        <v>4.173310779921368E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>2.357099753131572E-3</v>
+        <v>3.5356496296973577E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>1.759904452774984E-3</v>
+        <v>2.6398566791624761E-3</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>23.576128806112166</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>21.221859957461103</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>21.869279813612451</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>21.475774006492781</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>18.41796149110041</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>17.435815963282217</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>19.220632598231276</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>17.484719422366503</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>14.373562134781153</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>10.390031747453261</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>10.663026105451696</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>6.6104511362364269</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>5.4188561737378258</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>5.7649031680286562</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>7.6978739449233178</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>9.7372385312884777</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>11.49158412627337</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>15.782609593641556</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>14.355531355647598</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>12.749360237322287</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>18.954882570245161</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>20.403647016679727</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>19.82626009179447</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>28.943182178439496</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>23.576128806112166</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>21.221859957461103</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>21.869279813612451</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>21.475774006492781</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>18.41796149110041</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>17.435815963282217</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>19.220632598231276</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>17.484719422366503</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>14.373562134781153</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>10.390031747453261</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>10.663026105451696</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>6.6104511362364269</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>5.4188561737378258</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>5.7649031680286562</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>7.6978739449233178</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>9.7372385312884777</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>11.49158412627337</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>15.782609593641556</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>14.355531355647598</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>12.749360237322287</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>18.954882570245161</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>20.403647016679727</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>19.82626009179447</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>28.943182178439496</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>17.682096604584125</v>
+        <v>23.576128806112166</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>15.916394968095826</v>
+        <v>21.221859957461103</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>16.401959860209338</v>
+        <v>21.869279813612451</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>16.106830504869585</v>
+        <v>21.475774006492781</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>13.813471118325308</v>
+        <v>18.41796149110041</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>13.076861972461662</v>
+        <v>17.435815963282217</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>14.415474448673457</v>
+        <v>19.220632598231276</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>13.113539566774877</v>
+        <v>17.484719422366503</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>10.780171601085865</v>
+        <v>14.373562134781153</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>7.7925238105899455</v>
+        <v>10.390031747453261</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>7.9972695790887709</v>
+        <v>10.663026105451696</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>4.9578383521773199</v>
+        <v>6.6104511362364269</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>4.0641421303033693</v>
+        <v>5.4188561737378258</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>4.3236773760214922</v>
+        <v>5.7649031680286562</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>5.7734054586924888</v>
+        <v>7.6978739449233178</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>7.3029288984663587</v>
+        <v>9.7372385312884777</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>8.6186880947050266</v>
+        <v>11.49158412627337</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>11.836957195231166</v>
+        <v>15.782609593641556</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>10.766648516735698</v>
+        <v>14.355531355647598</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>9.562020177991716</v>
+        <v>12.749360237322287</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>14.216161927683871</v>
+        <v>18.954882570245161</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>15.302735262509795</v>
+        <v>20.403647016679727</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>14.869695068845852</v>
+        <v>19.82626009179447</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>21.707386633829621</v>
+        <v>28.943182178439496</v>
       </c>
     </row>
   </sheetData>
@@ -23610,7 +23610,7 @@
       </c>
       <c r="C5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.0383811475409837E-3</v>
+        <v>1.5575717213114754E-3</v>
       </c>
       <c r="D5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23634,51 +23634,51 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.29796159836065572</v>
+        <v>0.44694239754098353</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>5.8194649180327866</v>
+        <v>8.7291973770491804</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>13.843656147540985</v>
+        <v>20.765484221311478</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>18.340609229508196</v>
+        <v>27.510913844262294</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>23.025446557377048</v>
+        <v>34.53816983606557</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>27.344530327868849</v>
+        <v>41.016795491803272</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>22.819611270491801</v>
+        <v>34.2294169057377</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>15.7359825</v>
+        <v>23.603973749999998</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.8581187540983608</v>
+        <v>11.78717813114754</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.6546072131147538</v>
+        <v>2.4819108196721307</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>9.9973770491803247E-3</v>
+        <v>1.4996065573770487E-2</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>4.4099999999999999E-3</v>
+        <v>6.6149999999999994E-3</v>
       </c>
       <c r="U5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.0383811475409837E-3</v>
+        <v>1.5575717213114754E-3</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -23735,51 +23735,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>0.29796159836065572</v>
+        <v>0.44694239754098353</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>5.8194649180327866</v>
+        <v>8.7291973770491804</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>13.843656147540985</v>
+        <v>20.765484221311478</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>18.340609229508196</v>
+        <v>27.510913844262294</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>23.025446557377048</v>
+        <v>34.53816983606557</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>27.344530327868849</v>
+        <v>41.016795491803272</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>22.819611270491801</v>
+        <v>34.2294169057377</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>15.7359825</v>
+        <v>23.603973749999998</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>7.8581187540983608</v>
+        <v>11.78717813114754</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>1.6546072131147538</v>
+        <v>2.4819108196721307</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>9.9973770491803247E-3</v>
+        <v>1.4996065573770487E-2</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>4.4099999999999999E-3</v>
+        <v>6.6149999999999994E-3</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>31.166737702930373</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>25.579378969266898</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>23.157810438789046</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>20.308498989177046</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>18.205278901623444</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>15.550412089034102</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>14.57218474576271</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>13.554677067592403</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>12.732803022258523</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>14.214527772105374</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>13.291629795027566</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>15.36022046661221</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>16.903597766489689</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>16.247855184296508</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>18.546759533898307</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>16.345029017765981</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>15.431651235450271</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>15.886345083724727</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>15.244292677915046</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>15.994771467224833</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>14.988640754543599</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>12.729941841944047</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>14.298414131100673</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>13.681386358995303</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>31.166737702930373</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>25.579378969266898</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>23.157810438789046</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>20.308498989177046</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>18.205278901623444</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>15.550412089034102</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>14.57218474576271</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>13.554677067592403</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>12.732803022258523</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>14.214527772105374</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>13.291629795027566</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>15.36022046661221</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>16.903597766489689</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>16.247855184296508</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>18.546759533898307</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>16.345029017765981</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>15.431651235450271</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>15.886345083724727</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>15.244292677915046</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>15.994771467224833</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>14.988640754543599</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>12.729941841944047</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>14.298414131100673</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>13.681386358995303</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>23.375053277197779</v>
+        <v>31.166737702930373</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>19.184534226950174</v>
+        <v>25.579378969266898</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>17.368357829091785</v>
+        <v>23.157810438789046</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>15.231374241882785</v>
+        <v>20.308498989177046</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>13.653959176217581</v>
+        <v>18.205278901623444</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>11.662809066775576</v>
+        <v>15.550412089034102</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>10.929138559322032</v>
+        <v>14.57218474576271</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>10.166007800694302</v>
+        <v>13.554677067592403</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>9.549602266693892</v>
+        <v>12.732803022258523</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>10.660895829079029</v>
+        <v>14.214527772105374</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>9.968722346270674</v>
+        <v>13.291629795027566</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>11.520165349959157</v>
+        <v>15.36022046661221</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>12.677698324867265</v>
+        <v>16.903597766489689</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>12.18589138822238</v>
+        <v>16.247855184296508</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>13.910069650423731</v>
+        <v>18.546759533898307</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>12.258771763324486</v>
+        <v>16.345029017765981</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>11.573738426587704</v>
+        <v>15.431651235450271</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>11.914758812793545</v>
+        <v>15.886345083724727</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>11.433219508436284</v>
+        <v>15.244292677915046</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>11.996078600418624</v>
+        <v>15.994771467224833</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>11.241480565907699</v>
+        <v>14.988640754543599</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>9.5474563814580353</v>
+        <v>12.729941841944047</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>10.723810598325505</v>
+        <v>14.298414131100673</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>10.261039769246477</v>
+        <v>13.681386358995303</v>
       </c>
     </row>
   </sheetData>
@@ -24463,47 +24463,47 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.30729309035687163</v>
+        <v>0.46093963553530742</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>6.6559565774487464</v>
+        <v>9.9839348661731204</v>
       </c>
       <c r="K5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>15.622311123766131</v>
+        <v>23.433466685649197</v>
       </c>
       <c r="L5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>23.074005125284739</v>
+        <v>34.611007687927113</v>
       </c>
       <c r="M5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>24.127438354214114</v>
+        <v>36.191157531321174</v>
       </c>
       <c r="N5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>21.311053530751703</v>
+        <v>31.966580296127553</v>
       </c>
       <c r="O5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>17.10224174259681</v>
+        <v>25.653362613895212</v>
       </c>
       <c r="P5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>13.709616400911161</v>
+        <v>20.564424601366742</v>
       </c>
       <c r="Q5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>5.8626435079726651</v>
+        <v>8.7939652619589967</v>
       </c>
       <c r="R5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.0350303246013666</v>
+        <v>1.5525454869020499</v>
       </c>
       <c r="S5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.6928625664388763E-3</v>
+        <v>2.5392938496583144E-3</v>
       </c>
       <c r="T5" s="6">
         <f>VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24564,47 +24564,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>0.30729309035687163</v>
+        <v>0.46093963553530742</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>6.6559565774487464</v>
+        <v>9.9839348661731204</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>15.622311123766131</v>
+        <v>23.433466685649197</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>23.074005125284739</v>
+        <v>34.611007687927113</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>24.127438354214114</v>
+        <v>36.191157531321174</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>21.311053530751703</v>
+        <v>31.966580296127553</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>17.10224174259681</v>
+        <v>25.653362613895212</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>13.709616400911161</v>
+        <v>20.564424601366742</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>5.8626435079726651</v>
+        <v>8.7939652619589967</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.0350303246013666</v>
+        <v>1.5525454869020499</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>1.6928625664388763E-3</v>
+        <v>2.5392938496583144E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>26.921013688835068</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>25.020817577108403</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>30.173772648097092</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>30.663647525058614</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>27.321487541549637</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>24.105692483702231</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>17.573028781983556</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>15.049092736220981</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>15.556049153546855</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>14.614090850060551</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>15.982302455615965</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>16.600473214975906</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>13.647193037697441</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>14.447698979618128</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>18.527222809142209</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>24.13624737818547</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>23.629694143111134</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>25.431166554149808</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>24.719878172588835</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>27.940463069133447</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>28.29218763688835</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>27.32801572831044</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>25.134099668891238</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>24.45185742740086</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>26.921013688835068</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>25.020817577108403</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>30.173772648097092</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>30.663647525058614</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>27.321487541549637</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>24.105692483702231</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>17.573028781983556</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>15.049092736220981</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>15.556049153546855</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>14.614090850060551</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>15.982302455615965</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>16.600473214975906</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>13.647193037697441</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>14.447698979618128</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>18.527222809142209</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>24.13624737818547</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>23.629694143111134</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>25.431166554149808</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>24.719878172588835</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>27.940463069133447</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>28.29218763688835</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>27.32801572831044</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>25.134099668891238</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>24.45185742740086</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>20.190760266626302</v>
+        <v>26.921013688835068</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>18.765613182831302</v>
+        <v>25.020817577108403</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>22.630329486072817</v>
+        <v>30.173772648097092</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>22.997735643793959</v>
+        <v>30.663647525058614</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>20.491115656162229</v>
+        <v>27.321487541549637</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>18.079269362776671</v>
+        <v>24.105692483702231</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>13.179771586487668</v>
+        <v>17.573028781983556</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>11.286819552165735</v>
+        <v>15.049092736220981</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>11.66703686516014</v>
+        <v>15.556049153546855</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>10.960568137545414</v>
+        <v>14.614090850060551</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>11.986726841711974</v>
+        <v>15.982302455615965</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>12.450354911231932</v>
+        <v>16.600473214975906</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>10.235394778273081</v>
+        <v>13.647193037697441</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>10.835774234713597</v>
+        <v>14.447698979618128</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>13.895417106856655</v>
+        <v>18.527222809142209</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>18.102185533639101</v>
+        <v>24.13624737818547</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>17.72227060733335</v>
+        <v>23.629694143111134</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>19.073374915612355</v>
+        <v>25.431166554149808</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>18.539908629441626</v>
+        <v>24.719878172588835</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>20.955347301850082</v>
+        <v>27.940463069133447</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>21.219140727666261</v>
+        <v>28.29218763688835</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>20.496011796232832</v>
+        <v>27.32801572831044</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>18.850574751668429</v>
+        <v>25.134099668891238</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>18.338893070550647</v>
+        <v>24.45185742740086</v>
       </c>
     </row>
   </sheetData>

--- a/data/IEEE_9/ieee9/ieee9_2040.xlsx
+++ b/data/IEEE_9/ieee9/ieee9_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CC814D-B625-4592-8677-2492900C41B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A85EA-2F43-4437-83EE-44A13CDBA29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5730" yWindow="4845" windowWidth="21600" windowHeight="12660" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,99 +8912,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>30.61834909884697</v>
+        <v>76.545872747117429</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>28.295813276614801</v>
+        <v>70.739533191537006</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>29.957917552893765</v>
+        <v>74.89479388223441</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>29.82746389790664</v>
+        <v>74.568659744766606</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>24.557281988133884</v>
+        <v>61.393204970334708</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>24.908308518974593</v>
+        <v>62.270771297436482</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>24.961860517183474</v>
+        <v>62.40465129295869</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>22.416306951751928</v>
+        <v>56.040767379379822</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>20.24445371095937</v>
+        <v>50.611134277398421</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>14.633847531624312</v>
+        <v>36.58461882906078</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>13.497501399305943</v>
+        <v>33.743753498264859</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>9.0554125153923657</v>
+        <v>22.638531288480912</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>7.5261891301914252</v>
+        <v>18.815472825478562</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>7.206128960035822</v>
+        <v>18.015322400089556</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>9.9972388895108022</v>
+        <v>24.993097223777006</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>13.523942404567331</v>
+        <v>33.809856011418326</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>15.120505429307064</v>
+        <v>37.801263573267661</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>20.766591570580996</v>
+        <v>51.916478926452491</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>18.888857046904732</v>
+        <v>47.222142617261831</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>17.956845404679278</v>
+        <v>44.892113511698199</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>23.693603212806451</v>
+        <v>59.234008032016128</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>28.338398634277397</v>
+        <v>70.845996585693499</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>26.792243367289824</v>
+        <v>66.980608418224563</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>38.083134445315125</v>
+        <v>95.207836113287811</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9013,99 +9013,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>30.61834909884697</v>
+        <v>76.545872747117429</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>28.295813276614801</v>
+        <v>70.739533191537006</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>29.957917552893765</v>
+        <v>74.89479388223441</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>29.82746389790664</v>
+        <v>74.568659744766606</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>24.557281988133884</v>
+        <v>61.393204970334708</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>24.908308518974593</v>
+        <v>62.270771297436482</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>24.961860517183474</v>
+        <v>62.40465129295869</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>22.416306951751928</v>
+        <v>56.040767379379822</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>20.24445371095937</v>
+        <v>50.611134277398421</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>14.633847531624312</v>
+        <v>36.58461882906078</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>13.497501399305943</v>
+        <v>33.743753498264859</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>9.0554125153923657</v>
+        <v>22.638531288480912</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>7.5261891301914252</v>
+        <v>18.815472825478562</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>7.206128960035822</v>
+        <v>18.015322400089556</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>9.9972388895108022</v>
+        <v>24.993097223777006</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>13.523942404567331</v>
+        <v>33.809856011418326</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>15.120505429307064</v>
+        <v>37.801263573267661</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>20.766591570580996</v>
+        <v>51.916478926452491</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>18.888857046904732</v>
+        <v>47.222142617261831</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>17.956845404679278</v>
+        <v>44.892113511698199</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>23.693603212806451</v>
+        <v>59.234008032016128</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>28.338398634277397</v>
+        <v>70.845996585693499</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>26.792243367289824</v>
+        <v>66.980608418224563</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>38.083134445315125</v>
+        <v>95.207836113287811</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9114,99 +9114,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$5</f>
-        <v>30.61834909884697</v>
+        <v>76.545872747117429</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$5</f>
-        <v>28.295813276614801</v>
+        <v>70.739533191537006</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$5</f>
-        <v>29.957917552893765</v>
+        <v>74.89479388223441</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$5</f>
-        <v>29.82746389790664</v>
+        <v>74.568659744766606</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$5</f>
-        <v>24.557281988133884</v>
+        <v>61.393204970334708</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$5</f>
-        <v>24.908308518974593</v>
+        <v>62.270771297436482</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$5</f>
-        <v>24.961860517183474</v>
+        <v>62.40465129295869</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$5</f>
-        <v>22.416306951751928</v>
+        <v>56.040767379379822</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$5</f>
-        <v>20.24445371095937</v>
+        <v>50.611134277398421</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$5</f>
-        <v>14.633847531624312</v>
+        <v>36.58461882906078</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$5</f>
-        <v>13.497501399305943</v>
+        <v>33.743753498264859</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$5</f>
-        <v>9.0554125153923657</v>
+        <v>22.638531288480912</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$5</f>
-        <v>7.5261891301914252</v>
+        <v>18.815472825478562</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$5</f>
-        <v>7.206128960035822</v>
+        <v>18.015322400089556</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$5</f>
-        <v>9.9972388895108022</v>
+        <v>24.993097223777006</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$5</f>
-        <v>13.523942404567331</v>
+        <v>33.809856011418326</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$5</f>
-        <v>15.120505429307064</v>
+        <v>37.801263573267661</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$5</f>
-        <v>20.766591570580996</v>
+        <v>51.916478926452491</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$5</f>
-        <v>18.888857046904732</v>
+        <v>47.222142617261831</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$5</f>
-        <v>17.956845404679278</v>
+        <v>44.892113511698199</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$5</f>
-        <v>23.693603212806451</v>
+        <v>59.234008032016128</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$5</f>
-        <v>28.338398634277397</v>
+        <v>70.845996585693499</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$5</f>
-        <v>26.792243367289824</v>
+        <v>66.980608418224563</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$5</f>
-        <v>38.083134445315125</v>
+        <v>95.207836113287811</v>
       </c>
     </row>
   </sheetData>
@@ -9741,99 +9741,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>41.555650270573828</v>
+        <v>103.88912567643457</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>36.541969956095571</v>
+        <v>91.354924890238919</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>30.075078491933823</v>
+        <v>75.187696229834557</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>26.036537165611595</v>
+        <v>65.091342914028985</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>24.273705202164592</v>
+        <v>60.684263005411481</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>19.438015111292628</v>
+        <v>48.595037778231571</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>18.924915254237288</v>
+        <v>47.312288135593214</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>17.157819072901777</v>
+        <v>42.894547682254441</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>17.684448642025728</v>
+        <v>44.211121605064321</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>18.703326015928123</v>
+        <v>46.758315039820303</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>18.720605345109249</v>
+        <v>46.801513362773122</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>21.9431720951603</v>
+        <v>54.857930237900753</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>21.952724372064527</v>
+        <v>54.881810930161322</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>22.257335868899325</v>
+        <v>55.643339672248317</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>25.063188559322036</v>
+        <v>62.657971398305094</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>20.689910149070862</v>
+        <v>51.724775372677158</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>21.432848938125378</v>
+        <v>53.582122345313444</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>22.694778691035328</v>
+        <v>56.736946727588318</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>19.797782698590972</v>
+        <v>49.494456746477425</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>20.506117265672863</v>
+        <v>51.265293164182154</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>19.216206095568715</v>
+        <v>48.040515238921792</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>17.438276495813763</v>
+        <v>43.595691239534403</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>17.873017663875842</v>
+        <v>44.682544159689606</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>19.544837655707575</v>
+        <v>48.86209413926894</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -9842,99 +9842,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>41.555650270573828</v>
+        <v>103.88912567643457</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>36.541969956095571</v>
+        <v>91.354924890238919</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>30.075078491933823</v>
+        <v>75.187696229834557</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>26.036537165611595</v>
+        <v>65.091342914028985</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>24.273705202164592</v>
+        <v>60.684263005411481</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>19.438015111292628</v>
+        <v>48.595037778231571</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>18.924915254237288</v>
+        <v>47.312288135593214</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>17.157819072901777</v>
+        <v>42.894547682254441</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>17.684448642025728</v>
+        <v>44.211121605064321</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>18.703326015928123</v>
+        <v>46.758315039820303</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>18.720605345109249</v>
+        <v>46.801513362773122</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>21.9431720951603</v>
+        <v>54.857930237900753</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>21.952724372064527</v>
+        <v>54.881810930161322</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>22.257335868899325</v>
+        <v>55.643339672248317</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>25.063188559322036</v>
+        <v>62.657971398305094</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>20.689910149070862</v>
+        <v>51.724775372677158</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>21.432848938125378</v>
+        <v>53.582122345313444</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>22.694778691035328</v>
+        <v>56.736946727588318</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>19.797782698590972</v>
+        <v>49.494456746477425</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>20.506117265672863</v>
+        <v>51.265293164182154</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>19.216206095568715</v>
+        <v>48.040515238921792</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>17.438276495813763</v>
+        <v>43.595691239534403</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>17.873017663875842</v>
+        <v>44.682544159689606</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>19.544837655707575</v>
+        <v>48.86209413926894</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -9943,99 +9943,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$6</f>
-        <v>41.555650270573828</v>
+        <v>103.88912567643457</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$6</f>
-        <v>36.541969956095571</v>
+        <v>91.354924890238919</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$6</f>
-        <v>30.075078491933823</v>
+        <v>75.187696229834557</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$6</f>
-        <v>26.036537165611595</v>
+        <v>65.091342914028985</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$6</f>
-        <v>24.273705202164592</v>
+        <v>60.684263005411481</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$6</f>
-        <v>19.438015111292628</v>
+        <v>48.595037778231571</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$6</f>
-        <v>18.924915254237288</v>
+        <v>47.312288135593214</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$6</f>
-        <v>17.157819072901777</v>
+        <v>42.894547682254441</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$6</f>
-        <v>17.684448642025728</v>
+        <v>44.211121605064321</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$6</f>
-        <v>18.703326015928123</v>
+        <v>46.758315039820303</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$6</f>
-        <v>18.720605345109249</v>
+        <v>46.801513362773122</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$6</f>
-        <v>21.9431720951603</v>
+        <v>54.857930237900753</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$6</f>
-        <v>21.952724372064527</v>
+        <v>54.881810930161322</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$6</f>
-        <v>22.257335868899325</v>
+        <v>55.643339672248317</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$6</f>
-        <v>25.063188559322036</v>
+        <v>62.657971398305094</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$6</f>
-        <v>20.689910149070862</v>
+        <v>51.724775372677158</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$6</f>
-        <v>21.432848938125378</v>
+        <v>53.582122345313444</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$6</f>
-        <v>22.694778691035328</v>
+        <v>56.736946727588318</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$6</f>
-        <v>19.797782698590972</v>
+        <v>49.494456746477425</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$6</f>
-        <v>20.506117265672863</v>
+        <v>51.265293164182154</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$6</f>
-        <v>19.216206095568715</v>
+        <v>48.040515238921792</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$6</f>
-        <v>17.438276495813763</v>
+        <v>43.595691239534403</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$6</f>
-        <v>17.873017663875842</v>
+        <v>44.682544159689606</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$6</f>
-        <v>19.544837655707575</v>
+        <v>48.86209413926894</v>
       </c>
     </row>
   </sheetData>
@@ -10570,99 +10570,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>37.916920688500092</v>
+        <v>94.792301721250226</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>35.240588136772402</v>
+        <v>88.101470341931005</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>38.194648921641885</v>
+        <v>95.486622304104714</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>42.588399340359189</v>
+        <v>106.47099835089797</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>36.428650055399515</v>
+        <v>91.071625138498788</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>30.904733953464397</v>
+        <v>77.261834883660995</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>22.244340230358933</v>
+        <v>55.610850575897338</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>19.801437810817077</v>
+        <v>49.503594527042694</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>20.202661238372539</v>
+        <v>50.506653095931348</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>19.748771419000743</v>
+        <v>49.371928547501859</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>19.977878069519956</v>
+        <v>49.944695173799886</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>21.013257234146717</v>
+        <v>52.533143085366795</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>19.221398644644282</v>
+        <v>48.053496611610704</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>18.52269099951042</v>
+        <v>46.306727498776048</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>25.379757272797544</v>
+        <v>63.449393181993862</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>33.063352572856807</v>
+        <v>82.658381432142008</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>33.756705918730191</v>
+        <v>84.39176479682547</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>34.366441289391631</v>
+        <v>85.916103223479084</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>35.31411167512691</v>
+        <v>88.285279187817267</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>37.253950758844596</v>
+        <v>93.134876897111482</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>36.743100827127726</v>
+        <v>91.857752067819305</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>35.957915431987423</v>
+        <v>89.894788579968562</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>34.430273519029093</v>
+        <v>86.075683797572722</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>31.755658996624497</v>
+        <v>79.389147491561246</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -10671,99 +10671,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>37.916920688500092</v>
+        <v>94.792301721250226</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>35.240588136772402</v>
+        <v>88.101470341931005</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>38.194648921641885</v>
+        <v>95.486622304104714</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>42.588399340359189</v>
+        <v>106.47099835089797</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>36.428650055399515</v>
+        <v>91.071625138498788</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>30.904733953464397</v>
+        <v>77.261834883660995</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>22.244340230358933</v>
+        <v>55.610850575897338</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>19.801437810817077</v>
+        <v>49.503594527042694</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>20.202661238372539</v>
+        <v>50.506653095931348</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>19.748771419000743</v>
+        <v>49.371928547501859</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>19.977878069519956</v>
+        <v>49.944695173799886</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>21.013257234146717</v>
+        <v>52.533143085366795</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>19.221398644644282</v>
+        <v>48.053496611610704</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>18.52269099951042</v>
+        <v>46.306727498776048</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>25.379757272797544</v>
+        <v>63.449393181993862</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>33.063352572856807</v>
+        <v>82.658381432142008</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>33.756705918730191</v>
+        <v>84.39176479682547</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>34.366441289391631</v>
+        <v>85.916103223479084</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>35.31411167512691</v>
+        <v>88.285279187817267</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>37.253950758844596</v>
+        <v>93.134876897111482</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>36.743100827127726</v>
+        <v>91.857752067819305</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>35.957915431987423</v>
+        <v>89.894788579968562</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>34.430273519029093</v>
+        <v>86.075683797572722</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>31.755658996624497</v>
+        <v>79.389147491561246</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -10772,99 +10772,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!B$7</f>
-        <v>37.916920688500092</v>
+        <v>94.792301721250226</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$7</f>
-        <v>35.240588136772402</v>
+        <v>88.101470341931005</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$7</f>
-        <v>38.194648921641885</v>
+        <v>95.486622304104714</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$7</f>
-        <v>42.588399340359189</v>
+        <v>106.47099835089797</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!F$7</f>
-        <v>36.428650055399515</v>
+        <v>91.071625138498788</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!G$7</f>
-        <v>30.904733953464397</v>
+        <v>77.261834883660995</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!H$7</f>
-        <v>22.244340230358933</v>
+        <v>55.610850575897338</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$7</f>
-        <v>19.801437810817077</v>
+        <v>49.503594527042694</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$7</f>
-        <v>20.202661238372539</v>
+        <v>50.506653095931348</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$7</f>
-        <v>19.748771419000743</v>
+        <v>49.371928547501859</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$7</f>
-        <v>19.977878069519956</v>
+        <v>49.944695173799886</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$7</f>
-        <v>21.013257234146717</v>
+        <v>52.533143085366795</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$7</f>
-        <v>19.221398644644282</v>
+        <v>48.053496611610704</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$7</f>
-        <v>18.52269099951042</v>
+        <v>46.306727498776048</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$7</f>
-        <v>25.379757272797544</v>
+        <v>63.449393181993862</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$7</f>
-        <v>33.063352572856807</v>
+        <v>82.658381432142008</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$7</f>
-        <v>33.756705918730191</v>
+        <v>84.39176479682547</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$7</f>
-        <v>34.366441289391631</v>
+        <v>85.916103223479084</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$7</f>
-        <v>35.31411167512691</v>
+        <v>88.285279187817267</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$7</f>
-        <v>37.253950758844596</v>
+        <v>93.134876897111482</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$7</f>
-        <v>36.743100827127726</v>
+        <v>91.857752067819305</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!W$7</f>
-        <v>35.957915431987423</v>
+        <v>89.894788579968562</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!X$7</f>
-        <v>34.430273519029093</v>
+        <v>86.075683797572722</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Y$7</f>
-        <v>31.755658996624497</v>
+        <v>79.389147491561246</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13065,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -22884,99 +22884,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>23.576128806112166</v>
+        <v>58.940322015280422</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>21.221859957461103</v>
+        <v>53.054649893652758</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>21.869279813612451</v>
+        <v>54.673199534031127</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>21.475774006492781</v>
+        <v>53.689435016231954</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>18.41796149110041</v>
+        <v>46.044903727751027</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>17.435815963282217</v>
+        <v>43.589539908205538</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>19.220632598231276</v>
+        <v>48.051581495578191</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>17.484719422366503</v>
+        <v>43.711798555916253</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>14.373562134781153</v>
+        <v>35.933905336952883</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>10.390031747453261</v>
+        <v>25.975079368633153</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>10.663026105451696</v>
+        <v>26.657565263629238</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>6.6104511362364269</v>
+        <v>16.526127840591066</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>5.4188561737378258</v>
+        <v>13.547140434344564</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>5.7649031680286562</v>
+        <v>14.412257920071642</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>7.6978739449233178</v>
+        <v>19.244684862308294</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>9.7372385312884777</v>
+        <v>24.343096328221193</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>11.49158412627337</v>
+        <v>28.728960315683423</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>15.782609593641556</v>
+        <v>39.456523984103889</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>14.355531355647598</v>
+        <v>35.888828389118991</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>12.749360237322287</v>
+        <v>31.873400593305718</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>18.954882570245161</v>
+        <v>47.387206425612902</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>20.403647016679727</v>
+        <v>51.009117541699318</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>19.82626009179447</v>
+        <v>49.565650229486174</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>28.943182178439496</v>
+        <v>72.357955446098742</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -22985,99 +22985,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>23.576128806112166</v>
+        <v>58.940322015280422</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>21.221859957461103</v>
+        <v>53.054649893652758</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>21.869279813612451</v>
+        <v>54.673199534031127</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>21.475774006492781</v>
+        <v>53.689435016231954</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>18.41796149110041</v>
+        <v>46.044903727751027</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>17.435815963282217</v>
+        <v>43.589539908205538</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>19.220632598231276</v>
+        <v>48.051581495578191</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>17.484719422366503</v>
+        <v>43.711798555916253</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>14.373562134781153</v>
+        <v>35.933905336952883</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>10.390031747453261</v>
+        <v>25.975079368633153</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>10.663026105451696</v>
+        <v>26.657565263629238</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>6.6104511362364269</v>
+        <v>16.526127840591066</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>5.4188561737378258</v>
+        <v>13.547140434344564</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>5.7649031680286562</v>
+        <v>14.412257920071642</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>7.6978739449233178</v>
+        <v>19.244684862308294</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>9.7372385312884777</v>
+        <v>24.343096328221193</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>11.49158412627337</v>
+        <v>28.728960315683423</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>15.782609593641556</v>
+        <v>39.456523984103889</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>14.355531355647598</v>
+        <v>35.888828389118991</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>12.749360237322287</v>
+        <v>31.873400593305718</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>18.954882570245161</v>
+        <v>47.387206425612902</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>20.403647016679727</v>
+        <v>51.009117541699318</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>19.82626009179447</v>
+        <v>49.565650229486174</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>28.943182178439496</v>
+        <v>72.357955446098742</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -23086,99 +23086,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$5</f>
-        <v>23.576128806112166</v>
+        <v>58.940322015280422</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$5</f>
-        <v>21.221859957461103</v>
+        <v>53.054649893652758</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$5</f>
-        <v>21.869279813612451</v>
+        <v>54.673199534031127</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$5</f>
-        <v>21.475774006492781</v>
+        <v>53.689435016231954</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$5</f>
-        <v>18.41796149110041</v>
+        <v>46.044903727751027</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$5</f>
-        <v>17.435815963282217</v>
+        <v>43.589539908205538</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$5</f>
-        <v>19.220632598231276</v>
+        <v>48.051581495578191</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$5</f>
-        <v>17.484719422366503</v>
+        <v>43.711798555916253</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$5</f>
-        <v>14.373562134781153</v>
+        <v>35.933905336952883</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$5</f>
-        <v>10.390031747453261</v>
+        <v>25.975079368633153</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$5</f>
-        <v>10.663026105451696</v>
+        <v>26.657565263629238</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$5</f>
-        <v>6.6104511362364269</v>
+        <v>16.526127840591066</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$5</f>
-        <v>5.4188561737378258</v>
+        <v>13.547140434344564</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$5</f>
-        <v>5.7649031680286562</v>
+        <v>14.412257920071642</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$5</f>
-        <v>7.6978739449233178</v>
+        <v>19.244684862308294</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$5</f>
-        <v>9.7372385312884777</v>
+        <v>24.343096328221193</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$5</f>
-        <v>11.49158412627337</v>
+        <v>28.728960315683423</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$5</f>
-        <v>15.782609593641556</v>
+        <v>39.456523984103889</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$5</f>
-        <v>14.355531355647598</v>
+        <v>35.888828389118991</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$5</f>
-        <v>12.749360237322287</v>
+        <v>31.873400593305718</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$5</f>
-        <v>18.954882570245161</v>
+        <v>47.387206425612902</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$5</f>
-        <v>20.403647016679727</v>
+        <v>51.009117541699318</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$5</f>
-        <v>19.82626009179447</v>
+        <v>49.565650229486174</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$5</f>
-        <v>28.943182178439496</v>
+        <v>72.357955446098742</v>
       </c>
     </row>
   </sheetData>
@@ -23808,99 +23808,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>31.166737702930373</v>
+        <v>77.916844257325934</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>25.579378969266898</v>
+        <v>63.948447423167245</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>23.157810438789046</v>
+        <v>57.894526096972612</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>20.308498989177046</v>
+        <v>50.771247472942619</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>45.51319725405861</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>15.550412089034102</v>
+        <v>38.876030222585257</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>14.57218474576271</v>
+        <v>36.430461864406773</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>13.554677067592403</v>
+        <v>33.886692668981006</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>12.732803022258523</v>
+        <v>31.832007555646307</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>14.214527772105374</v>
+        <v>35.536319430263433</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>13.291629795027566</v>
+        <v>33.229074487568916</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>15.36022046661221</v>
+        <v>38.400551166530526</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>16.903597766489689</v>
+        <v>42.258994416224219</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>16.247855184296508</v>
+        <v>40.619637960741265</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>18.546759533898307</v>
+        <v>46.366898834745768</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>16.345029017765981</v>
+        <v>40.862572544414952</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>15.431651235450271</v>
+        <v>38.57912808862568</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>15.886345083724727</v>
+        <v>39.715862709311821</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>15.244292677915046</v>
+        <v>38.110731694787617</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>15.994771467224833</v>
+        <v>39.986928668062085</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>14.988640754543599</v>
+        <v>37.471601886358997</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>12.729941841944047</v>
+        <v>31.824854604860118</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>14.298414131100673</v>
+        <v>35.746035327751684</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>13.681386358995303</v>
+        <v>34.203465897488257</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -23909,99 +23909,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>31.166737702930373</v>
+        <v>77.916844257325934</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>25.579378969266898</v>
+        <v>63.948447423167245</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>23.157810438789046</v>
+        <v>57.894526096972612</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>20.308498989177046</v>
+        <v>50.771247472942619</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>45.51319725405861</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>15.550412089034102</v>
+        <v>38.876030222585257</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>14.57218474576271</v>
+        <v>36.430461864406773</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>13.554677067592403</v>
+        <v>33.886692668981006</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>12.732803022258523</v>
+        <v>31.832007555646307</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>14.214527772105374</v>
+        <v>35.536319430263433</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>13.291629795027566</v>
+        <v>33.229074487568916</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>15.36022046661221</v>
+        <v>38.400551166530526</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>16.903597766489689</v>
+        <v>42.258994416224219</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>16.247855184296508</v>
+        <v>40.619637960741265</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>18.546759533898307</v>
+        <v>46.366898834745768</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>16.345029017765981</v>
+        <v>40.862572544414952</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>15.431651235450271</v>
+        <v>38.57912808862568</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>15.886345083724727</v>
+        <v>39.715862709311821</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>15.244292677915046</v>
+        <v>38.110731694787617</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>15.994771467224833</v>
+        <v>39.986928668062085</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>14.988640754543599</v>
+        <v>37.471601886358997</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>12.729941841944047</v>
+        <v>31.824854604860118</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>14.298414131100673</v>
+        <v>35.746035327751684</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>13.681386358995303</v>
+        <v>34.203465897488257</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24010,99 +24010,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$6</f>
-        <v>31.166737702930373</v>
+        <v>77.916844257325934</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$6</f>
-        <v>25.579378969266898</v>
+        <v>63.948447423167245</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$6</f>
-        <v>23.157810438789046</v>
+        <v>57.894526096972612</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$6</f>
-        <v>20.308498989177046</v>
+        <v>50.771247472942619</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$6</f>
-        <v>18.205278901623444</v>
+        <v>45.51319725405861</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$6</f>
-        <v>15.550412089034102</v>
+        <v>38.876030222585257</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$6</f>
-        <v>14.57218474576271</v>
+        <v>36.430461864406773</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$6</f>
-        <v>13.554677067592403</v>
+        <v>33.886692668981006</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$6</f>
-        <v>12.732803022258523</v>
+        <v>31.832007555646307</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$6</f>
-        <v>14.214527772105374</v>
+        <v>35.536319430263433</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$6</f>
-        <v>13.291629795027566</v>
+        <v>33.229074487568916</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$6</f>
-        <v>15.36022046661221</v>
+        <v>38.400551166530526</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$6</f>
-        <v>16.903597766489689</v>
+        <v>42.258994416224219</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$6</f>
-        <v>16.247855184296508</v>
+        <v>40.619637960741265</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$6</f>
-        <v>18.546759533898307</v>
+        <v>46.366898834745768</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$6</f>
-        <v>16.345029017765981</v>
+        <v>40.862572544414952</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$6</f>
-        <v>15.431651235450271</v>
+        <v>38.57912808862568</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$6</f>
-        <v>15.886345083724727</v>
+        <v>39.715862709311821</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$6</f>
-        <v>15.244292677915046</v>
+        <v>38.110731694787617</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$6</f>
-        <v>15.994771467224833</v>
+        <v>39.986928668062085</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$6</f>
-        <v>14.988640754543599</v>
+        <v>37.471601886358997</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$6</f>
-        <v>12.729941841944047</v>
+        <v>31.824854604860118</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$6</f>
-        <v>14.298414131100673</v>
+        <v>35.746035327751684</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$6</f>
-        <v>13.681386358995303</v>
+        <v>34.203465897488257</v>
       </c>
     </row>
   </sheetData>
@@ -24637,99 +24637,99 @@
       </c>
       <c r="B7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>26.921013688835068</v>
+        <v>67.302534222087672</v>
       </c>
       <c r="C7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>25.020817577108403</v>
+        <v>62.552043942771007</v>
       </c>
       <c r="D7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>30.173772648097092</v>
+        <v>75.434431620242719</v>
       </c>
       <c r="E7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>30.663647525058614</v>
+        <v>76.659118812646525</v>
       </c>
       <c r="F7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>68.303718853874088</v>
       </c>
       <c r="G7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>24.105692483702231</v>
+        <v>60.264231209255577</v>
       </c>
       <c r="H7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>17.573028781983556</v>
+        <v>43.932571954958888</v>
       </c>
       <c r="I7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>15.049092736220981</v>
+        <v>37.622731840552454</v>
       </c>
       <c r="J7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>15.556049153546855</v>
+        <v>38.890122883867136</v>
       </c>
       <c r="K7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>14.614090850060551</v>
+        <v>36.535227125151373</v>
       </c>
       <c r="L7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>15.982302455615965</v>
+        <v>39.955756139039913</v>
       </c>
       <c r="M7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>16.600473214975906</v>
+        <v>41.501183037439773</v>
       </c>
       <c r="N7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>13.647193037697441</v>
+        <v>34.1179825942436</v>
       </c>
       <c r="O7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>14.447698979618128</v>
+        <v>36.119247449045318</v>
       </c>
       <c r="P7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>18.527222809142209</v>
+        <v>46.31805702285552</v>
       </c>
       <c r="Q7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>24.13624737818547</v>
+        <v>60.340618445463676</v>
       </c>
       <c r="R7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>23.629694143111134</v>
+        <v>59.07423535777783</v>
       </c>
       <c r="S7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>25.431166554149808</v>
+        <v>63.577916385374522</v>
       </c>
       <c r="T7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>24.719878172588835</v>
+        <v>61.799695431472088</v>
       </c>
       <c r="U7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>69.851157672833608</v>
       </c>
       <c r="V7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>28.29218763688835</v>
+        <v>70.730469092220872</v>
       </c>
       <c r="W7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>27.32801572831044</v>
+        <v>68.320039320776104</v>
       </c>
       <c r="X7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>25.134099668891238</v>
+        <v>62.835249172228089</v>
       </c>
       <c r="Y7" s="9">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>24.45185742740086</v>
+        <v>61.129643568502154</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -24738,99 +24738,99 @@
       </c>
       <c r="B8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>26.921013688835068</v>
+        <v>67.302534222087672</v>
       </c>
       <c r="C8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>25.020817577108403</v>
+        <v>62.552043942771007</v>
       </c>
       <c r="D8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>30.173772648097092</v>
+        <v>75.434431620242719</v>
       </c>
       <c r="E8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>30.663647525058614</v>
+        <v>76.659118812646525</v>
       </c>
       <c r="F8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>68.303718853874088</v>
       </c>
       <c r="G8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>24.105692483702231</v>
+        <v>60.264231209255577</v>
       </c>
       <c r="H8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>17.573028781983556</v>
+        <v>43.932571954958888</v>
       </c>
       <c r="I8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>15.049092736220981</v>
+        <v>37.622731840552454</v>
       </c>
       <c r="J8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>15.556049153546855</v>
+        <v>38.890122883867136</v>
       </c>
       <c r="K8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>14.614090850060551</v>
+        <v>36.535227125151373</v>
       </c>
       <c r="L8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>15.982302455615965</v>
+        <v>39.955756139039913</v>
       </c>
       <c r="M8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>16.600473214975906</v>
+        <v>41.501183037439773</v>
       </c>
       <c r="N8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>13.647193037697441</v>
+        <v>34.1179825942436</v>
       </c>
       <c r="O8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>14.447698979618128</v>
+        <v>36.119247449045318</v>
       </c>
       <c r="P8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>18.527222809142209</v>
+        <v>46.31805702285552</v>
       </c>
       <c r="Q8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>24.13624737818547</v>
+        <v>60.340618445463676</v>
       </c>
       <c r="R8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>23.629694143111134</v>
+        <v>59.07423535777783</v>
       </c>
       <c r="S8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>25.431166554149808</v>
+        <v>63.577916385374522</v>
       </c>
       <c r="T8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>24.719878172588835</v>
+        <v>61.799695431472088</v>
       </c>
       <c r="U8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>69.851157672833608</v>
       </c>
       <c r="V8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>28.29218763688835</v>
+        <v>70.730469092220872</v>
       </c>
       <c r="W8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>27.32801572831044</v>
+        <v>68.320039320776104</v>
       </c>
       <c r="X8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>25.134099668891238</v>
+        <v>62.835249172228089</v>
       </c>
       <c r="Y8" s="9">
         <f>VLOOKUP($A8,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>24.45185742740086</v>
+        <v>61.129643568502154</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -24839,99 +24839,99 @@
       </c>
       <c r="B9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!B$7</f>
-        <v>26.921013688835068</v>
+        <v>67.302534222087672</v>
       </c>
       <c r="C9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$7</f>
-        <v>25.020817577108403</v>
+        <v>62.552043942771007</v>
       </c>
       <c r="D9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$7</f>
-        <v>30.173772648097092</v>
+        <v>75.434431620242719</v>
       </c>
       <c r="E9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$7</f>
-        <v>30.663647525058614</v>
+        <v>76.659118812646525</v>
       </c>
       <c r="F9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!F$7</f>
-        <v>27.321487541549637</v>
+        <v>68.303718853874088</v>
       </c>
       <c r="G9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!G$7</f>
-        <v>24.105692483702231</v>
+        <v>60.264231209255577</v>
       </c>
       <c r="H9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!H$7</f>
-        <v>17.573028781983556</v>
+        <v>43.932571954958888</v>
       </c>
       <c r="I9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$7</f>
-        <v>15.049092736220981</v>
+        <v>37.622731840552454</v>
       </c>
       <c r="J9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$7</f>
-        <v>15.556049153546855</v>
+        <v>38.890122883867136</v>
       </c>
       <c r="K9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$7</f>
-        <v>14.614090850060551</v>
+        <v>36.535227125151373</v>
       </c>
       <c r="L9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$7</f>
-        <v>15.982302455615965</v>
+        <v>39.955756139039913</v>
       </c>
       <c r="M9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$7</f>
-        <v>16.600473214975906</v>
+        <v>41.501183037439773</v>
       </c>
       <c r="N9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$7</f>
-        <v>13.647193037697441</v>
+        <v>34.1179825942436</v>
       </c>
       <c r="O9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$7</f>
-        <v>14.447698979618128</v>
+        <v>36.119247449045318</v>
       </c>
       <c r="P9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$7</f>
-        <v>18.527222809142209</v>
+        <v>46.31805702285552</v>
       </c>
       <c r="Q9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$7</f>
-        <v>24.13624737818547</v>
+        <v>60.340618445463676</v>
       </c>
       <c r="R9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$7</f>
-        <v>23.629694143111134</v>
+        <v>59.07423535777783</v>
       </c>
       <c r="S9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$7</f>
-        <v>25.431166554149808</v>
+        <v>63.577916385374522</v>
       </c>
       <c r="T9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$7</f>
-        <v>24.719878172588835</v>
+        <v>61.799695431472088</v>
       </c>
       <c r="U9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$7</f>
-        <v>27.940463069133447</v>
+        <v>69.851157672833608</v>
       </c>
       <c r="V9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$7</f>
-        <v>28.29218763688835</v>
+        <v>70.730469092220872</v>
       </c>
       <c r="W9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!W$7</f>
-        <v>27.32801572831044</v>
+        <v>68.320039320776104</v>
       </c>
       <c r="X9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!X$7</f>
-        <v>25.134099668891238</v>
+        <v>62.835249172228089</v>
       </c>
       <c r="Y9" s="9">
         <f>VLOOKUP($A9,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Y$7</f>
-        <v>24.45185742740086</v>
+        <v>61.129643568502154</v>
       </c>
     </row>
   </sheetData>
